--- a/doc/【ToDoリスト】CRUD表_外山秀樹.xlsx
+++ b/doc/【ToDoリスト】CRUD表_外山秀樹.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inthp\Documents\laravel_Todo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE88E8BC-A428-4AB8-9889-096B54ED3D44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C962AFAE-5DCA-4DB6-BAC1-19D37B42B2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="998" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1356" yWindow="924" windowWidth="21600" windowHeight="11328" tabRatio="998" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="94">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
@@ -815,6 +815,13 @@
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>外山</t>
+    <rPh sb="0" eb="2">
+      <t>トヤマ</t>
     </rPh>
     <phoneticPr fontId="7"/>
   </si>
@@ -1954,14 +1961,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1978,36 +1991,37 @@
     <xf numFmtId="176" fontId="16" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2051,50 +2065,28 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2102,9 +2094,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2131,8 +2120,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2204,259 +2211,6 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>358140</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>122398</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>297183</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="吹き出し: 線 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D56320DD-57C2-4C41-8CBF-6BF0DC02D86F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4682490" y="2408398"/>
-          <a:ext cx="4511040" cy="860585"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -30377"/>
-            <a:gd name="adj2" fmla="val 6115"/>
-            <a:gd name="adj3" fmla="val -7878"/>
-            <a:gd name="adj4" fmla="val 11838"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>修正箇所については移動、または削除される可能性があるため、</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>行数やセルなどでは表さず、章などを用いるよう留意してください。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>「○○シート △△セル」といった書き方は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>NG</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>とします。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>436245</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>205740</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>956310</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>198598</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="吹き出し: 線 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAA38314-EE53-4541-B808-C27F76172355}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7103745" y="1463040"/>
-          <a:ext cx="4120515" cy="678658"/>
-        </a:xfrm>
-        <a:prstGeom prst="borderCallout1">
-          <a:avLst>
-            <a:gd name="adj1" fmla="val -56055"/>
-            <a:gd name="adj2" fmla="val 40831"/>
-            <a:gd name="adj3" fmla="val -11420"/>
-            <a:gd name="adj4" fmla="val 48417"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="accent1">
-            <a:lumMod val="20000"/>
-            <a:lumOff val="80000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:ln>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent5">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent5"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent5"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>印刷を考慮し「列」の追加、幅の変更は不可とします。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>ただし「行」の高さについては変更可能とします。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1">
-            <a:solidFill>
-              <a:sysClr val="windowText" lastClr="000000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3047,7 +2801,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27" customHeight="1"/>
@@ -3101,14 +2855,14 @@
       </c>
       <c r="G2" s="77" t="str">
         <f ca="1">IF(ISERROR(MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"",TEXT(INDEX(B:B,MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"YYYY/MM/DD"))</f>
-        <v/>
+        <v>2022/01/04</v>
       </c>
       <c r="H2" s="76" t="s">
         <v>2</v>
       </c>
       <c r="I2" s="78" t="str">
         <f ca="1">IF(ISERROR(MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"",INDEX(C:C,MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))))</f>
-        <v/>
+        <v>外山</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" customHeight="1">
@@ -3138,35 +2892,39 @@
       <c r="E4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="132" t="s">
+      <c r="F4" s="125" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132" t="s">
+      <c r="G4" s="125"/>
+      <c r="H4" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="133"/>
+      <c r="I4" s="126"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1">
       <c r="A5" s="88" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="90"/>
+      <c r="B5" s="89">
+        <v>44565</v>
+      </c>
+      <c r="C5" s="90" t="s">
+        <v>93</v>
+      </c>
       <c r="D5" s="90" t="s">
         <v>69</v>
       </c>
       <c r="E5" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="134" t="s">
+      <c r="F5" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134" t="s">
+      <c r="G5" s="127"/>
+      <c r="H5" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="135"/>
+      <c r="I5" s="128"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1">
       <c r="A6" s="88"/>
@@ -3174,43 +2932,43 @@
       <c r="C6" s="92"/>
       <c r="D6" s="90"/>
       <c r="E6" s="93"/>
-      <c r="F6" s="127"/>
-      <c r="G6" s="127"/>
-      <c r="H6" s="127"/>
-      <c r="I6" s="128"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="130"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="129"/>
+      <c r="A7" s="131"/>
       <c r="B7" s="94"/>
       <c r="C7" s="92"/>
       <c r="D7" s="90"/>
       <c r="E7" s="93"/>
-      <c r="F7" s="127"/>
-      <c r="G7" s="127"/>
-      <c r="H7" s="127"/>
-      <c r="I7" s="128"/>
+      <c r="F7" s="129"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="130"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="130"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="94"/>
       <c r="C8" s="92"/>
       <c r="D8" s="90"/>
       <c r="E8" s="93"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="127"/>
-      <c r="H8" s="127"/>
-      <c r="I8" s="128"/>
+      <c r="F8" s="129"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="130"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="131"/>
+      <c r="A9" s="133"/>
       <c r="B9" s="94"/>
       <c r="C9" s="92"/>
       <c r="D9" s="90"/>
       <c r="E9" s="93"/>
-      <c r="F9" s="127"/>
-      <c r="G9" s="127"/>
-      <c r="H9" s="127"/>
-      <c r="I9" s="128"/>
+      <c r="F9" s="129"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="130"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1">
       <c r="A10" s="95"/>
@@ -3218,10 +2976,10 @@
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
       <c r="E10" s="93"/>
-      <c r="F10" s="127"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="127"/>
-      <c r="I10" s="128"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="130"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1">
       <c r="A11" s="95"/>
@@ -3229,10 +2987,10 @@
       <c r="C11" s="98"/>
       <c r="D11" s="91"/>
       <c r="E11" s="99"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="125"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="126"/>
+      <c r="F11" s="134"/>
+      <c r="G11" s="135"/>
+      <c r="H11" s="134"/>
+      <c r="I11" s="136"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1">
       <c r="A12" s="95"/>
@@ -3240,10 +2998,10 @@
       <c r="C12" s="98"/>
       <c r="D12" s="91"/>
       <c r="E12" s="99"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="126"/>
+      <c r="F12" s="134"/>
+      <c r="G12" s="135"/>
+      <c r="H12" s="134"/>
+      <c r="I12" s="136"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1">
       <c r="A13" s="95"/>
@@ -3251,10 +3009,10 @@
       <c r="C13" s="98"/>
       <c r="D13" s="91"/>
       <c r="E13" s="99"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="126"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="135"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="136"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="95"/>
@@ -3262,10 +3020,10 @@
       <c r="C14" s="98"/>
       <c r="D14" s="91"/>
       <c r="E14" s="99"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="125"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="126"/>
+      <c r="F14" s="134"/>
+      <c r="G14" s="135"/>
+      <c r="H14" s="134"/>
+      <c r="I14" s="136"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="95"/>
@@ -3273,10 +3031,10 @@
       <c r="C15" s="98"/>
       <c r="D15" s="91"/>
       <c r="E15" s="99"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="125"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="126"/>
+      <c r="F15" s="134"/>
+      <c r="G15" s="135"/>
+      <c r="H15" s="134"/>
+      <c r="I15" s="136"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="95"/>
@@ -3284,10 +3042,10 @@
       <c r="C16" s="98"/>
       <c r="D16" s="91"/>
       <c r="E16" s="99"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="125"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="126"/>
+      <c r="F16" s="134"/>
+      <c r="G16" s="135"/>
+      <c r="H16" s="134"/>
+      <c r="I16" s="136"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1">
       <c r="A17" s="95"/>
@@ -3346,25 +3104,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="F13:G13"/>
@@ -3373,6 +3112,25 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <dataValidations count="1">
@@ -3387,8 +3145,7 @@
     <oddHeader>&amp;L&amp;G</oddHeader>
     <oddFooter>&amp;L(C) 2019 Lateral Thinking Inc.&amp;R&amp;P / &amp;N</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
-  <legacyDrawingHF r:id="rId3"/>
+  <legacyDrawingHF r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3409,338 +3166,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="110" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="139" t="str">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="173" t="str">
         <f>表紙!J9</f>
         <v>（ToDoリスト）</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="137"/>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="137"/>
-      <c r="AS1" s="137"/>
-      <c r="AT1" s="137"/>
-      <c r="AU1" s="137"/>
-      <c r="AV1" s="137"/>
-      <c r="AW1" s="137"/>
-      <c r="AX1" s="137"/>
-      <c r="AY1" s="137"/>
-      <c r="AZ1" s="137"/>
-      <c r="BA1" s="137"/>
-      <c r="BB1" s="137"/>
-      <c r="BC1" s="137"/>
-      <c r="BD1" s="137"/>
-      <c r="BE1" s="137"/>
-      <c r="BF1" s="137"/>
-      <c r="BG1" s="140" t="s">
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="171"/>
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="171"/>
+      <c r="AR1" s="171"/>
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="171"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="171"/>
+      <c r="AX1" s="171"/>
+      <c r="AY1" s="171"/>
+      <c r="AZ1" s="171"/>
+      <c r="BA1" s="171"/>
+      <c r="BB1" s="171"/>
+      <c r="BC1" s="171"/>
+      <c r="BD1" s="171"/>
+      <c r="BE1" s="171"/>
+      <c r="BF1" s="171"/>
+      <c r="BG1" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="137"/>
-      <c r="BI1" s="137"/>
-      <c r="BJ1" s="141">
+      <c r="BH1" s="171"/>
+      <c r="BI1" s="171"/>
+      <c r="BJ1" s="175">
         <v>44568</v>
       </c>
-      <c r="BK1" s="137"/>
-      <c r="BL1" s="137"/>
-      <c r="BM1" s="137"/>
-      <c r="BN1" s="137"/>
-      <c r="BO1" s="137"/>
-      <c r="BP1" s="140" t="s">
+      <c r="BK1" s="171"/>
+      <c r="BL1" s="171"/>
+      <c r="BM1" s="171"/>
+      <c r="BN1" s="171"/>
+      <c r="BO1" s="171"/>
+      <c r="BP1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="137"/>
-      <c r="BR1" s="137"/>
-      <c r="BS1" s="136" t="s">
+      <c r="BQ1" s="171"/>
+      <c r="BR1" s="171"/>
+      <c r="BS1" s="170" t="s">
         <v>82</v>
       </c>
-      <c r="BT1" s="137"/>
-      <c r="BU1" s="137"/>
-      <c r="BV1" s="137"/>
-      <c r="BW1" s="137"/>
-      <c r="BX1" s="137"/>
+      <c r="BT1" s="171"/>
+      <c r="BU1" s="171"/>
+      <c r="BV1" s="171"/>
+      <c r="BW1" s="171"/>
+      <c r="BX1" s="171"/>
     </row>
     <row r="2" spans="1:76" s="117" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="139" t="str">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="173" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： テンプレート</v>
       </c>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="137"/>
-      <c r="AN2" s="137"/>
-      <c r="AO2" s="137"/>
-      <c r="AP2" s="137"/>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="137"/>
-      <c r="AS2" s="137"/>
-      <c r="AT2" s="137"/>
-      <c r="AU2" s="137"/>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="137"/>
-      <c r="AY2" s="137"/>
-      <c r="AZ2" s="137"/>
-      <c r="BA2" s="137"/>
-      <c r="BB2" s="137"/>
-      <c r="BC2" s="137"/>
-      <c r="BD2" s="137"/>
-      <c r="BE2" s="137"/>
-      <c r="BF2" s="137"/>
-      <c r="BG2" s="140" t="s">
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="171"/>
+      <c r="AK2" s="171"/>
+      <c r="AL2" s="171"/>
+      <c r="AM2" s="171"/>
+      <c r="AN2" s="171"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="171"/>
+      <c r="AR2" s="171"/>
+      <c r="AS2" s="171"/>
+      <c r="AT2" s="171"/>
+      <c r="AU2" s="171"/>
+      <c r="AV2" s="171"/>
+      <c r="AW2" s="171"/>
+      <c r="AX2" s="171"/>
+      <c r="AY2" s="171"/>
+      <c r="AZ2" s="171"/>
+      <c r="BA2" s="171"/>
+      <c r="BB2" s="171"/>
+      <c r="BC2" s="171"/>
+      <c r="BD2" s="171"/>
+      <c r="BE2" s="171"/>
+      <c r="BF2" s="171"/>
+      <c r="BG2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="137"/>
-      <c r="BI2" s="137"/>
-      <c r="BJ2" s="141"/>
-      <c r="BK2" s="137"/>
-      <c r="BL2" s="137"/>
-      <c r="BM2" s="137"/>
-      <c r="BN2" s="137"/>
-      <c r="BO2" s="137"/>
-      <c r="BP2" s="140" t="s">
+      <c r="BH2" s="171"/>
+      <c r="BI2" s="171"/>
+      <c r="BJ2" s="175"/>
+      <c r="BK2" s="171"/>
+      <c r="BL2" s="171"/>
+      <c r="BM2" s="171"/>
+      <c r="BN2" s="171"/>
+      <c r="BO2" s="171"/>
+      <c r="BP2" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="137"/>
-      <c r="BR2" s="137"/>
-      <c r="BS2" s="136"/>
-      <c r="BT2" s="137"/>
-      <c r="BU2" s="137"/>
-      <c r="BV2" s="137"/>
-      <c r="BW2" s="137"/>
-      <c r="BX2" s="137"/>
+      <c r="BQ2" s="171"/>
+      <c r="BR2" s="171"/>
+      <c r="BS2" s="170"/>
+      <c r="BT2" s="171"/>
+      <c r="BU2" s="171"/>
+      <c r="BV2" s="171"/>
+      <c r="BW2" s="171"/>
+      <c r="BX2" s="171"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
-      <c r="J3" s="169"/>
-      <c r="K3" s="169"/>
-      <c r="L3" s="169"/>
-      <c r="M3" s="169"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="169"/>
-      <c r="S3" s="169"/>
-      <c r="T3" s="169"/>
-      <c r="U3" s="169"/>
-      <c r="V3" s="169"/>
-      <c r="W3" s="169"/>
-      <c r="X3" s="169"/>
-      <c r="Y3" s="169"/>
-      <c r="Z3" s="169"/>
-      <c r="AA3" s="169"/>
-      <c r="AB3" s="169"/>
-      <c r="AC3" s="169"/>
-      <c r="AD3" s="169"/>
-      <c r="AE3" s="169"/>
-      <c r="AF3" s="169"/>
-      <c r="AG3" s="169"/>
-      <c r="AH3" s="169"/>
-      <c r="AI3" s="169"/>
-      <c r="AJ3" s="169"/>
-      <c r="AK3" s="169"/>
-      <c r="AL3" s="169"/>
-      <c r="AM3" s="169"/>
-      <c r="AN3" s="169"/>
-      <c r="AO3" s="169"/>
-      <c r="AP3" s="169"/>
-      <c r="AQ3" s="169"/>
-      <c r="AR3" s="169"/>
-      <c r="AS3" s="169"/>
-      <c r="AT3" s="169"/>
-      <c r="AU3" s="169"/>
-      <c r="AV3" s="169"/>
-      <c r="AW3" s="169"/>
-      <c r="AX3" s="169"/>
-      <c r="AY3" s="169"/>
-      <c r="AZ3" s="169"/>
-      <c r="BA3" s="169"/>
-      <c r="BB3" s="169"/>
-      <c r="BC3" s="169"/>
-      <c r="BD3" s="169"/>
-      <c r="BE3" s="169"/>
-      <c r="BF3" s="169"/>
-      <c r="BG3" s="169"/>
-      <c r="BH3" s="169"/>
-      <c r="BI3" s="169"/>
-      <c r="BJ3" s="169"/>
-      <c r="BK3" s="169"/>
-      <c r="BL3" s="169"/>
-      <c r="BM3" s="169"/>
-      <c r="BN3" s="169"/>
-      <c r="BO3" s="169"/>
-      <c r="BP3" s="169"/>
-      <c r="BQ3" s="169"/>
-      <c r="BR3" s="169"/>
-      <c r="BS3" s="169"/>
-      <c r="BT3" s="169"/>
-      <c r="BU3" s="169"/>
-      <c r="BV3" s="169"/>
-      <c r="BW3" s="169"/>
-      <c r="BX3" s="169"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="137"/>
+      <c r="K3" s="137"/>
+      <c r="L3" s="137"/>
+      <c r="M3" s="137"/>
+      <c r="N3" s="137"/>
+      <c r="O3" s="137"/>
+      <c r="P3" s="137"/>
+      <c r="Q3" s="137"/>
+      <c r="R3" s="137"/>
+      <c r="S3" s="137"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="137"/>
+      <c r="AB3" s="137"/>
+      <c r="AC3" s="137"/>
+      <c r="AD3" s="137"/>
+      <c r="AE3" s="137"/>
+      <c r="AF3" s="137"/>
+      <c r="AG3" s="137"/>
+      <c r="AH3" s="137"/>
+      <c r="AI3" s="137"/>
+      <c r="AJ3" s="137"/>
+      <c r="AK3" s="137"/>
+      <c r="AL3" s="137"/>
+      <c r="AM3" s="137"/>
+      <c r="AN3" s="137"/>
+      <c r="AO3" s="137"/>
+      <c r="AP3" s="137"/>
+      <c r="AQ3" s="137"/>
+      <c r="AR3" s="137"/>
+      <c r="AS3" s="137"/>
+      <c r="AT3" s="137"/>
+      <c r="AU3" s="137"/>
+      <c r="AV3" s="137"/>
+      <c r="AW3" s="137"/>
+      <c r="AX3" s="137"/>
+      <c r="AY3" s="137"/>
+      <c r="AZ3" s="137"/>
+      <c r="BA3" s="137"/>
+      <c r="BB3" s="137"/>
+      <c r="BC3" s="137"/>
+      <c r="BD3" s="137"/>
+      <c r="BE3" s="137"/>
+      <c r="BF3" s="137"/>
+      <c r="BG3" s="137"/>
+      <c r="BH3" s="137"/>
+      <c r="BI3" s="137"/>
+      <c r="BJ3" s="137"/>
+      <c r="BK3" s="137"/>
+      <c r="BL3" s="137"/>
+      <c r="BM3" s="137"/>
+      <c r="BN3" s="137"/>
+      <c r="BO3" s="137"/>
+      <c r="BP3" s="137"/>
+      <c r="BQ3" s="137"/>
+      <c r="BR3" s="137"/>
+      <c r="BS3" s="137"/>
+      <c r="BT3" s="137"/>
+      <c r="BU3" s="137"/>
+      <c r="BV3" s="137"/>
+      <c r="BW3" s="137"/>
+      <c r="BX3" s="137"/>
     </row>
     <row r="4" spans="1:76">
-      <c r="A4" s="170"/>
-      <c r="B4" s="171"/>
-      <c r="C4" s="171"/>
-      <c r="D4" s="171"/>
-      <c r="E4" s="171"/>
-      <c r="F4" s="171"/>
-      <c r="G4" s="171"/>
-      <c r="H4" s="171"/>
-      <c r="I4" s="171"/>
-      <c r="J4" s="171"/>
-      <c r="K4" s="171"/>
-      <c r="L4" s="171"/>
-      <c r="M4" s="171"/>
-      <c r="N4" s="171"/>
-      <c r="O4" s="171"/>
-      <c r="P4" s="171"/>
-      <c r="Q4" s="171"/>
-      <c r="R4" s="171"/>
-      <c r="S4" s="171"/>
-      <c r="T4" s="171"/>
-      <c r="U4" s="171"/>
-      <c r="V4" s="171"/>
-      <c r="W4" s="171"/>
-      <c r="X4" s="171"/>
-      <c r="Y4" s="171"/>
-      <c r="Z4" s="171"/>
-      <c r="AA4" s="171"/>
-      <c r="AB4" s="171"/>
-      <c r="AC4" s="171"/>
-      <c r="AD4" s="171"/>
-      <c r="AE4" s="171"/>
-      <c r="AF4" s="171"/>
-      <c r="AG4" s="171"/>
-      <c r="AH4" s="171"/>
-      <c r="AI4" s="171"/>
-      <c r="AJ4" s="171"/>
-      <c r="AK4" s="171"/>
-      <c r="AL4" s="171"/>
-      <c r="AM4" s="171"/>
-      <c r="AN4" s="171"/>
-      <c r="AO4" s="171"/>
-      <c r="AP4" s="171"/>
-      <c r="AQ4" s="171"/>
-      <c r="AR4" s="171"/>
-      <c r="AS4" s="171"/>
-      <c r="AT4" s="171"/>
-      <c r="AU4" s="171"/>
-      <c r="AV4" s="171"/>
-      <c r="AW4" s="171"/>
-      <c r="AX4" s="171"/>
-      <c r="AY4" s="171"/>
-      <c r="AZ4" s="171"/>
-      <c r="BA4" s="171"/>
-      <c r="BB4" s="171"/>
-      <c r="BC4" s="171"/>
-      <c r="BD4" s="171"/>
-      <c r="BE4" s="171"/>
-      <c r="BF4" s="171"/>
-      <c r="BG4" s="171"/>
-      <c r="BH4" s="171"/>
-      <c r="BI4" s="171"/>
-      <c r="BJ4" s="171"/>
-      <c r="BK4" s="171"/>
-      <c r="BL4" s="171"/>
-      <c r="BM4" s="171"/>
-      <c r="BN4" s="171"/>
-      <c r="BO4" s="171"/>
-      <c r="BP4" s="171"/>
-      <c r="BQ4" s="171"/>
-      <c r="BR4" s="171"/>
-      <c r="BS4" s="171"/>
-      <c r="BT4" s="171"/>
-      <c r="BU4" s="171"/>
-      <c r="BV4" s="171"/>
-      <c r="BW4" s="171"/>
-      <c r="BX4" s="172"/>
+      <c r="A4" s="138"/>
+      <c r="B4" s="139"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
+      <c r="N4" s="139"/>
+      <c r="O4" s="139"/>
+      <c r="P4" s="139"/>
+      <c r="Q4" s="139"/>
+      <c r="R4" s="139"/>
+      <c r="S4" s="139"/>
+      <c r="T4" s="139"/>
+      <c r="U4" s="139"/>
+      <c r="V4" s="139"/>
+      <c r="W4" s="139"/>
+      <c r="X4" s="139"/>
+      <c r="Y4" s="139"/>
+      <c r="Z4" s="139"/>
+      <c r="AA4" s="139"/>
+      <c r="AB4" s="139"/>
+      <c r="AC4" s="139"/>
+      <c r="AD4" s="139"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="139"/>
+      <c r="AG4" s="139"/>
+      <c r="AH4" s="139"/>
+      <c r="AI4" s="139"/>
+      <c r="AJ4" s="139"/>
+      <c r="AK4" s="139"/>
+      <c r="AL4" s="139"/>
+      <c r="AM4" s="139"/>
+      <c r="AN4" s="139"/>
+      <c r="AO4" s="139"/>
+      <c r="AP4" s="139"/>
+      <c r="AQ4" s="139"/>
+      <c r="AR4" s="139"/>
+      <c r="AS4" s="139"/>
+      <c r="AT4" s="139"/>
+      <c r="AU4" s="139"/>
+      <c r="AV4" s="139"/>
+      <c r="AW4" s="139"/>
+      <c r="AX4" s="139"/>
+      <c r="AY4" s="139"/>
+      <c r="AZ4" s="139"/>
+      <c r="BA4" s="139"/>
+      <c r="BB4" s="139"/>
+      <c r="BC4" s="139"/>
+      <c r="BD4" s="139"/>
+      <c r="BE4" s="139"/>
+      <c r="BF4" s="139"/>
+      <c r="BG4" s="139"/>
+      <c r="BH4" s="139"/>
+      <c r="BI4" s="139"/>
+      <c r="BJ4" s="139"/>
+      <c r="BK4" s="139"/>
+      <c r="BL4" s="139"/>
+      <c r="BM4" s="139"/>
+      <c r="BN4" s="139"/>
+      <c r="BO4" s="139"/>
+      <c r="BP4" s="139"/>
+      <c r="BQ4" s="139"/>
+      <c r="BR4" s="139"/>
+      <c r="BS4" s="139"/>
+      <c r="BT4" s="139"/>
+      <c r="BU4" s="139"/>
+      <c r="BV4" s="139"/>
+      <c r="BW4" s="139"/>
+      <c r="BX4" s="140"/>
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
@@ -3822,105 +3579,105 @@
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="173" t="s">
+      <c r="B6" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="174"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="163" t="s">
+      <c r="C6" s="142"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="143"/>
+      <c r="F6" s="143"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
+      <c r="K6" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="164"/>
-      <c r="M6" s="164"/>
-      <c r="N6" s="164"/>
-      <c r="O6" s="163" t="s">
+      <c r="L6" s="146"/>
+      <c r="M6" s="146"/>
+      <c r="N6" s="146"/>
+      <c r="O6" s="145" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="164"/>
-      <c r="Q6" s="164"/>
-      <c r="R6" s="164"/>
-      <c r="S6" s="163" t="s">
+      <c r="P6" s="146"/>
+      <c r="Q6" s="146"/>
+      <c r="R6" s="146"/>
+      <c r="S6" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="T6" s="164"/>
-      <c r="U6" s="164"/>
-      <c r="V6" s="164"/>
-      <c r="W6" s="163"/>
-      <c r="X6" s="164"/>
-      <c r="Y6" s="164"/>
-      <c r="Z6" s="164"/>
-      <c r="AA6" s="163"/>
-      <c r="AB6" s="164"/>
-      <c r="AC6" s="164"/>
-      <c r="AD6" s="164"/>
-      <c r="AE6" s="163"/>
-      <c r="AF6" s="164"/>
-      <c r="AG6" s="164"/>
-      <c r="AH6" s="164"/>
-      <c r="AI6" s="163"/>
-      <c r="AJ6" s="164"/>
-      <c r="AK6" s="164"/>
-      <c r="AL6" s="164"/>
-      <c r="AM6" s="163"/>
-      <c r="AN6" s="164"/>
-      <c r="AO6" s="164"/>
-      <c r="AP6" s="164"/>
-      <c r="AQ6" s="163"/>
-      <c r="AR6" s="164"/>
-      <c r="AS6" s="164"/>
-      <c r="AT6" s="164"/>
-      <c r="AU6" s="163"/>
-      <c r="AV6" s="164"/>
-      <c r="AW6" s="164"/>
-      <c r="AX6" s="164"/>
-      <c r="AY6" s="163"/>
-      <c r="AZ6" s="164"/>
-      <c r="BA6" s="164"/>
-      <c r="BB6" s="164"/>
-      <c r="BC6" s="163"/>
-      <c r="BD6" s="164"/>
-      <c r="BE6" s="164"/>
-      <c r="BF6" s="164"/>
-      <c r="BG6" s="163"/>
-      <c r="BH6" s="164"/>
-      <c r="BI6" s="164"/>
-      <c r="BJ6" s="164"/>
-      <c r="BK6" s="163"/>
-      <c r="BL6" s="164"/>
-      <c r="BM6" s="164"/>
-      <c r="BN6" s="164"/>
-      <c r="BO6" s="163"/>
-      <c r="BP6" s="164"/>
-      <c r="BQ6" s="164"/>
-      <c r="BR6" s="164"/>
-      <c r="BS6" s="163"/>
-      <c r="BT6" s="164"/>
-      <c r="BU6" s="164"/>
-      <c r="BV6" s="164"/>
+      <c r="T6" s="146"/>
+      <c r="U6" s="146"/>
+      <c r="V6" s="146"/>
+      <c r="W6" s="145"/>
+      <c r="X6" s="146"/>
+      <c r="Y6" s="146"/>
+      <c r="Z6" s="146"/>
+      <c r="AA6" s="145"/>
+      <c r="AB6" s="146"/>
+      <c r="AC6" s="146"/>
+      <c r="AD6" s="146"/>
+      <c r="AE6" s="145"/>
+      <c r="AF6" s="146"/>
+      <c r="AG6" s="146"/>
+      <c r="AH6" s="146"/>
+      <c r="AI6" s="145"/>
+      <c r="AJ6" s="146"/>
+      <c r="AK6" s="146"/>
+      <c r="AL6" s="146"/>
+      <c r="AM6" s="145"/>
+      <c r="AN6" s="146"/>
+      <c r="AO6" s="146"/>
+      <c r="AP6" s="146"/>
+      <c r="AQ6" s="145"/>
+      <c r="AR6" s="146"/>
+      <c r="AS6" s="146"/>
+      <c r="AT6" s="146"/>
+      <c r="AU6" s="145"/>
+      <c r="AV6" s="146"/>
+      <c r="AW6" s="146"/>
+      <c r="AX6" s="146"/>
+      <c r="AY6" s="145"/>
+      <c r="AZ6" s="146"/>
+      <c r="BA6" s="146"/>
+      <c r="BB6" s="146"/>
+      <c r="BC6" s="145"/>
+      <c r="BD6" s="146"/>
+      <c r="BE6" s="146"/>
+      <c r="BF6" s="146"/>
+      <c r="BG6" s="145"/>
+      <c r="BH6" s="146"/>
+      <c r="BI6" s="146"/>
+      <c r="BJ6" s="146"/>
+      <c r="BK6" s="145"/>
+      <c r="BL6" s="146"/>
+      <c r="BM6" s="146"/>
+      <c r="BN6" s="146"/>
+      <c r="BO6" s="145"/>
+      <c r="BP6" s="146"/>
+      <c r="BQ6" s="146"/>
+      <c r="BR6" s="146"/>
+      <c r="BS6" s="145"/>
+      <c r="BT6" s="146"/>
+      <c r="BU6" s="146"/>
+      <c r="BV6" s="146"/>
       <c r="BW6" s="3"/>
       <c r="BX6" s="4"/>
     </row>
     <row r="7" spans="1:76">
       <c r="A7" s="2"/>
-      <c r="B7" s="165" t="s">
+      <c r="B7" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="168"/>
-      <c r="F7" s="165" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="143"/>
+      <c r="E7" s="144"/>
+      <c r="F7" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="168"/>
+      <c r="G7" s="143"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="143"/>
+      <c r="J7" s="144"/>
       <c r="K7" s="20" t="s">
         <v>37</v>
       </c>
@@ -4118,17 +3875,17 @@
     </row>
     <row r="8" spans="1:76">
       <c r="A8" s="2"/>
-      <c r="B8" s="142"/>
-      <c r="C8" s="143"/>
-      <c r="D8" s="143"/>
-      <c r="E8" s="144"/>
-      <c r="F8" s="153" t="s">
+      <c r="B8" s="149"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="151"/>
+      <c r="F8" s="160" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
       <c r="K8" s="11" t="s">
         <v>81</v>
       </c>
@@ -4200,17 +3957,17 @@
     </row>
     <row r="9" spans="1:76">
       <c r="A9" s="2"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="153" t="s">
+      <c r="B9" s="152"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="160" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
         <v>81</v>
@@ -4282,17 +4039,17 @@
     </row>
     <row r="10" spans="1:76">
       <c r="A10" s="2"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="153" t="s">
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="160" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
@@ -4364,17 +4121,17 @@
     </row>
     <row r="11" spans="1:76">
       <c r="A11" s="2"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="153" t="s">
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="160" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -4446,15 +4203,15 @@
     </row>
     <row r="12" spans="1:76">
       <c r="A12" s="2"/>
-      <c r="B12" s="145"/>
-      <c r="C12" s="146"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="153"/>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="153"/>
+      <c r="B12" s="152"/>
+      <c r="C12" s="153"/>
+      <c r="D12" s="153"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="160"/>
+      <c r="G12" s="160"/>
+      <c r="H12" s="160"/>
+      <c r="I12" s="160"/>
+      <c r="J12" s="160"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -4524,15 +4281,15 @@
     </row>
     <row r="13" spans="1:76">
       <c r="A13" s="2"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="154"/>
-      <c r="G13" s="155"/>
-      <c r="H13" s="155"/>
-      <c r="I13" s="155"/>
-      <c r="J13" s="156"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="163"/>
       <c r="K13" s="24"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -4602,15 +4359,15 @@
     </row>
     <row r="14" spans="1:76">
       <c r="A14" s="2"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="157"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="159"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="166"/>
       <c r="K14" s="25"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -4680,15 +4437,15 @@
     </row>
     <row r="15" spans="1:76">
       <c r="A15" s="2"/>
-      <c r="B15" s="150"/>
-      <c r="C15" s="151"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="160"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
-      <c r="J15" s="162"/>
+      <c r="B15" s="157"/>
+      <c r="C15" s="158"/>
+      <c r="D15" s="158"/>
+      <c r="E15" s="159"/>
+      <c r="F15" s="167"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="168"/>
+      <c r="J15" s="169"/>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -4758,15 +4515,15 @@
     </row>
     <row r="16" spans="1:76">
       <c r="A16" s="2"/>
-      <c r="B16" s="142"/>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="144"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
+      <c r="B16" s="149"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="160"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -4836,15 +4593,15 @@
     </row>
     <row r="17" spans="1:76">
       <c r="A17" s="2"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="160"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11"/>
@@ -4914,15 +4671,15 @@
     </row>
     <row r="18" spans="1:76">
       <c r="A18" s="2"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
+      <c r="B18" s="152"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="160"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12"/>
       <c r="M18" s="11"/>
@@ -4992,15 +4749,15 @@
     </row>
     <row r="19" spans="1:76">
       <c r="A19" s="2"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
+      <c r="B19" s="152"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="160"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
@@ -5070,15 +4827,15 @@
     </row>
     <row r="20" spans="1:76">
       <c r="A20" s="2"/>
-      <c r="B20" s="145"/>
-      <c r="C20" s="146"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="153"/>
-      <c r="H20" s="153"/>
-      <c r="I20" s="153"/>
-      <c r="J20" s="153"/>
+      <c r="B20" s="152"/>
+      <c r="C20" s="153"/>
+      <c r="D20" s="153"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="160"/>
+      <c r="G20" s="160"/>
+      <c r="H20" s="160"/>
+      <c r="I20" s="160"/>
+      <c r="J20" s="160"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
@@ -5148,15 +4905,15 @@
     </row>
     <row r="21" spans="1:76">
       <c r="A21" s="2"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="154"/>
-      <c r="G21" s="155"/>
-      <c r="H21" s="155"/>
-      <c r="I21" s="155"/>
-      <c r="J21" s="156"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="162"/>
+      <c r="I21" s="162"/>
+      <c r="J21" s="163"/>
       <c r="K21" s="24"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -5226,15 +4983,15 @@
     </row>
     <row r="22" spans="1:76">
       <c r="A22" s="2"/>
-      <c r="B22" s="148"/>
-      <c r="C22" s="149"/>
-      <c r="D22" s="149"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="158"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="159"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="154"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="165"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="165"/>
+      <c r="J22" s="166"/>
       <c r="K22" s="25"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -5304,15 +5061,15 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="150"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
-      <c r="J23" s="162"/>
+      <c r="B23" s="157"/>
+      <c r="C23" s="158"/>
+      <c r="D23" s="158"/>
+      <c r="E23" s="159"/>
+      <c r="F23" s="167"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="168"/>
+      <c r="J23" s="169"/>
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -5382,15 +5139,15 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="142"/>
-      <c r="C24" s="143"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
+      <c r="B24" s="149"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -5460,15 +5217,15 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
@@ -5538,15 +5295,15 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
       <c r="K26" s="11"/>
       <c r="L26" s="12"/>
       <c r="M26" s="11"/>
@@ -5616,15 +5373,15 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
@@ -5694,15 +5451,15 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="145"/>
-      <c r="C28" s="146"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="153"/>
-      <c r="H28" s="153"/>
-      <c r="I28" s="153"/>
-      <c r="J28" s="153"/>
+      <c r="B28" s="152"/>
+      <c r="C28" s="153"/>
+      <c r="D28" s="153"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="160"/>
+      <c r="G28" s="160"/>
+      <c r="H28" s="160"/>
+      <c r="I28" s="160"/>
+      <c r="J28" s="160"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
@@ -5772,17 +5529,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="154" t="s">
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="155"/>
-      <c r="H29" s="155"/>
-      <c r="I29" s="155"/>
-      <c r="J29" s="156"/>
+      <c r="G29" s="162"/>
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="163"/>
       <c r="K29" s="24"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -5852,17 +5609,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="148"/>
-      <c r="C30" s="149"/>
-      <c r="D30" s="149"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="157" t="s">
+      <c r="B30" s="155"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="154"/>
+      <c r="F30" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="158"/>
-      <c r="H30" s="158"/>
-      <c r="I30" s="158"/>
-      <c r="J30" s="159"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="165"/>
+      <c r="J30" s="166"/>
       <c r="K30" s="25"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -5932,17 +5689,17 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="150"/>
-      <c r="C31" s="151"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="160" t="s">
+      <c r="B31" s="157"/>
+      <c r="C31" s="158"/>
+      <c r="D31" s="158"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
-      <c r="J31" s="162"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="168"/>
+      <c r="J31" s="169"/>
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -6012,15 +5769,15 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="142"/>
-      <c r="C32" s="143"/>
-      <c r="D32" s="143"/>
-      <c r="E32" s="144"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
+      <c r="B32" s="149"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
@@ -6090,15 +5847,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -6168,15 +5925,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
       <c r="M34" s="11"/>
@@ -6246,15 +6003,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -6324,15 +6081,15 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="145"/>
-      <c r="C36" s="146"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="153"/>
-      <c r="G36" s="153"/>
-      <c r="H36" s="153"/>
-      <c r="I36" s="153"/>
-      <c r="J36" s="153"/>
+      <c r="B36" s="152"/>
+      <c r="C36" s="153"/>
+      <c r="D36" s="153"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="160"/>
+      <c r="G36" s="160"/>
+      <c r="H36" s="160"/>
+      <c r="I36" s="160"/>
+      <c r="J36" s="160"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="12"/>
@@ -6402,17 +6159,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="154" t="s">
+      <c r="B37" s="155"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="155"/>
-      <c r="H37" s="155"/>
-      <c r="I37" s="155"/>
-      <c r="J37" s="156"/>
+      <c r="G37" s="162"/>
+      <c r="H37" s="162"/>
+      <c r="I37" s="162"/>
+      <c r="J37" s="163"/>
       <c r="K37" s="24"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -6482,17 +6239,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="148"/>
-      <c r="C38" s="149"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="147"/>
-      <c r="F38" s="157" t="s">
+      <c r="B38" s="155"/>
+      <c r="C38" s="156"/>
+      <c r="D38" s="156"/>
+      <c r="E38" s="154"/>
+      <c r="F38" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="158"/>
-      <c r="H38" s="158"/>
-      <c r="I38" s="158"/>
-      <c r="J38" s="159"/>
+      <c r="G38" s="165"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="165"/>
+      <c r="J38" s="166"/>
       <c r="K38" s="25"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -6562,17 +6319,17 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="150"/>
-      <c r="C39" s="151"/>
-      <c r="D39" s="151"/>
-      <c r="E39" s="152"/>
-      <c r="F39" s="160" t="s">
+      <c r="B39" s="157"/>
+      <c r="C39" s="158"/>
+      <c r="D39" s="158"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
-      <c r="J39" s="162"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="168"/>
+      <c r="J39" s="169"/>
       <c r="K39" s="17"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
@@ -6642,15 +6399,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="142"/>
-      <c r="C40" s="143"/>
-      <c r="D40" s="143"/>
-      <c r="E40" s="144"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
+      <c r="B40" s="149"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="150"/>
+      <c r="E40" s="151"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -6720,15 +6477,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -6798,15 +6555,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
       <c r="M42" s="11"/>
@@ -6876,15 +6633,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -6954,15 +6711,15 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="145"/>
-      <c r="C44" s="146"/>
-      <c r="D44" s="146"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="153"/>
-      <c r="G44" s="153"/>
-      <c r="H44" s="153"/>
-      <c r="I44" s="153"/>
-      <c r="J44" s="153"/>
+      <c r="B44" s="152"/>
+      <c r="C44" s="153"/>
+      <c r="D44" s="153"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="160"/>
+      <c r="G44" s="160"/>
+      <c r="H44" s="160"/>
+      <c r="I44" s="160"/>
+      <c r="J44" s="160"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
@@ -7032,17 +6789,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="154" t="s">
+      <c r="B45" s="155"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="155"/>
-      <c r="H45" s="155"/>
-      <c r="I45" s="155"/>
-      <c r="J45" s="156"/>
+      <c r="G45" s="162"/>
+      <c r="H45" s="162"/>
+      <c r="I45" s="162"/>
+      <c r="J45" s="163"/>
       <c r="K45" s="24"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
@@ -7112,17 +6869,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="148"/>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="147"/>
-      <c r="F46" s="157" t="s">
+      <c r="B46" s="155"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="158"/>
-      <c r="H46" s="158"/>
-      <c r="I46" s="158"/>
-      <c r="J46" s="159"/>
+      <c r="G46" s="165"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="165"/>
+      <c r="J46" s="166"/>
       <c r="K46" s="25"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -7192,17 +6949,17 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="150"/>
-      <c r="C47" s="151"/>
-      <c r="D47" s="151"/>
-      <c r="E47" s="152"/>
-      <c r="F47" s="160" t="s">
+      <c r="B47" s="157"/>
+      <c r="C47" s="158"/>
+      <c r="D47" s="158"/>
+      <c r="E47" s="159"/>
+      <c r="F47" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
-      <c r="J47" s="162"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="168"/>
+      <c r="J47" s="169"/>
       <c r="K47" s="17"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -7272,15 +7029,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="142"/>
-      <c r="C48" s="143"/>
-      <c r="D48" s="143"/>
-      <c r="E48" s="144"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
+      <c r="B48" s="149"/>
+      <c r="C48" s="150"/>
+      <c r="D48" s="150"/>
+      <c r="E48" s="151"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -7350,15 +7107,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -7428,15 +7185,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
       <c r="K50" s="11"/>
       <c r="L50" s="12"/>
       <c r="M50" s="11"/>
@@ -7506,15 +7263,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -7584,15 +7341,15 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="145"/>
-      <c r="C52" s="146"/>
-      <c r="D52" s="146"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="153"/>
-      <c r="G52" s="153"/>
-      <c r="H52" s="153"/>
-      <c r="I52" s="153"/>
-      <c r="J52" s="153"/>
+      <c r="B52" s="152"/>
+      <c r="C52" s="153"/>
+      <c r="D52" s="153"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="160"/>
+      <c r="G52" s="160"/>
+      <c r="H52" s="160"/>
+      <c r="I52" s="160"/>
+      <c r="J52" s="160"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="12"/>
@@ -7662,17 +7419,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="154" t="s">
+      <c r="B53" s="155"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="155"/>
-      <c r="H53" s="155"/>
-      <c r="I53" s="155"/>
-      <c r="J53" s="156"/>
+      <c r="G53" s="162"/>
+      <c r="H53" s="162"/>
+      <c r="I53" s="162"/>
+      <c r="J53" s="163"/>
       <c r="K53" s="24"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
@@ -7742,17 +7499,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="148"/>
-      <c r="C54" s="149"/>
-      <c r="D54" s="149"/>
-      <c r="E54" s="147"/>
-      <c r="F54" s="157" t="s">
+      <c r="B54" s="155"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="154"/>
+      <c r="F54" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="158"/>
-      <c r="H54" s="158"/>
-      <c r="I54" s="158"/>
-      <c r="J54" s="159"/>
+      <c r="G54" s="165"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="165"/>
+      <c r="J54" s="166"/>
       <c r="K54" s="25"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -7822,17 +7579,17 @@
     </row>
     <row r="55" spans="1:76">
       <c r="A55" s="2"/>
-      <c r="B55" s="150"/>
-      <c r="C55" s="151"/>
-      <c r="D55" s="151"/>
-      <c r="E55" s="152"/>
-      <c r="F55" s="160" t="s">
+      <c r="B55" s="157"/>
+      <c r="C55" s="158"/>
+      <c r="D55" s="158"/>
+      <c r="E55" s="159"/>
+      <c r="F55" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
-      <c r="J55" s="162"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="168"/>
+      <c r="I55" s="168"/>
+      <c r="J55" s="169"/>
       <c r="K55" s="17"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
@@ -8136,6 +7893,77 @@
     </row>
   </sheetData>
   <mergeCells count="87">
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="B48:E55"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="B40:E47"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B32:E39"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="B24:E31"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B16:E23"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="BG6:BJ6"/>
+    <mergeCell ref="BK6:BN6"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="BC6:BF6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="B8:E15"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
     <mergeCell ref="A3:BX3"/>
     <mergeCell ref="A4:BX4"/>
     <mergeCell ref="B6:J6"/>
@@ -8152,77 +7980,6 @@
     <mergeCell ref="AQ6:AT6"/>
     <mergeCell ref="AU6:AX6"/>
     <mergeCell ref="AY6:BB6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="B8:E15"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="BG6:BJ6"/>
-    <mergeCell ref="BK6:BN6"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="BC6:BF6"/>
-    <mergeCell ref="B16:E23"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="B24:E31"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="B32:E39"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="B40:E47"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="B48:E55"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="BS1:BX1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BS2:BX2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>
@@ -8251,260 +8008,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="110" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="139" t="str">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="173" t="str">
         <f>表紙!J9</f>
         <v>（ToDoリスト）</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="137"/>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="137"/>
-      <c r="AS1" s="137"/>
-      <c r="AT1" s="137"/>
-      <c r="AU1" s="137"/>
-      <c r="AV1" s="137"/>
-      <c r="AW1" s="137"/>
-      <c r="AX1" s="137"/>
-      <c r="AY1" s="137"/>
-      <c r="AZ1" s="137"/>
-      <c r="BA1" s="137"/>
-      <c r="BB1" s="137"/>
-      <c r="BC1" s="137"/>
-      <c r="BD1" s="137"/>
-      <c r="BE1" s="137"/>
-      <c r="BF1" s="137"/>
-      <c r="BG1" s="140" t="s">
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="171"/>
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="171"/>
+      <c r="AR1" s="171"/>
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="171"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="171"/>
+      <c r="AX1" s="171"/>
+      <c r="AY1" s="171"/>
+      <c r="AZ1" s="171"/>
+      <c r="BA1" s="171"/>
+      <c r="BB1" s="171"/>
+      <c r="BC1" s="171"/>
+      <c r="BD1" s="171"/>
+      <c r="BE1" s="171"/>
+      <c r="BF1" s="171"/>
+      <c r="BG1" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="137"/>
-      <c r="BI1" s="137"/>
-      <c r="BJ1" s="141">
+      <c r="BH1" s="171"/>
+      <c r="BI1" s="171"/>
+      <c r="BJ1" s="175">
         <v>43465</v>
       </c>
-      <c r="BK1" s="137"/>
-      <c r="BL1" s="137"/>
-      <c r="BM1" s="137"/>
-      <c r="BN1" s="137"/>
-      <c r="BO1" s="137"/>
-      <c r="BP1" s="140" t="s">
+      <c r="BK1" s="171"/>
+      <c r="BL1" s="171"/>
+      <c r="BM1" s="171"/>
+      <c r="BN1" s="171"/>
+      <c r="BO1" s="171"/>
+      <c r="BP1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="137"/>
-      <c r="BR1" s="137"/>
-      <c r="BS1" s="136" t="s">
+      <c r="BQ1" s="171"/>
+      <c r="BR1" s="171"/>
+      <c r="BS1" s="170" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="137"/>
-      <c r="BU1" s="137"/>
-      <c r="BV1" s="137"/>
-      <c r="BW1" s="137"/>
-      <c r="BX1" s="137"/>
+      <c r="BT1" s="171"/>
+      <c r="BU1" s="171"/>
+      <c r="BV1" s="171"/>
+      <c r="BW1" s="171"/>
+      <c r="BX1" s="171"/>
     </row>
     <row r="2" spans="1:76" s="117" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="139" t="str">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="173" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： サンプル</v>
       </c>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="137"/>
-      <c r="AN2" s="137"/>
-      <c r="AO2" s="137"/>
-      <c r="AP2" s="137"/>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="137"/>
-      <c r="AS2" s="137"/>
-      <c r="AT2" s="137"/>
-      <c r="AU2" s="137"/>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="137"/>
-      <c r="AY2" s="137"/>
-      <c r="AZ2" s="137"/>
-      <c r="BA2" s="137"/>
-      <c r="BB2" s="137"/>
-      <c r="BC2" s="137"/>
-      <c r="BD2" s="137"/>
-      <c r="BE2" s="137"/>
-      <c r="BF2" s="137"/>
-      <c r="BG2" s="140" t="s">
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="171"/>
+      <c r="AK2" s="171"/>
+      <c r="AL2" s="171"/>
+      <c r="AM2" s="171"/>
+      <c r="AN2" s="171"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="171"/>
+      <c r="AR2" s="171"/>
+      <c r="AS2" s="171"/>
+      <c r="AT2" s="171"/>
+      <c r="AU2" s="171"/>
+      <c r="AV2" s="171"/>
+      <c r="AW2" s="171"/>
+      <c r="AX2" s="171"/>
+      <c r="AY2" s="171"/>
+      <c r="AZ2" s="171"/>
+      <c r="BA2" s="171"/>
+      <c r="BB2" s="171"/>
+      <c r="BC2" s="171"/>
+      <c r="BD2" s="171"/>
+      <c r="BE2" s="171"/>
+      <c r="BF2" s="171"/>
+      <c r="BG2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="137"/>
-      <c r="BI2" s="137"/>
-      <c r="BJ2" s="141"/>
-      <c r="BK2" s="137"/>
-      <c r="BL2" s="137"/>
-      <c r="BM2" s="137"/>
-      <c r="BN2" s="137"/>
-      <c r="BO2" s="137"/>
-      <c r="BP2" s="140" t="s">
+      <c r="BH2" s="171"/>
+      <c r="BI2" s="171"/>
+      <c r="BJ2" s="175"/>
+      <c r="BK2" s="171"/>
+      <c r="BL2" s="171"/>
+      <c r="BM2" s="171"/>
+      <c r="BN2" s="171"/>
+      <c r="BO2" s="171"/>
+      <c r="BP2" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="137"/>
-      <c r="BR2" s="137"/>
-      <c r="BS2" s="136"/>
-      <c r="BT2" s="137"/>
-      <c r="BU2" s="137"/>
-      <c r="BV2" s="137"/>
-      <c r="BW2" s="137"/>
-      <c r="BX2" s="137"/>
+      <c r="BQ2" s="171"/>
+      <c r="BR2" s="171"/>
+      <c r="BS2" s="170"/>
+      <c r="BT2" s="171"/>
+      <c r="BU2" s="171"/>
+      <c r="BV2" s="171"/>
+      <c r="BW2" s="171"/>
+      <c r="BX2" s="171"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="170"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="171"/>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
-      <c r="AL3" s="171"/>
-      <c r="AM3" s="171"/>
-      <c r="AN3" s="171"/>
-      <c r="AO3" s="171"/>
-      <c r="AP3" s="171"/>
-      <c r="AQ3" s="171"/>
-      <c r="AR3" s="171"/>
-      <c r="AS3" s="171"/>
-      <c r="AT3" s="171"/>
-      <c r="AU3" s="171"/>
-      <c r="AV3" s="171"/>
-      <c r="AW3" s="171"/>
-      <c r="AX3" s="171"/>
-      <c r="AY3" s="171"/>
-      <c r="AZ3" s="171"/>
-      <c r="BA3" s="171"/>
-      <c r="BB3" s="171"/>
-      <c r="BC3" s="171"/>
-      <c r="BD3" s="171"/>
-      <c r="BE3" s="171"/>
-      <c r="BF3" s="171"/>
-      <c r="BG3" s="171"/>
-      <c r="BH3" s="171"/>
-      <c r="BI3" s="171"/>
-      <c r="BJ3" s="171"/>
-      <c r="BK3" s="171"/>
-      <c r="BL3" s="171"/>
-      <c r="BM3" s="171"/>
-      <c r="BN3" s="171"/>
-      <c r="BO3" s="171"/>
-      <c r="BP3" s="171"/>
-      <c r="BQ3" s="171"/>
-      <c r="BR3" s="171"/>
-      <c r="BS3" s="171"/>
-      <c r="BT3" s="171"/>
-      <c r="BU3" s="171"/>
-      <c r="BV3" s="171"/>
-      <c r="BW3" s="171"/>
-      <c r="BX3" s="172"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139"/>
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="139"/>
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="139"/>
+      <c r="AW3" s="139"/>
+      <c r="AX3" s="139"/>
+      <c r="AY3" s="139"/>
+      <c r="AZ3" s="139"/>
+      <c r="BA3" s="139"/>
+      <c r="BB3" s="139"/>
+      <c r="BC3" s="139"/>
+      <c r="BD3" s="139"/>
+      <c r="BE3" s="139"/>
+      <c r="BF3" s="139"/>
+      <c r="BG3" s="139"/>
+      <c r="BH3" s="139"/>
+      <c r="BI3" s="139"/>
+      <c r="BJ3" s="139"/>
+      <c r="BK3" s="139"/>
+      <c r="BL3" s="139"/>
+      <c r="BM3" s="139"/>
+      <c r="BN3" s="139"/>
+      <c r="BO3" s="139"/>
+      <c r="BP3" s="139"/>
+      <c r="BQ3" s="139"/>
+      <c r="BR3" s="139"/>
+      <c r="BS3" s="139"/>
+      <c r="BT3" s="139"/>
+      <c r="BU3" s="139"/>
+      <c r="BV3" s="139"/>
+      <c r="BW3" s="139"/>
+      <c r="BX3" s="140"/>
     </row>
     <row r="4" spans="1:76">
       <c r="A4" s="2"/>
@@ -8586,105 +8343,105 @@
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="163" t="s">
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="145" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="175" t="s">
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="176"/>
-      <c r="S5" s="163" t="s">
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="163"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="164"/>
-      <c r="AQ5" s="163"/>
-      <c r="AR5" s="164"/>
-      <c r="AS5" s="164"/>
-      <c r="AT5" s="164"/>
-      <c r="AU5" s="163"/>
-      <c r="AV5" s="164"/>
-      <c r="AW5" s="164"/>
-      <c r="AX5" s="164"/>
-      <c r="AY5" s="163"/>
-      <c r="AZ5" s="164"/>
-      <c r="BA5" s="164"/>
-      <c r="BB5" s="164"/>
-      <c r="BC5" s="163"/>
-      <c r="BD5" s="164"/>
-      <c r="BE5" s="164"/>
-      <c r="BF5" s="164"/>
-      <c r="BG5" s="163"/>
-      <c r="BH5" s="164"/>
-      <c r="BI5" s="164"/>
-      <c r="BJ5" s="164"/>
-      <c r="BK5" s="163"/>
-      <c r="BL5" s="164"/>
-      <c r="BM5" s="164"/>
-      <c r="BN5" s="164"/>
-      <c r="BO5" s="163"/>
-      <c r="BP5" s="164"/>
-      <c r="BQ5" s="164"/>
-      <c r="BR5" s="164"/>
-      <c r="BS5" s="163"/>
-      <c r="BT5" s="164"/>
-      <c r="BU5" s="164"/>
-      <c r="BV5" s="164"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="146"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="146"/>
+      <c r="AO5" s="146"/>
+      <c r="AP5" s="146"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="146"/>
+      <c r="AS5" s="146"/>
+      <c r="AT5" s="146"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="146"/>
+      <c r="AW5" s="146"/>
+      <c r="AX5" s="146"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="146"/>
+      <c r="BA5" s="146"/>
+      <c r="BB5" s="146"/>
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="146"/>
+      <c r="BE5" s="146"/>
+      <c r="BF5" s="146"/>
+      <c r="BG5" s="145"/>
+      <c r="BH5" s="146"/>
+      <c r="BI5" s="146"/>
+      <c r="BJ5" s="146"/>
+      <c r="BK5" s="145"/>
+      <c r="BL5" s="146"/>
+      <c r="BM5" s="146"/>
+      <c r="BN5" s="146"/>
+      <c r="BO5" s="145"/>
+      <c r="BP5" s="146"/>
+      <c r="BQ5" s="146"/>
+      <c r="BR5" s="146"/>
+      <c r="BS5" s="145"/>
+      <c r="BT5" s="146"/>
+      <c r="BU5" s="146"/>
+      <c r="BV5" s="146"/>
       <c r="BW5" s="3"/>
       <c r="BX5" s="4"/>
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="165" t="s">
+      <c r="C6" s="148"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
@@ -8882,19 +8639,19 @@
     </row>
     <row r="7" spans="1:76">
       <c r="A7" s="2"/>
-      <c r="B7" s="142" t="s">
+      <c r="B7" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="143"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="153" t="s">
+      <c r="C7" s="150"/>
+      <c r="D7" s="150"/>
+      <c r="E7" s="151"/>
+      <c r="F7" s="160" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="153"/>
-      <c r="H7" s="153"/>
-      <c r="I7" s="153"/>
-      <c r="J7" s="153"/>
+      <c r="G7" s="160"/>
+      <c r="H7" s="160"/>
+      <c r="I7" s="160"/>
+      <c r="J7" s="160"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -8966,17 +8723,17 @@
     </row>
     <row r="8" spans="1:76">
       <c r="A8" s="2"/>
-      <c r="B8" s="145"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="147"/>
-      <c r="F8" s="153" t="s">
+      <c r="B8" s="152"/>
+      <c r="C8" s="153"/>
+      <c r="D8" s="153"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="153"/>
-      <c r="H8" s="153"/>
-      <c r="I8" s="153"/>
-      <c r="J8" s="153"/>
+      <c r="G8" s="160"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="160"/>
+      <c r="J8" s="160"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -9048,17 +8805,17 @@
     </row>
     <row r="9" spans="1:76">
       <c r="A9" s="2"/>
-      <c r="B9" s="145"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="147"/>
-      <c r="F9" s="153" t="s">
+      <c r="B9" s="152"/>
+      <c r="C9" s="153"/>
+      <c r="D9" s="153"/>
+      <c r="E9" s="154"/>
+      <c r="F9" s="160" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="153"/>
-      <c r="H9" s="153"/>
-      <c r="I9" s="153"/>
-      <c r="J9" s="153"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -9130,17 +8887,17 @@
     </row>
     <row r="10" spans="1:76">
       <c r="A10" s="2"/>
-      <c r="B10" s="145"/>
-      <c r="C10" s="146"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="153" t="s">
+      <c r="B10" s="152"/>
+      <c r="C10" s="153"/>
+      <c r="D10" s="153"/>
+      <c r="E10" s="154"/>
+      <c r="F10" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="153"/>
-      <c r="H10" s="153"/>
-      <c r="I10" s="153"/>
-      <c r="J10" s="153"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="160"/>
+      <c r="I10" s="160"/>
+      <c r="J10" s="160"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -9212,17 +8969,17 @@
     </row>
     <row r="11" spans="1:76">
       <c r="A11" s="2"/>
-      <c r="B11" s="145"/>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="153" t="s">
+      <c r="B11" s="152"/>
+      <c r="C11" s="153"/>
+      <c r="D11" s="153"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="160" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="153"/>
-      <c r="H11" s="153"/>
-      <c r="I11" s="153"/>
-      <c r="J11" s="153"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -9294,17 +9051,17 @@
     </row>
     <row r="12" spans="1:76">
       <c r="A12" s="2"/>
-      <c r="B12" s="148"/>
-      <c r="C12" s="149"/>
-      <c r="D12" s="149"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="154" t="s">
+      <c r="B12" s="155"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="154"/>
+      <c r="F12" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
       <c r="K12" s="24"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -9374,17 +9131,17 @@
     </row>
     <row r="13" spans="1:76">
       <c r="A13" s="2"/>
-      <c r="B13" s="148"/>
-      <c r="C13" s="149"/>
-      <c r="D13" s="149"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="157" t="s">
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="154"/>
+      <c r="F13" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="166"/>
       <c r="K13" s="25"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -9454,17 +9211,17 @@
     </row>
     <row r="14" spans="1:76">
       <c r="A14" s="2"/>
-      <c r="B14" s="150"/>
-      <c r="C14" s="151"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="160" t="s">
+      <c r="B14" s="157"/>
+      <c r="C14" s="158"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="159"/>
+      <c r="F14" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="169"/>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -9534,19 +9291,19 @@
     </row>
     <row r="15" spans="1:76">
       <c r="A15" s="2"/>
-      <c r="B15" s="142" t="s">
+      <c r="B15" s="149" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="143"/>
-      <c r="D15" s="143"/>
-      <c r="E15" s="144"/>
-      <c r="F15" s="153" t="s">
+      <c r="C15" s="150"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="160" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="153"/>
-      <c r="H15" s="153"/>
-      <c r="I15" s="153"/>
-      <c r="J15" s="153"/>
+      <c r="G15" s="160"/>
+      <c r="H15" s="160"/>
+      <c r="I15" s="160"/>
+      <c r="J15" s="160"/>
       <c r="K15" s="12" t="s">
         <v>43</v>
       </c>
@@ -9622,17 +9379,17 @@
     </row>
     <row r="16" spans="1:76">
       <c r="A16" s="2"/>
-      <c r="B16" s="145"/>
-      <c r="C16" s="146"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="153" t="s">
+      <c r="B16" s="152"/>
+      <c r="C16" s="153"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="160" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="153"/>
-      <c r="H16" s="153"/>
-      <c r="I16" s="153"/>
-      <c r="J16" s="153"/>
+      <c r="G16" s="160"/>
+      <c r="H16" s="160"/>
+      <c r="I16" s="160"/>
+      <c r="J16" s="160"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12" t="s">
         <v>43</v>
@@ -9708,17 +9465,17 @@
     </row>
     <row r="17" spans="1:76">
       <c r="A17" s="2"/>
-      <c r="B17" s="145"/>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="153" t="s">
+      <c r="B17" s="152"/>
+      <c r="C17" s="153"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="154"/>
+      <c r="F17" s="160" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="153"/>
-      <c r="H17" s="153"/>
-      <c r="I17" s="153"/>
-      <c r="J17" s="153"/>
+      <c r="G17" s="160"/>
+      <c r="H17" s="160"/>
+      <c r="I17" s="160"/>
+      <c r="J17" s="160"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12" t="s">
         <v>43</v>
@@ -9794,17 +9551,17 @@
     </row>
     <row r="18" spans="1:76">
       <c r="A18" s="2"/>
-      <c r="B18" s="145"/>
-      <c r="C18" s="146"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="153" t="s">
+      <c r="B18" s="152"/>
+      <c r="C18" s="153"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="153"/>
-      <c r="H18" s="153"/>
-      <c r="I18" s="153"/>
-      <c r="J18" s="153"/>
+      <c r="G18" s="160"/>
+      <c r="H18" s="160"/>
+      <c r="I18" s="160"/>
+      <c r="J18" s="160"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="12" t="s">
@@ -9884,17 +9641,17 @@
     </row>
     <row r="19" spans="1:76">
       <c r="A19" s="2"/>
-      <c r="B19" s="145"/>
-      <c r="C19" s="146"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="153" t="s">
+      <c r="B19" s="152"/>
+      <c r="C19" s="153"/>
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="160" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="153"/>
-      <c r="H19" s="153"/>
-      <c r="I19" s="153"/>
-      <c r="J19" s="153"/>
+      <c r="G19" s="160"/>
+      <c r="H19" s="160"/>
+      <c r="I19" s="160"/>
+      <c r="J19" s="160"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
@@ -9968,17 +9725,17 @@
     </row>
     <row r="20" spans="1:76">
       <c r="A20" s="2"/>
-      <c r="B20" s="148"/>
-      <c r="C20" s="149"/>
-      <c r="D20" s="149"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="154" t="s">
+      <c r="B20" s="155"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="154"/>
+      <c r="F20" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="156"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="163"/>
       <c r="K20" s="24"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -10048,17 +9805,17 @@
     </row>
     <row r="21" spans="1:76">
       <c r="A21" s="2"/>
-      <c r="B21" s="148"/>
-      <c r="C21" s="149"/>
-      <c r="D21" s="149"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="157" t="s">
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="154"/>
+      <c r="F21" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
       <c r="K21" s="25"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -10128,17 +9885,17 @@
     </row>
     <row r="22" spans="1:76">
       <c r="A22" s="2"/>
-      <c r="B22" s="150"/>
-      <c r="C22" s="151"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="160" t="s">
+      <c r="B22" s="157"/>
+      <c r="C22" s="158"/>
+      <c r="D22" s="158"/>
+      <c r="E22" s="159"/>
+      <c r="F22" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="162"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="169"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -10208,15 +9965,15 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -10286,15 +10043,15 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
       <c r="K24" s="11"/>
       <c r="L24" s="12"/>
       <c r="M24" s="11"/>
@@ -10364,15 +10121,15 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
@@ -10442,15 +10199,15 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
@@ -10520,15 +10277,15 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
@@ -10598,17 +10355,17 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="154" t="s">
+      <c r="B28" s="155"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="156"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="163"/>
       <c r="K28" s="24"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -10678,17 +10435,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="157" t="s">
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="159"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
       <c r="K29" s="25"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -10758,17 +10515,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="160" t="s">
+      <c r="B30" s="157"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -10838,15 +10595,15 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -10916,15 +10673,15 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12"/>
       <c r="M32" s="11"/>
@@ -10994,15 +10751,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -11072,15 +10829,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
@@ -11150,15 +10907,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -11228,17 +10985,17 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="154" t="s">
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="156"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="163"/>
       <c r="K36" s="24"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
@@ -11308,17 +11065,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="157" t="s">
+      <c r="B37" s="155"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="159"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="166"/>
       <c r="K37" s="25"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -11388,17 +11145,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="150"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="160" t="s">
+      <c r="B38" s="157"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="162"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="169"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -11468,15 +11225,15 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -11546,15 +11303,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
       <c r="K40" s="11"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11"/>
@@ -11624,15 +11381,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -11702,15 +11459,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
@@ -11780,15 +11537,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -11858,17 +11615,17 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="154" t="s">
+      <c r="B44" s="155"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="155"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="156"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="163"/>
       <c r="K44" s="24"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
@@ -11938,17 +11695,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="157" t="s">
+      <c r="B45" s="155"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="159"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="25"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -12018,17 +11775,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="150"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="160" t="s">
+      <c r="B46" s="157"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="162"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="169"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -12098,15 +11855,15 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -12176,15 +11933,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="145"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
@@ -12254,15 +12011,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -12332,15 +12089,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
@@ -12410,15 +12167,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -12488,17 +12245,17 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="149"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="154" t="s">
+      <c r="B52" s="155"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="156"/>
+      <c r="G52" s="162"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="162"/>
+      <c r="J52" s="163"/>
       <c r="K52" s="24"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
@@ -12568,17 +12325,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="157" t="s">
+      <c r="B53" s="155"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="159"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="166"/>
       <c r="K53" s="25"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -12648,17 +12405,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="150"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="152"/>
-      <c r="F54" s="160" t="s">
+      <c r="B54" s="157"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="162"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="168"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="169"/>
       <c r="K54" s="17"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -12962,6 +12719,76 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:BF2"/>
+    <mergeCell ref="K1:BF1"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="B47:E54"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="BO5:BR5"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="BG5:BJ5"/>
+    <mergeCell ref="BK5:BN5"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="B39:E46"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="B31:E38"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="BS5:BV5"/>
+    <mergeCell ref="B23:E30"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="AU5:AX5"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="BC5:BF5"/>
     <mergeCell ref="A3:BX3"/>
     <mergeCell ref="S5:V5"/>
     <mergeCell ref="F17:J17"/>
@@ -12978,76 +12805,6 @@
     <mergeCell ref="F13:J13"/>
     <mergeCell ref="F10:J10"/>
     <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="BS5:BV5"/>
-    <mergeCell ref="B23:E30"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="AU5:AX5"/>
-    <mergeCell ref="AY5:BB5"/>
-    <mergeCell ref="BC5:BF5"/>
-    <mergeCell ref="B31:E38"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="B39:E46"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="BO5:BR5"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="BG5:BJ5"/>
-    <mergeCell ref="BK5:BN5"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="B47:E54"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="BS1:BX1"/>
-    <mergeCell ref="BS2:BX2"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:BF2"/>
-    <mergeCell ref="K1:BF1"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
@@ -13066,8 +12823,8 @@
   </sheetPr>
   <dimension ref="A1:BX57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AE18" sqref="AE18"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="AB17" sqref="AB17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -13077,260 +12834,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="110" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="138" t="s">
+      <c r="A1" s="172" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="137"/>
-      <c r="C1" s="137"/>
-      <c r="D1" s="137"/>
-      <c r="E1" s="137"/>
-      <c r="F1" s="137"/>
-      <c r="G1" s="137"/>
-      <c r="H1" s="137"/>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
-      <c r="K1" s="139" t="str">
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
+      <c r="I1" s="171"/>
+      <c r="J1" s="171"/>
+      <c r="K1" s="173" t="str">
         <f>表紙!J9</f>
         <v>（ToDoリスト）</v>
       </c>
-      <c r="L1" s="137"/>
-      <c r="M1" s="137"/>
-      <c r="N1" s="137"/>
-      <c r="O1" s="137"/>
-      <c r="P1" s="137"/>
-      <c r="Q1" s="137"/>
-      <c r="R1" s="137"/>
-      <c r="S1" s="137"/>
-      <c r="T1" s="137"/>
-      <c r="U1" s="137"/>
-      <c r="V1" s="137"/>
-      <c r="W1" s="137"/>
-      <c r="X1" s="137"/>
-      <c r="Y1" s="137"/>
-      <c r="Z1" s="137"/>
-      <c r="AA1" s="137"/>
-      <c r="AB1" s="137"/>
-      <c r="AC1" s="137"/>
-      <c r="AD1" s="137"/>
-      <c r="AE1" s="137"/>
-      <c r="AF1" s="137"/>
-      <c r="AG1" s="137"/>
-      <c r="AH1" s="137"/>
-      <c r="AI1" s="137"/>
-      <c r="AJ1" s="137"/>
-      <c r="AK1" s="137"/>
-      <c r="AL1" s="137"/>
-      <c r="AM1" s="137"/>
-      <c r="AN1" s="137"/>
-      <c r="AO1" s="137"/>
-      <c r="AP1" s="137"/>
-      <c r="AQ1" s="137"/>
-      <c r="AR1" s="137"/>
-      <c r="AS1" s="137"/>
-      <c r="AT1" s="137"/>
-      <c r="AU1" s="137"/>
-      <c r="AV1" s="137"/>
-      <c r="AW1" s="137"/>
-      <c r="AX1" s="137"/>
-      <c r="AY1" s="137"/>
-      <c r="AZ1" s="137"/>
-      <c r="BA1" s="137"/>
-      <c r="BB1" s="137"/>
-      <c r="BC1" s="137"/>
-      <c r="BD1" s="137"/>
-      <c r="BE1" s="137"/>
-      <c r="BF1" s="137"/>
-      <c r="BG1" s="140" t="s">
+      <c r="L1" s="171"/>
+      <c r="M1" s="171"/>
+      <c r="N1" s="171"/>
+      <c r="O1" s="171"/>
+      <c r="P1" s="171"/>
+      <c r="Q1" s="171"/>
+      <c r="R1" s="171"/>
+      <c r="S1" s="171"/>
+      <c r="T1" s="171"/>
+      <c r="U1" s="171"/>
+      <c r="V1" s="171"/>
+      <c r="W1" s="171"/>
+      <c r="X1" s="171"/>
+      <c r="Y1" s="171"/>
+      <c r="Z1" s="171"/>
+      <c r="AA1" s="171"/>
+      <c r="AB1" s="171"/>
+      <c r="AC1" s="171"/>
+      <c r="AD1" s="171"/>
+      <c r="AE1" s="171"/>
+      <c r="AF1" s="171"/>
+      <c r="AG1" s="171"/>
+      <c r="AH1" s="171"/>
+      <c r="AI1" s="171"/>
+      <c r="AJ1" s="171"/>
+      <c r="AK1" s="171"/>
+      <c r="AL1" s="171"/>
+      <c r="AM1" s="171"/>
+      <c r="AN1" s="171"/>
+      <c r="AO1" s="171"/>
+      <c r="AP1" s="171"/>
+      <c r="AQ1" s="171"/>
+      <c r="AR1" s="171"/>
+      <c r="AS1" s="171"/>
+      <c r="AT1" s="171"/>
+      <c r="AU1" s="171"/>
+      <c r="AV1" s="171"/>
+      <c r="AW1" s="171"/>
+      <c r="AX1" s="171"/>
+      <c r="AY1" s="171"/>
+      <c r="AZ1" s="171"/>
+      <c r="BA1" s="171"/>
+      <c r="BB1" s="171"/>
+      <c r="BC1" s="171"/>
+      <c r="BD1" s="171"/>
+      <c r="BE1" s="171"/>
+      <c r="BF1" s="171"/>
+      <c r="BG1" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="137"/>
-      <c r="BI1" s="137"/>
-      <c r="BJ1" s="141">
+      <c r="BH1" s="171"/>
+      <c r="BI1" s="171"/>
+      <c r="BJ1" s="175">
         <v>44568</v>
       </c>
-      <c r="BK1" s="137"/>
-      <c r="BL1" s="137"/>
-      <c r="BM1" s="137"/>
-      <c r="BN1" s="137"/>
-      <c r="BO1" s="137"/>
-      <c r="BP1" s="140" t="s">
+      <c r="BK1" s="171"/>
+      <c r="BL1" s="171"/>
+      <c r="BM1" s="171"/>
+      <c r="BN1" s="171"/>
+      <c r="BO1" s="171"/>
+      <c r="BP1" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="137"/>
-      <c r="BR1" s="137"/>
-      <c r="BS1" s="136" t="s">
+      <c r="BQ1" s="171"/>
+      <c r="BR1" s="171"/>
+      <c r="BS1" s="170" t="s">
         <v>91</v>
       </c>
-      <c r="BT1" s="137"/>
-      <c r="BU1" s="137"/>
-      <c r="BV1" s="137"/>
-      <c r="BW1" s="137"/>
-      <c r="BX1" s="137"/>
+      <c r="BT1" s="171"/>
+      <c r="BU1" s="171"/>
+      <c r="BV1" s="171"/>
+      <c r="BW1" s="171"/>
+      <c r="BX1" s="171"/>
     </row>
     <row r="2" spans="1:76" s="117" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="138" t="s">
+      <c r="A2" s="172" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
-      <c r="D2" s="137"/>
-      <c r="E2" s="137"/>
-      <c r="F2" s="137"/>
-      <c r="G2" s="137"/>
-      <c r="H2" s="137"/>
-      <c r="I2" s="137"/>
-      <c r="J2" s="137"/>
-      <c r="K2" s="139" t="str">
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
+      <c r="I2" s="171"/>
+      <c r="J2" s="171"/>
+      <c r="K2" s="173" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： CRUD表</v>
       </c>
-      <c r="L2" s="137"/>
-      <c r="M2" s="137"/>
-      <c r="N2" s="137"/>
-      <c r="O2" s="137"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="137"/>
-      <c r="T2" s="137"/>
-      <c r="U2" s="137"/>
-      <c r="V2" s="137"/>
-      <c r="W2" s="137"/>
-      <c r="X2" s="137"/>
-      <c r="Y2" s="137"/>
-      <c r="Z2" s="137"/>
-      <c r="AA2" s="137"/>
-      <c r="AB2" s="137"/>
-      <c r="AC2" s="137"/>
-      <c r="AD2" s="137"/>
-      <c r="AE2" s="137"/>
-      <c r="AF2" s="137"/>
-      <c r="AG2" s="137"/>
-      <c r="AH2" s="137"/>
-      <c r="AI2" s="137"/>
-      <c r="AJ2" s="137"/>
-      <c r="AK2" s="137"/>
-      <c r="AL2" s="137"/>
-      <c r="AM2" s="137"/>
-      <c r="AN2" s="137"/>
-      <c r="AO2" s="137"/>
-      <c r="AP2" s="137"/>
-      <c r="AQ2" s="137"/>
-      <c r="AR2" s="137"/>
-      <c r="AS2" s="137"/>
-      <c r="AT2" s="137"/>
-      <c r="AU2" s="137"/>
-      <c r="AV2" s="137"/>
-      <c r="AW2" s="137"/>
-      <c r="AX2" s="137"/>
-      <c r="AY2" s="137"/>
-      <c r="AZ2" s="137"/>
-      <c r="BA2" s="137"/>
-      <c r="BB2" s="137"/>
-      <c r="BC2" s="137"/>
-      <c r="BD2" s="137"/>
-      <c r="BE2" s="137"/>
-      <c r="BF2" s="137"/>
-      <c r="BG2" s="140" t="s">
+      <c r="L2" s="171"/>
+      <c r="M2" s="171"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
+      <c r="R2" s="171"/>
+      <c r="S2" s="171"/>
+      <c r="T2" s="171"/>
+      <c r="U2" s="171"/>
+      <c r="V2" s="171"/>
+      <c r="W2" s="171"/>
+      <c r="X2" s="171"/>
+      <c r="Y2" s="171"/>
+      <c r="Z2" s="171"/>
+      <c r="AA2" s="171"/>
+      <c r="AB2" s="171"/>
+      <c r="AC2" s="171"/>
+      <c r="AD2" s="171"/>
+      <c r="AE2" s="171"/>
+      <c r="AF2" s="171"/>
+      <c r="AG2" s="171"/>
+      <c r="AH2" s="171"/>
+      <c r="AI2" s="171"/>
+      <c r="AJ2" s="171"/>
+      <c r="AK2" s="171"/>
+      <c r="AL2" s="171"/>
+      <c r="AM2" s="171"/>
+      <c r="AN2" s="171"/>
+      <c r="AO2" s="171"/>
+      <c r="AP2" s="171"/>
+      <c r="AQ2" s="171"/>
+      <c r="AR2" s="171"/>
+      <c r="AS2" s="171"/>
+      <c r="AT2" s="171"/>
+      <c r="AU2" s="171"/>
+      <c r="AV2" s="171"/>
+      <c r="AW2" s="171"/>
+      <c r="AX2" s="171"/>
+      <c r="AY2" s="171"/>
+      <c r="AZ2" s="171"/>
+      <c r="BA2" s="171"/>
+      <c r="BB2" s="171"/>
+      <c r="BC2" s="171"/>
+      <c r="BD2" s="171"/>
+      <c r="BE2" s="171"/>
+      <c r="BF2" s="171"/>
+      <c r="BG2" s="174" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="137"/>
-      <c r="BI2" s="137"/>
-      <c r="BJ2" s="141"/>
-      <c r="BK2" s="137"/>
-      <c r="BL2" s="137"/>
-      <c r="BM2" s="137"/>
-      <c r="BN2" s="137"/>
-      <c r="BO2" s="137"/>
-      <c r="BP2" s="140" t="s">
+      <c r="BH2" s="171"/>
+      <c r="BI2" s="171"/>
+      <c r="BJ2" s="175"/>
+      <c r="BK2" s="171"/>
+      <c r="BL2" s="171"/>
+      <c r="BM2" s="171"/>
+      <c r="BN2" s="171"/>
+      <c r="BO2" s="171"/>
+      <c r="BP2" s="174" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="137"/>
-      <c r="BR2" s="137"/>
-      <c r="BS2" s="136"/>
-      <c r="BT2" s="137"/>
-      <c r="BU2" s="137"/>
-      <c r="BV2" s="137"/>
-      <c r="BW2" s="137"/>
-      <c r="BX2" s="137"/>
+      <c r="BQ2" s="171"/>
+      <c r="BR2" s="171"/>
+      <c r="BS2" s="170"/>
+      <c r="BT2" s="171"/>
+      <c r="BU2" s="171"/>
+      <c r="BV2" s="171"/>
+      <c r="BW2" s="171"/>
+      <c r="BX2" s="171"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="170"/>
-      <c r="B3" s="171"/>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
-      <c r="E3" s="171"/>
-      <c r="F3" s="171"/>
-      <c r="G3" s="171"/>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="171"/>
-      <c r="K3" s="171"/>
-      <c r="L3" s="171"/>
-      <c r="M3" s="171"/>
-      <c r="N3" s="171"/>
-      <c r="O3" s="171"/>
-      <c r="P3" s="171"/>
-      <c r="Q3" s="171"/>
-      <c r="R3" s="171"/>
-      <c r="S3" s="171"/>
-      <c r="T3" s="171"/>
-      <c r="U3" s="171"/>
-      <c r="V3" s="171"/>
-      <c r="W3" s="171"/>
-      <c r="X3" s="171"/>
-      <c r="Y3" s="171"/>
-      <c r="Z3" s="171"/>
-      <c r="AA3" s="171"/>
-      <c r="AB3" s="171"/>
-      <c r="AC3" s="171"/>
-      <c r="AD3" s="171"/>
-      <c r="AE3" s="171"/>
-      <c r="AF3" s="171"/>
-      <c r="AG3" s="171"/>
-      <c r="AH3" s="171"/>
-      <c r="AI3" s="171"/>
-      <c r="AJ3" s="171"/>
-      <c r="AK3" s="171"/>
-      <c r="AL3" s="171"/>
-      <c r="AM3" s="171"/>
-      <c r="AN3" s="171"/>
-      <c r="AO3" s="171"/>
-      <c r="AP3" s="171"/>
-      <c r="AQ3" s="171"/>
-      <c r="AR3" s="171"/>
-      <c r="AS3" s="171"/>
-      <c r="AT3" s="171"/>
-      <c r="AU3" s="171"/>
-      <c r="AV3" s="171"/>
-      <c r="AW3" s="171"/>
-      <c r="AX3" s="171"/>
-      <c r="AY3" s="171"/>
-      <c r="AZ3" s="171"/>
-      <c r="BA3" s="171"/>
-      <c r="BB3" s="171"/>
-      <c r="BC3" s="171"/>
-      <c r="BD3" s="171"/>
-      <c r="BE3" s="171"/>
-      <c r="BF3" s="171"/>
-      <c r="BG3" s="171"/>
-      <c r="BH3" s="171"/>
-      <c r="BI3" s="171"/>
-      <c r="BJ3" s="171"/>
-      <c r="BK3" s="171"/>
-      <c r="BL3" s="171"/>
-      <c r="BM3" s="171"/>
-      <c r="BN3" s="171"/>
-      <c r="BO3" s="171"/>
-      <c r="BP3" s="171"/>
-      <c r="BQ3" s="171"/>
-      <c r="BR3" s="171"/>
-      <c r="BS3" s="171"/>
-      <c r="BT3" s="171"/>
-      <c r="BU3" s="171"/>
-      <c r="BV3" s="171"/>
-      <c r="BW3" s="171"/>
-      <c r="BX3" s="172"/>
+      <c r="A3" s="138"/>
+      <c r="B3" s="139"/>
+      <c r="C3" s="139"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
+      <c r="J3" s="139"/>
+      <c r="K3" s="139"/>
+      <c r="L3" s="139"/>
+      <c r="M3" s="139"/>
+      <c r="N3" s="139"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="139"/>
+      <c r="S3" s="139"/>
+      <c r="T3" s="139"/>
+      <c r="U3" s="139"/>
+      <c r="V3" s="139"/>
+      <c r="W3" s="139"/>
+      <c r="X3" s="139"/>
+      <c r="Y3" s="139"/>
+      <c r="Z3" s="139"/>
+      <c r="AA3" s="139"/>
+      <c r="AB3" s="139"/>
+      <c r="AC3" s="139"/>
+      <c r="AD3" s="139"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="139"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="139"/>
+      <c r="AJ3" s="139"/>
+      <c r="AK3" s="139"/>
+      <c r="AL3" s="139"/>
+      <c r="AM3" s="139"/>
+      <c r="AN3" s="139"/>
+      <c r="AO3" s="139"/>
+      <c r="AP3" s="139"/>
+      <c r="AQ3" s="139"/>
+      <c r="AR3" s="139"/>
+      <c r="AS3" s="139"/>
+      <c r="AT3" s="139"/>
+      <c r="AU3" s="139"/>
+      <c r="AV3" s="139"/>
+      <c r="AW3" s="139"/>
+      <c r="AX3" s="139"/>
+      <c r="AY3" s="139"/>
+      <c r="AZ3" s="139"/>
+      <c r="BA3" s="139"/>
+      <c r="BB3" s="139"/>
+      <c r="BC3" s="139"/>
+      <c r="BD3" s="139"/>
+      <c r="BE3" s="139"/>
+      <c r="BF3" s="139"/>
+      <c r="BG3" s="139"/>
+      <c r="BH3" s="139"/>
+      <c r="BI3" s="139"/>
+      <c r="BJ3" s="139"/>
+      <c r="BK3" s="139"/>
+      <c r="BL3" s="139"/>
+      <c r="BM3" s="139"/>
+      <c r="BN3" s="139"/>
+      <c r="BO3" s="139"/>
+      <c r="BP3" s="139"/>
+      <c r="BQ3" s="139"/>
+      <c r="BR3" s="139"/>
+      <c r="BS3" s="139"/>
+      <c r="BT3" s="139"/>
+      <c r="BU3" s="139"/>
+      <c r="BV3" s="139"/>
+      <c r="BW3" s="139"/>
+      <c r="BX3" s="140"/>
     </row>
     <row r="4" spans="1:76">
       <c r="A4" s="2"/>
@@ -13407,110 +13164,110 @@
       <c r="BT4" s="3"/>
       <c r="BU4" s="3"/>
       <c r="BV4" s="3"/>
-      <c r="BW4" s="195"/>
+      <c r="BW4" s="124"/>
       <c r="BX4" s="4"/>
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
-      <c r="B5" s="173" t="s">
+      <c r="B5" s="141" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="174"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="167"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="163" t="s">
+      <c r="C5" s="142"/>
+      <c r="D5" s="143"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="143"/>
+      <c r="G5" s="143"/>
+      <c r="H5" s="143"/>
+      <c r="I5" s="143"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="145" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="175" t="s">
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="176"/>
-      <c r="S5" s="163" t="s">
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="177"/>
+      <c r="S5" s="145" t="s">
         <v>84</v>
       </c>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="163"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="163"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="164"/>
-      <c r="AE5" s="163"/>
-      <c r="AF5" s="164"/>
-      <c r="AG5" s="164"/>
-      <c r="AH5" s="164"/>
-      <c r="AI5" s="163"/>
-      <c r="AJ5" s="164"/>
-      <c r="AK5" s="164"/>
-      <c r="AL5" s="164"/>
-      <c r="AM5" s="163"/>
-      <c r="AN5" s="164"/>
-      <c r="AO5" s="164"/>
-      <c r="AP5" s="164"/>
-      <c r="AQ5" s="163"/>
-      <c r="AR5" s="164"/>
-      <c r="AS5" s="164"/>
-      <c r="AT5" s="164"/>
-      <c r="AU5" s="163"/>
-      <c r="AV5" s="164"/>
-      <c r="AW5" s="164"/>
-      <c r="AX5" s="164"/>
-      <c r="AY5" s="163"/>
-      <c r="AZ5" s="164"/>
-      <c r="BA5" s="164"/>
-      <c r="BB5" s="164"/>
-      <c r="BC5" s="163"/>
-      <c r="BD5" s="164"/>
-      <c r="BE5" s="164"/>
-      <c r="BF5" s="164"/>
-      <c r="BG5" s="163"/>
-      <c r="BH5" s="164"/>
-      <c r="BI5" s="164"/>
-      <c r="BJ5" s="164"/>
-      <c r="BK5" s="163"/>
-      <c r="BL5" s="164"/>
-      <c r="BM5" s="164"/>
-      <c r="BN5" s="164"/>
-      <c r="BO5" s="163"/>
-      <c r="BP5" s="164"/>
-      <c r="BQ5" s="164"/>
-      <c r="BR5" s="164"/>
-      <c r="BS5" s="163"/>
-      <c r="BT5" s="164"/>
-      <c r="BU5" s="164"/>
-      <c r="BV5" s="164"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="145"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="145"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="146"/>
+      <c r="AE5" s="145"/>
+      <c r="AF5" s="146"/>
+      <c r="AG5" s="146"/>
+      <c r="AH5" s="146"/>
+      <c r="AI5" s="145"/>
+      <c r="AJ5" s="146"/>
+      <c r="AK5" s="146"/>
+      <c r="AL5" s="146"/>
+      <c r="AM5" s="145"/>
+      <c r="AN5" s="146"/>
+      <c r="AO5" s="146"/>
+      <c r="AP5" s="146"/>
+      <c r="AQ5" s="145"/>
+      <c r="AR5" s="146"/>
+      <c r="AS5" s="146"/>
+      <c r="AT5" s="146"/>
+      <c r="AU5" s="145"/>
+      <c r="AV5" s="146"/>
+      <c r="AW5" s="146"/>
+      <c r="AX5" s="146"/>
+      <c r="AY5" s="145"/>
+      <c r="AZ5" s="146"/>
+      <c r="BA5" s="146"/>
+      <c r="BB5" s="146"/>
+      <c r="BC5" s="145"/>
+      <c r="BD5" s="146"/>
+      <c r="BE5" s="146"/>
+      <c r="BF5" s="146"/>
+      <c r="BG5" s="145"/>
+      <c r="BH5" s="146"/>
+      <c r="BI5" s="146"/>
+      <c r="BJ5" s="146"/>
+      <c r="BK5" s="145"/>
+      <c r="BL5" s="146"/>
+      <c r="BM5" s="146"/>
+      <c r="BN5" s="146"/>
+      <c r="BO5" s="145"/>
+      <c r="BP5" s="146"/>
+      <c r="BQ5" s="146"/>
+      <c r="BR5" s="146"/>
+      <c r="BS5" s="145"/>
+      <c r="BT5" s="146"/>
+      <c r="BU5" s="146"/>
+      <c r="BV5" s="146"/>
       <c r="BW5" s="3"/>
       <c r="BX5" s="4"/>
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="147" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="166"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="168"/>
-      <c r="F6" s="165" t="s">
+      <c r="C6" s="148"/>
+      <c r="D6" s="143"/>
+      <c r="E6" s="144"/>
+      <c r="F6" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="168"/>
+      <c r="G6" s="143"/>
+      <c r="H6" s="143"/>
+      <c r="I6" s="143"/>
+      <c r="J6" s="144"/>
       <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
@@ -13708,19 +13465,19 @@
     </row>
     <row r="7" spans="1:76">
       <c r="A7" s="2"/>
-      <c r="B7" s="183" t="s">
+      <c r="B7" s="178" t="s">
         <v>76</v>
       </c>
-      <c r="C7" s="184"/>
-      <c r="D7" s="184"/>
-      <c r="E7" s="185"/>
-      <c r="F7" s="186" t="s">
+      <c r="C7" s="179"/>
+      <c r="D7" s="179"/>
+      <c r="E7" s="180"/>
+      <c r="F7" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="G7" s="186"/>
-      <c r="H7" s="186"/>
-      <c r="I7" s="186"/>
-      <c r="J7" s="186"/>
+      <c r="G7" s="189"/>
+      <c r="H7" s="189"/>
+      <c r="I7" s="189"/>
+      <c r="J7" s="189"/>
       <c r="K7" s="12" t="s">
         <v>43</v>
       </c>
@@ -13794,17 +13551,17 @@
     </row>
     <row r="8" spans="1:76">
       <c r="A8" s="2"/>
-      <c r="B8" s="187"/>
-      <c r="C8" s="188"/>
-      <c r="D8" s="188"/>
-      <c r="E8" s="189"/>
-      <c r="F8" s="186" t="s">
+      <c r="B8" s="181"/>
+      <c r="C8" s="182"/>
+      <c r="D8" s="182"/>
+      <c r="E8" s="183"/>
+      <c r="F8" s="189" t="s">
         <v>88</v>
       </c>
-      <c r="G8" s="186"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="186"/>
-      <c r="J8" s="186"/>
+      <c r="G8" s="189"/>
+      <c r="H8" s="189"/>
+      <c r="I8" s="189"/>
+      <c r="J8" s="189"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="12" t="s">
@@ -13878,17 +13635,17 @@
     </row>
     <row r="9" spans="1:76">
       <c r="A9" s="2"/>
-      <c r="B9" s="187"/>
-      <c r="C9" s="188"/>
-      <c r="D9" s="188"/>
-      <c r="E9" s="189"/>
-      <c r="F9" s="186" t="s">
+      <c r="B9" s="181"/>
+      <c r="C9" s="182"/>
+      <c r="D9" s="182"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="189" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="186"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="186"/>
-      <c r="J9" s="186"/>
+      <c r="G9" s="189"/>
+      <c r="H9" s="189"/>
+      <c r="I9" s="189"/>
+      <c r="J9" s="189"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="12" t="s">
@@ -13960,17 +13717,17 @@
     </row>
     <row r="10" spans="1:76">
       <c r="A10" s="2"/>
-      <c r="B10" s="187"/>
-      <c r="C10" s="188"/>
-      <c r="D10" s="188"/>
-      <c r="E10" s="189"/>
-      <c r="F10" s="186" t="s">
+      <c r="B10" s="181"/>
+      <c r="C10" s="182"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="189" t="s">
         <v>90</v>
       </c>
-      <c r="G10" s="186"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="186"/>
-      <c r="J10" s="186"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -14042,15 +13799,15 @@
     </row>
     <row r="11" spans="1:76">
       <c r="A11" s="2"/>
-      <c r="B11" s="187"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="186"/>
-      <c r="G11" s="186"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="186"/>
-      <c r="J11" s="186"/>
+      <c r="B11" s="181"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="183"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -14120,15 +13877,15 @@
     </row>
     <row r="12" spans="1:76">
       <c r="A12" s="2"/>
-      <c r="B12" s="190"/>
-      <c r="C12" s="191"/>
-      <c r="D12" s="191"/>
-      <c r="E12" s="189"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="155"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="155"/>
-      <c r="J12" s="156"/>
+      <c r="B12" s="184"/>
+      <c r="C12" s="185"/>
+      <c r="D12" s="185"/>
+      <c r="E12" s="183"/>
+      <c r="F12" s="161"/>
+      <c r="G12" s="162"/>
+      <c r="H12" s="162"/>
+      <c r="I12" s="162"/>
+      <c r="J12" s="163"/>
       <c r="K12" s="24"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -14198,15 +13955,15 @@
     </row>
     <row r="13" spans="1:76">
       <c r="A13" s="2"/>
-      <c r="B13" s="190"/>
-      <c r="C13" s="191"/>
-      <c r="D13" s="191"/>
-      <c r="E13" s="189"/>
-      <c r="F13" s="157"/>
-      <c r="G13" s="158"/>
-      <c r="H13" s="158"/>
-      <c r="I13" s="158"/>
-      <c r="J13" s="159"/>
+      <c r="B13" s="184"/>
+      <c r="C13" s="185"/>
+      <c r="D13" s="185"/>
+      <c r="E13" s="183"/>
+      <c r="F13" s="164"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="166"/>
       <c r="K13" s="25"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -14276,15 +14033,15 @@
     </row>
     <row r="14" spans="1:76">
       <c r="A14" s="2"/>
-      <c r="B14" s="192"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="194"/>
-      <c r="F14" s="160"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="162"/>
+      <c r="B14" s="186"/>
+      <c r="C14" s="187"/>
+      <c r="D14" s="187"/>
+      <c r="E14" s="188"/>
+      <c r="F14" s="167"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="168"/>
+      <c r="I14" s="168"/>
+      <c r="J14" s="169"/>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -14354,19 +14111,19 @@
     </row>
     <row r="15" spans="1:76">
       <c r="A15" s="2"/>
-      <c r="B15" s="183" t="s">
+      <c r="B15" s="178" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="184"/>
-      <c r="D15" s="184"/>
-      <c r="E15" s="185"/>
-      <c r="F15" s="186" t="s">
+      <c r="C15" s="179"/>
+      <c r="D15" s="179"/>
+      <c r="E15" s="180"/>
+      <c r="F15" s="189" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="186"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="186"/>
-      <c r="J15" s="186"/>
+      <c r="G15" s="189"/>
+      <c r="H15" s="189"/>
+      <c r="I15" s="189"/>
+      <c r="J15" s="189"/>
       <c r="K15" s="12"/>
       <c r="L15" s="11"/>
       <c r="M15" s="11"/>
@@ -14438,17 +14195,15 @@
     </row>
     <row r="16" spans="1:76">
       <c r="A16" s="2"/>
-      <c r="B16" s="187"/>
-      <c r="C16" s="188"/>
-      <c r="D16" s="188"/>
-      <c r="E16" s="189"/>
-      <c r="F16" s="186" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="186"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="186"/>
-      <c r="J16" s="186"/>
+      <c r="B16" s="181"/>
+      <c r="C16" s="182"/>
+      <c r="D16" s="182"/>
+      <c r="E16" s="183"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12"/>
       <c r="M16" s="11"/>
@@ -14460,9 +14215,7 @@
       <c r="S16" s="11"/>
       <c r="T16" s="12"/>
       <c r="U16" s="11"/>
-      <c r="V16" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="V16" s="12"/>
       <c r="W16" s="11"/>
       <c r="X16" s="12"/>
       <c r="Y16" s="11"/>
@@ -14520,17 +14273,17 @@
     </row>
     <row r="17" spans="1:76">
       <c r="A17" s="2"/>
-      <c r="B17" s="187"/>
-      <c r="C17" s="188"/>
-      <c r="D17" s="188"/>
-      <c r="E17" s="189"/>
-      <c r="F17" s="186" t="s">
+      <c r="B17" s="181"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
+      <c r="E17" s="183"/>
+      <c r="F17" s="189" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="186"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="186"/>
-      <c r="J17" s="186"/>
+      <c r="G17" s="189"/>
+      <c r="H17" s="189"/>
+      <c r="I17" s="189"/>
+      <c r="J17" s="189"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12" t="s">
         <v>43</v>
@@ -14541,8 +14294,10 @@
       <c r="P17" s="12"/>
       <c r="Q17" s="11"/>
       <c r="R17" s="22"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="U17" s="11"/>
       <c r="V17" s="11"/>
       <c r="W17" s="11"/>
@@ -14602,15 +14357,15 @@
     </row>
     <row r="18" spans="1:76">
       <c r="A18" s="2"/>
-      <c r="B18" s="187"/>
-      <c r="C18" s="188"/>
-      <c r="D18" s="188"/>
-      <c r="E18" s="189"/>
-      <c r="F18" s="186"/>
-      <c r="G18" s="186"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="186"/>
-      <c r="J18" s="186"/>
+      <c r="B18" s="181"/>
+      <c r="C18" s="182"/>
+      <c r="D18" s="182"/>
+      <c r="E18" s="183"/>
+      <c r="F18" s="189"/>
+      <c r="G18" s="189"/>
+      <c r="H18" s="189"/>
+      <c r="I18" s="189"/>
+      <c r="J18" s="189"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="12"/>
@@ -14680,15 +14435,15 @@
     </row>
     <row r="19" spans="1:76">
       <c r="A19" s="2"/>
-      <c r="B19" s="187"/>
-      <c r="C19" s="188"/>
-      <c r="D19" s="188"/>
-      <c r="E19" s="189"/>
-      <c r="F19" s="186"/>
-      <c r="G19" s="186"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="186"/>
-      <c r="J19" s="186"/>
+      <c r="B19" s="181"/>
+      <c r="C19" s="182"/>
+      <c r="D19" s="182"/>
+      <c r="E19" s="183"/>
+      <c r="F19" s="189"/>
+      <c r="G19" s="189"/>
+      <c r="H19" s="189"/>
+      <c r="I19" s="189"/>
+      <c r="J19" s="189"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
@@ -14758,15 +14513,15 @@
     </row>
     <row r="20" spans="1:76">
       <c r="A20" s="2"/>
-      <c r="B20" s="190"/>
-      <c r="C20" s="191"/>
-      <c r="D20" s="191"/>
-      <c r="E20" s="189"/>
-      <c r="F20" s="154"/>
-      <c r="G20" s="155"/>
-      <c r="H20" s="155"/>
-      <c r="I20" s="155"/>
-      <c r="J20" s="156"/>
+      <c r="B20" s="184"/>
+      <c r="C20" s="185"/>
+      <c r="D20" s="185"/>
+      <c r="E20" s="183"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="162"/>
+      <c r="I20" s="162"/>
+      <c r="J20" s="163"/>
       <c r="K20" s="24"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -14836,15 +14591,15 @@
     </row>
     <row r="21" spans="1:76">
       <c r="A21" s="2"/>
-      <c r="B21" s="190"/>
-      <c r="C21" s="191"/>
-      <c r="D21" s="191"/>
-      <c r="E21" s="189"/>
-      <c r="F21" s="157"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="159"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="185"/>
+      <c r="D21" s="185"/>
+      <c r="E21" s="183"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="165"/>
+      <c r="J21" s="166"/>
       <c r="K21" s="25"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -14914,15 +14669,15 @@
     </row>
     <row r="22" spans="1:76">
       <c r="A22" s="2"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="193"/>
-      <c r="D22" s="193"/>
-      <c r="E22" s="194"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
-      <c r="J22" s="162"/>
+      <c r="B22" s="186"/>
+      <c r="C22" s="187"/>
+      <c r="D22" s="187"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="167"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="168"/>
+      <c r="J22" s="169"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -14992,15 +14747,15 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="142"/>
-      <c r="C23" s="143"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="144"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="153"/>
-      <c r="H23" s="153"/>
-      <c r="I23" s="153"/>
-      <c r="J23" s="153"/>
+      <c r="B23" s="149"/>
+      <c r="C23" s="150"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="160"/>
+      <c r="G23" s="160"/>
+      <c r="H23" s="160"/>
+      <c r="I23" s="160"/>
+      <c r="J23" s="160"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -15070,15 +14825,15 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="145"/>
-      <c r="C24" s="146"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="147"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="153"/>
-      <c r="H24" s="153"/>
-      <c r="I24" s="153"/>
-      <c r="J24" s="153"/>
+      <c r="B24" s="152"/>
+      <c r="C24" s="153"/>
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="160"/>
+      <c r="G24" s="160"/>
+      <c r="H24" s="160"/>
+      <c r="I24" s="160"/>
+      <c r="J24" s="160"/>
       <c r="K24" s="11"/>
       <c r="L24" s="12"/>
       <c r="M24" s="11"/>
@@ -15148,15 +14903,15 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="145"/>
-      <c r="C25" s="146"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="153"/>
-      <c r="H25" s="153"/>
-      <c r="I25" s="153"/>
-      <c r="J25" s="153"/>
+      <c r="B25" s="152"/>
+      <c r="C25" s="153"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
+      <c r="F25" s="160"/>
+      <c r="G25" s="160"/>
+      <c r="H25" s="160"/>
+      <c r="I25" s="160"/>
+      <c r="J25" s="160"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
@@ -15226,15 +14981,15 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="145"/>
-      <c r="C26" s="146"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="153"/>
-      <c r="H26" s="153"/>
-      <c r="I26" s="153"/>
-      <c r="J26" s="153"/>
+      <c r="B26" s="152"/>
+      <c r="C26" s="153"/>
+      <c r="D26" s="153"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
@@ -15304,15 +15059,15 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="145"/>
-      <c r="C27" s="146"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="153"/>
-      <c r="H27" s="153"/>
-      <c r="I27" s="153"/>
-      <c r="J27" s="153"/>
+      <c r="B27" s="152"/>
+      <c r="C27" s="153"/>
+      <c r="D27" s="153"/>
+      <c r="E27" s="154"/>
+      <c r="F27" s="160"/>
+      <c r="G27" s="160"/>
+      <c r="H27" s="160"/>
+      <c r="I27" s="160"/>
+      <c r="J27" s="160"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
@@ -15382,17 +15137,17 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="148"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="154" t="s">
+      <c r="B28" s="155"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="154"/>
+      <c r="F28" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="155"/>
-      <c r="H28" s="155"/>
-      <c r="I28" s="155"/>
-      <c r="J28" s="156"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="163"/>
       <c r="K28" s="24"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -15462,17 +15217,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="149"/>
-      <c r="D29" s="149"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="157" t="s">
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="154"/>
+      <c r="F29" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="158"/>
-      <c r="H29" s="158"/>
-      <c r="I29" s="158"/>
-      <c r="J29" s="159"/>
+      <c r="G29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="165"/>
+      <c r="J29" s="166"/>
       <c r="K29" s="25"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -15542,17 +15297,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="150"/>
-      <c r="C30" s="151"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="160" t="s">
+      <c r="B30" s="157"/>
+      <c r="C30" s="158"/>
+      <c r="D30" s="158"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
-      <c r="J30" s="162"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="168"/>
+      <c r="J30" s="169"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -15622,15 +15377,15 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="142"/>
-      <c r="C31" s="143"/>
-      <c r="D31" s="143"/>
-      <c r="E31" s="144"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="153"/>
-      <c r="H31" s="153"/>
-      <c r="I31" s="153"/>
-      <c r="J31" s="153"/>
+      <c r="B31" s="149"/>
+      <c r="C31" s="150"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="160"/>
+      <c r="H31" s="160"/>
+      <c r="I31" s="160"/>
+      <c r="J31" s="160"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -15700,15 +15455,15 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="145"/>
-      <c r="C32" s="146"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="153"/>
-      <c r="H32" s="153"/>
-      <c r="I32" s="153"/>
-      <c r="J32" s="153"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="153"/>
+      <c r="D32" s="153"/>
+      <c r="E32" s="154"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="160"/>
+      <c r="H32" s="160"/>
+      <c r="I32" s="160"/>
+      <c r="J32" s="160"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12"/>
       <c r="M32" s="11"/>
@@ -15778,15 +15533,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="145"/>
-      <c r="C33" s="146"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="153"/>
-      <c r="H33" s="153"/>
-      <c r="I33" s="153"/>
-      <c r="J33" s="153"/>
+      <c r="B33" s="152"/>
+      <c r="C33" s="153"/>
+      <c r="D33" s="153"/>
+      <c r="E33" s="154"/>
+      <c r="F33" s="160"/>
+      <c r="G33" s="160"/>
+      <c r="H33" s="160"/>
+      <c r="I33" s="160"/>
+      <c r="J33" s="160"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -15856,15 +15611,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="145"/>
-      <c r="C34" s="146"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="153"/>
-      <c r="G34" s="153"/>
-      <c r="H34" s="153"/>
-      <c r="I34" s="153"/>
-      <c r="J34" s="153"/>
+      <c r="B34" s="152"/>
+      <c r="C34" s="153"/>
+      <c r="D34" s="153"/>
+      <c r="E34" s="154"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
@@ -15934,15 +15689,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="145"/>
-      <c r="C35" s="146"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
+      <c r="B35" s="152"/>
+      <c r="C35" s="153"/>
+      <c r="D35" s="153"/>
+      <c r="E35" s="154"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -16012,17 +15767,17 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="148"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="149"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="154" t="s">
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="155"/>
-      <c r="H36" s="155"/>
-      <c r="I36" s="155"/>
-      <c r="J36" s="156"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="163"/>
       <c r="K36" s="24"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
@@ -16092,17 +15847,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="148"/>
-      <c r="C37" s="149"/>
-      <c r="D37" s="149"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="157" t="s">
+      <c r="B37" s="155"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="154"/>
+      <c r="F37" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="158"/>
-      <c r="H37" s="158"/>
-      <c r="I37" s="158"/>
-      <c r="J37" s="159"/>
+      <c r="G37" s="165"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="165"/>
+      <c r="J37" s="166"/>
       <c r="K37" s="25"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -16172,17 +15927,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="150"/>
-      <c r="C38" s="151"/>
-      <c r="D38" s="151"/>
-      <c r="E38" s="152"/>
-      <c r="F38" s="160" t="s">
+      <c r="B38" s="157"/>
+      <c r="C38" s="158"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
-      <c r="J38" s="162"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="169"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -16252,15 +16007,15 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="142"/>
-      <c r="C39" s="143"/>
-      <c r="D39" s="143"/>
-      <c r="E39" s="144"/>
-      <c r="F39" s="153"/>
-      <c r="G39" s="153"/>
-      <c r="H39" s="153"/>
-      <c r="I39" s="153"/>
-      <c r="J39" s="153"/>
+      <c r="B39" s="149"/>
+      <c r="C39" s="150"/>
+      <c r="D39" s="150"/>
+      <c r="E39" s="151"/>
+      <c r="F39" s="160"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="160"/>
+      <c r="I39" s="160"/>
+      <c r="J39" s="160"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -16330,15 +16085,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="145"/>
-      <c r="C40" s="146"/>
-      <c r="D40" s="146"/>
-      <c r="E40" s="147"/>
-      <c r="F40" s="153"/>
-      <c r="G40" s="153"/>
-      <c r="H40" s="153"/>
-      <c r="I40" s="153"/>
-      <c r="J40" s="153"/>
+      <c r="B40" s="152"/>
+      <c r="C40" s="153"/>
+      <c r="D40" s="153"/>
+      <c r="E40" s="154"/>
+      <c r="F40" s="160"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="160"/>
+      <c r="I40" s="160"/>
+      <c r="J40" s="160"/>
       <c r="K40" s="11"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11"/>
@@ -16408,15 +16163,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="145"/>
-      <c r="C41" s="146"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="147"/>
-      <c r="F41" s="153"/>
-      <c r="G41" s="153"/>
-      <c r="H41" s="153"/>
-      <c r="I41" s="153"/>
-      <c r="J41" s="153"/>
+      <c r="B41" s="152"/>
+      <c r="C41" s="153"/>
+      <c r="D41" s="153"/>
+      <c r="E41" s="154"/>
+      <c r="F41" s="160"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="160"/>
+      <c r="I41" s="160"/>
+      <c r="J41" s="160"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -16486,15 +16241,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="145"/>
-      <c r="C42" s="146"/>
-      <c r="D42" s="146"/>
-      <c r="E42" s="147"/>
-      <c r="F42" s="153"/>
-      <c r="G42" s="153"/>
-      <c r="H42" s="153"/>
-      <c r="I42" s="153"/>
-      <c r="J42" s="153"/>
+      <c r="B42" s="152"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="153"/>
+      <c r="E42" s="154"/>
+      <c r="F42" s="160"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="160"/>
+      <c r="I42" s="160"/>
+      <c r="J42" s="160"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
@@ -16564,15 +16319,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="145"/>
-      <c r="C43" s="146"/>
-      <c r="D43" s="146"/>
-      <c r="E43" s="147"/>
-      <c r="F43" s="153"/>
-      <c r="G43" s="153"/>
-      <c r="H43" s="153"/>
-      <c r="I43" s="153"/>
-      <c r="J43" s="153"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="153"/>
+      <c r="D43" s="153"/>
+      <c r="E43" s="154"/>
+      <c r="F43" s="160"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="160"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="160"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -16642,17 +16397,17 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="148"/>
-      <c r="C44" s="149"/>
-      <c r="D44" s="149"/>
-      <c r="E44" s="147"/>
-      <c r="F44" s="154" t="s">
+      <c r="B44" s="155"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="154"/>
+      <c r="F44" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="155"/>
-      <c r="H44" s="155"/>
-      <c r="I44" s="155"/>
-      <c r="J44" s="156"/>
+      <c r="G44" s="162"/>
+      <c r="H44" s="162"/>
+      <c r="I44" s="162"/>
+      <c r="J44" s="163"/>
       <c r="K44" s="24"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
@@ -16722,17 +16477,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="148"/>
-      <c r="C45" s="149"/>
-      <c r="D45" s="149"/>
-      <c r="E45" s="147"/>
-      <c r="F45" s="157" t="s">
+      <c r="B45" s="155"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="154"/>
+      <c r="F45" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="158"/>
-      <c r="H45" s="158"/>
-      <c r="I45" s="158"/>
-      <c r="J45" s="159"/>
+      <c r="G45" s="165"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="165"/>
+      <c r="J45" s="166"/>
       <c r="K45" s="25"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -16802,17 +16557,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="150"/>
-      <c r="C46" s="151"/>
-      <c r="D46" s="151"/>
-      <c r="E46" s="152"/>
-      <c r="F46" s="160" t="s">
+      <c r="B46" s="157"/>
+      <c r="C46" s="158"/>
+      <c r="D46" s="158"/>
+      <c r="E46" s="159"/>
+      <c r="F46" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
-      <c r="J46" s="162"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="168"/>
+      <c r="J46" s="169"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -16882,15 +16637,15 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="142"/>
-      <c r="C47" s="143"/>
-      <c r="D47" s="143"/>
-      <c r="E47" s="144"/>
-      <c r="F47" s="153"/>
-      <c r="G47" s="153"/>
-      <c r="H47" s="153"/>
-      <c r="I47" s="153"/>
-      <c r="J47" s="153"/>
+      <c r="B47" s="149"/>
+      <c r="C47" s="150"/>
+      <c r="D47" s="150"/>
+      <c r="E47" s="151"/>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -16960,15 +16715,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="145"/>
-      <c r="C48" s="146"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="147"/>
-      <c r="F48" s="153"/>
-      <c r="G48" s="153"/>
-      <c r="H48" s="153"/>
-      <c r="I48" s="153"/>
-      <c r="J48" s="153"/>
+      <c r="B48" s="152"/>
+      <c r="C48" s="153"/>
+      <c r="D48" s="153"/>
+      <c r="E48" s="154"/>
+      <c r="F48" s="160"/>
+      <c r="G48" s="160"/>
+      <c r="H48" s="160"/>
+      <c r="I48" s="160"/>
+      <c r="J48" s="160"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
@@ -17038,15 +16793,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="145"/>
-      <c r="C49" s="146"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="147"/>
-      <c r="F49" s="153"/>
-      <c r="G49" s="153"/>
-      <c r="H49" s="153"/>
-      <c r="I49" s="153"/>
-      <c r="J49" s="153"/>
+      <c r="B49" s="152"/>
+      <c r="C49" s="153"/>
+      <c r="D49" s="153"/>
+      <c r="E49" s="154"/>
+      <c r="F49" s="160"/>
+      <c r="G49" s="160"/>
+      <c r="H49" s="160"/>
+      <c r="I49" s="160"/>
+      <c r="J49" s="160"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -17116,15 +16871,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="145"/>
-      <c r="C50" s="146"/>
-      <c r="D50" s="146"/>
-      <c r="E50" s="147"/>
-      <c r="F50" s="153"/>
-      <c r="G50" s="153"/>
-      <c r="H50" s="153"/>
-      <c r="I50" s="153"/>
-      <c r="J50" s="153"/>
+      <c r="B50" s="152"/>
+      <c r="C50" s="153"/>
+      <c r="D50" s="153"/>
+      <c r="E50" s="154"/>
+      <c r="F50" s="160"/>
+      <c r="G50" s="160"/>
+      <c r="H50" s="160"/>
+      <c r="I50" s="160"/>
+      <c r="J50" s="160"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
@@ -17194,15 +16949,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="145"/>
-      <c r="C51" s="146"/>
-      <c r="D51" s="146"/>
-      <c r="E51" s="147"/>
-      <c r="F51" s="153"/>
-      <c r="G51" s="153"/>
-      <c r="H51" s="153"/>
-      <c r="I51" s="153"/>
-      <c r="J51" s="153"/>
+      <c r="B51" s="152"/>
+      <c r="C51" s="153"/>
+      <c r="D51" s="153"/>
+      <c r="E51" s="154"/>
+      <c r="F51" s="160"/>
+      <c r="G51" s="160"/>
+      <c r="H51" s="160"/>
+      <c r="I51" s="160"/>
+      <c r="J51" s="160"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -17272,17 +17027,17 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="148"/>
-      <c r="C52" s="149"/>
-      <c r="D52" s="149"/>
-      <c r="E52" s="147"/>
-      <c r="F52" s="154" t="s">
+      <c r="B52" s="155"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="154"/>
+      <c r="F52" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="155"/>
-      <c r="H52" s="155"/>
-      <c r="I52" s="155"/>
-      <c r="J52" s="156"/>
+      <c r="G52" s="162"/>
+      <c r="H52" s="162"/>
+      <c r="I52" s="162"/>
+      <c r="J52" s="163"/>
       <c r="K52" s="24"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
@@ -17352,17 +17107,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="148"/>
-      <c r="C53" s="149"/>
-      <c r="D53" s="149"/>
-      <c r="E53" s="147"/>
-      <c r="F53" s="157" t="s">
+      <c r="B53" s="155"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="154"/>
+      <c r="F53" s="164" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="158"/>
-      <c r="H53" s="158"/>
-      <c r="I53" s="158"/>
-      <c r="J53" s="159"/>
+      <c r="G53" s="165"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="165"/>
+      <c r="J53" s="166"/>
       <c r="K53" s="25"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -17432,17 +17187,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="150"/>
-      <c r="C54" s="151"/>
-      <c r="D54" s="151"/>
-      <c r="E54" s="152"/>
-      <c r="F54" s="160" t="s">
+      <c r="B54" s="157"/>
+      <c r="C54" s="158"/>
+      <c r="D54" s="158"/>
+      <c r="E54" s="159"/>
+      <c r="F54" s="167" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="162"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="168"/>
+      <c r="I54" s="168"/>
+      <c r="J54" s="169"/>
       <c r="K54" s="17"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -17746,54 +17501,28 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="B47:E54"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="B39:E46"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="B31:E38"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B23:E30"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B15:E22"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="A3:BX3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AM5:AP5"/>
     <mergeCell ref="BO5:BR5"/>
     <mergeCell ref="BS5:BV5"/>
     <mergeCell ref="B6:E6"/>
@@ -17810,31 +17539,58 @@
     <mergeCell ref="BC5:BF5"/>
     <mergeCell ref="BG5:BJ5"/>
     <mergeCell ref="BK5:BN5"/>
-    <mergeCell ref="A3:BX3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="AM5:AP5"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BS2:BX2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B15:E22"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="B23:E30"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="B31:E38"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B39:E46"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="B47:E54"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17903,15 +17659,15 @@
       <c r="I2" s="116"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="169"/>
-      <c r="E3" s="169"/>
-      <c r="F3" s="169"/>
-      <c r="G3" s="169"/>
-      <c r="H3" s="169"/>
-      <c r="I3" s="169"/>
+      <c r="A3" s="137"/>
+      <c r="B3" s="137"/>
+      <c r="C3" s="137"/>
+      <c r="D3" s="137"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="137"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="118"/>
@@ -17950,17 +17706,17 @@
       <c r="D6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="177" t="s">
+      <c r="E6" s="193" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="178"/>
+      <c r="F6" s="194"/>
       <c r="G6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="177" t="s">
+      <c r="H6" s="193" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="178"/>
+      <c r="I6" s="194"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1">
       <c r="A7" s="30" t="s">
@@ -17971,11 +17727,11 @@
       <c r="D7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="181"/>
-      <c r="F7" s="182"/>
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
       <c r="G7" s="123"/>
-      <c r="H7" s="179"/>
-      <c r="I7" s="180"/>
+      <c r="H7" s="192"/>
+      <c r="I7" s="195"/>
     </row>
     <row r="8" spans="1:9" ht="80.099999999999994" customHeight="1">
       <c r="A8" s="36"/>
@@ -17986,13 +17742,13 @@
       <c r="D8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="181" t="s">
+      <c r="E8" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="182"/>
+      <c r="F8" s="191"/>
       <c r="G8" s="123"/>
-      <c r="H8" s="179"/>
-      <c r="I8" s="182"/>
+      <c r="H8" s="192"/>
+      <c r="I8" s="191"/>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1">
       <c r="A9" s="36"/>
@@ -18003,15 +17759,15 @@
       <c r="D9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="181" t="s">
+      <c r="E9" s="190" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="182"/>
+      <c r="F9" s="191"/>
       <c r="G9" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="H9" s="179"/>
-      <c r="I9" s="182"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="191"/>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1">
       <c r="A10" s="36"/>
@@ -18022,15 +17778,15 @@
       <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="181" t="s">
+      <c r="E10" s="190" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="182"/>
+      <c r="F10" s="191"/>
       <c r="G10" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="179"/>
-      <c r="I10" s="182"/>
+      <c r="H10" s="192"/>
+      <c r="I10" s="191"/>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1">
       <c r="A11" s="36"/>
@@ -18041,15 +17797,15 @@
       <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="181" t="s">
+      <c r="E11" s="190" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="182"/>
+      <c r="F11" s="191"/>
       <c r="G11" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="H11" s="179"/>
-      <c r="I11" s="182"/>
+      <c r="H11" s="192"/>
+      <c r="I11" s="191"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1">
       <c r="A12" s="37"/>
@@ -18060,15 +17816,15 @@
       <c r="D12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="181" t="s">
+      <c r="E12" s="190" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="182"/>
+      <c r="F12" s="191"/>
       <c r="G12" s="123" t="s">
         <v>30</v>
       </c>
-      <c r="H12" s="179"/>
-      <c r="I12" s="182"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="191"/>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -18079,11 +17835,11 @@
       <c r="D13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="181"/>
-      <c r="F13" s="182"/>
+      <c r="E13" s="190"/>
+      <c r="F13" s="191"/>
       <c r="G13" s="123"/>
-      <c r="H13" s="179"/>
-      <c r="I13" s="182"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="191"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1">
       <c r="A14" s="36"/>
@@ -18094,11 +17850,11 @@
       <c r="D14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="181"/>
-      <c r="F14" s="182"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="191"/>
       <c r="G14" s="123"/>
-      <c r="H14" s="179"/>
-      <c r="I14" s="182"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="191"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1">
       <c r="A15" s="36"/>
@@ -18109,15 +17865,15 @@
       <c r="D15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="181" t="s">
+      <c r="E15" s="190" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="182"/>
+      <c r="F15" s="191"/>
       <c r="G15" s="123"/>
-      <c r="H15" s="179" t="s">
+      <c r="H15" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="182"/>
+      <c r="I15" s="191"/>
     </row>
     <row r="16" spans="1:9" ht="60" customHeight="1">
       <c r="A16" s="36"/>
@@ -18128,13 +17884,13 @@
       <c r="D16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="181" t="s">
+      <c r="E16" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="182"/>
+      <c r="F16" s="191"/>
       <c r="G16" s="123"/>
-      <c r="H16" s="179"/>
-      <c r="I16" s="182"/>
+      <c r="H16" s="192"/>
+      <c r="I16" s="191"/>
     </row>
     <row r="17" spans="1:9" ht="60" customHeight="1">
       <c r="A17" s="37"/>
@@ -18145,13 +17901,13 @@
       <c r="D17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="181" t="s">
+      <c r="E17" s="190" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="182"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="123"/>
-      <c r="H17" s="179"/>
-      <c r="I17" s="182"/>
+      <c r="H17" s="192"/>
+      <c r="I17" s="191"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8"/>
@@ -18166,22 +17922,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="H6:I6"/>
@@ -18191,6 +17931,22 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="E7:F7"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <phoneticPr fontId="7"/>
   <printOptions horizontalCentered="1"/>

--- a/doc/【ToDoリスト】CRUD表_外山秀樹.xlsx
+++ b/doc/【ToDoリスト】CRUD表_外山秀樹.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inthp\Documents\laravel_Todo\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C962AFAE-5DCA-4DB6-BAC1-19D37B42B2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{245BB5C0-6264-4373-81D7-91D0ACE62FDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1356" yWindow="924" windowWidth="21600" windowHeight="11328" tabRatio="998" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27840" yWindow="960" windowWidth="21600" windowHeight="11325" tabRatio="998" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="27" r:id="rId1"/>
@@ -42,41 +42,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="101">
   <si>
     <t>作成者</t>
     <rPh sb="0" eb="3">
       <t>サクセイシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>作成日</t>
     <rPh sb="0" eb="3">
       <t>サクセイビ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>更新者</t>
     <rPh sb="0" eb="3">
       <t>コウシンシャ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>更新日</t>
     <rPh sb="0" eb="3">
       <t>コウシンビ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>修正理由</t>
@@ -86,7 +86,7 @@
     <rPh sb="2" eb="4">
       <t>リユウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>修正箇所</t>
@@ -96,7 +96,7 @@
     <rPh sb="2" eb="4">
       <t>カショ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>修正前</t>
@@ -106,7 +106,7 @@
     <rPh sb="2" eb="3">
       <t>マエ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>修正後</t>
@@ -116,39 +116,39 @@
     <rPh sb="2" eb="3">
       <t>ゴ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>説明</t>
     <rPh sb="0" eb="2">
       <t>セツメイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>小項目</t>
     <rPh sb="0" eb="3">
       <t>ショウコウモク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>大項目</t>
     <rPh sb="0" eb="3">
       <t>ダイコウモク</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>テーブル情報</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>任意</t>
     <rPh sb="0" eb="2">
       <t>ニンイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>必須／任意</t>
@@ -158,28 +158,28 @@
     <rPh sb="3" eb="5">
       <t>ニンイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>必須</t>
     <rPh sb="0" eb="2">
       <t>ヒッス</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>例</t>
     <rPh sb="0" eb="1">
       <t>レイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>備考</t>
     <rPh sb="0" eb="2">
       <t>ビコウ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>論理テーブル名</t>
@@ -189,28 +189,28 @@
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>列</t>
     <rPh sb="0" eb="1">
       <t>レツ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>行</t>
     <rPh sb="0" eb="1">
       <t>ギョウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>機能</t>
     <rPh sb="0" eb="2">
       <t>キノウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>中項目</t>
@@ -220,44 +220,44 @@
     <rPh sb="1" eb="3">
       <t>コウモク</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>C</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>C</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>R</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>U</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>D</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>大分類</t>
     <rPh sb="0" eb="3">
       <t>ダイブンルイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>中分類</t>
     <rPh sb="0" eb="3">
       <t>チュウブンルイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>小分類</t>
     <rPh sb="0" eb="3">
       <t>ショウブンルイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>○
@@ -265,7 +265,7 @@
     <rPh sb="3" eb="5">
       <t>クウラン</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>該当行の機能において、該当列のテーブルのレコードが生成される場合、〇を記載します。</t>
@@ -293,7 +293,7 @@
     <rPh sb="35" eb="37">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>該当行の機能において、該当列のテーブルのレコードを読み取る場合、〇を記載します。</t>
@@ -324,7 +324,7 @@
     <rPh sb="34" eb="36">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>基本的に機能は3つの階層に分けることを想定しています。
@@ -359,7 +359,7 @@
     <rPh sb="51" eb="52">
       <t>カマ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>注文テーブル</t>
@@ -423,7 +423,7 @@
   </si>
   <si>
     <t>：</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>小分類</t>
@@ -433,7 +433,7 @@
     <rPh sb="1" eb="3">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>該当行の機能において、該当列のテーブルのレコードを更新する場合、〇を記載します。
@@ -462,7 +462,7 @@
     <rPh sb="34" eb="36">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>該当行の機能において、該当列のテーブルのレコードを削除する場合、〇を記載します。
@@ -500,7 +500,7 @@
     <rPh sb="62" eb="63">
       <t>アツカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t xml:space="preserve">機能の大分類です。
@@ -518,7 +518,7 @@
     <rPh sb="25" eb="27">
       <t>セイゴウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>機能の中分類です。
@@ -529,7 +529,7 @@
     <rPh sb="3" eb="6">
       <t>チュウブンルイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>機能の小分類です。
@@ -543,50 +543,50 @@
     <rPh sb="4" eb="6">
       <t>ブンルイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>承認</t>
     <rPh sb="0" eb="2">
       <t>ショウニン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>確認</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>作成</t>
     <rPh sb="0" eb="2">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>ドキュメント名</t>
     <rPh sb="6" eb="7">
       <t>メイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>Ver.</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>1.0.0</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>葛木 剛</t>
@@ -596,7 +596,7 @@
     <rPh sb="3" eb="4">
       <t>タカシ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>初版作成</t>
@@ -606,15 +606,15 @@
     <rPh sb="2" eb="4">
       <t>サクセイ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>-</t>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>CRUD表</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>論理テーブル名です。
@@ -701,7 +701,7 @@
     <rPh sb="119" eb="121">
       <t>キサイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>シーケンス図： 構成要素</t>
@@ -714,92 +714,92 @@
     <rPh sb="3" eb="6">
       <t>ミチオ</t>
     </rPh>
+    <phoneticPr fontId="9"/>
+  </si>
+  <si>
+    <t>（ToDoリスト）</t>
     <phoneticPr fontId="8"/>
   </si>
   <si>
-    <t>（ToDoリスト）</t>
-    <phoneticPr fontId="7"/>
-  </si>
-  <si>
     <t>タスク</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>タスク登録</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>タスク照会</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>タスク更新</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>タスク削除</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>外山秀樹</t>
     <rPh sb="0" eb="4">
       <t>トヤマヒデキ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>ジャンル</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>プロジェクト</t>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>実施日</t>
     <rPh sb="0" eb="3">
       <t>ジッシビ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>登録</t>
     <rPh sb="0" eb="2">
       <t>トウロク</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>追加</t>
     <rPh sb="0" eb="2">
       <t>ツイカ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>編集</t>
     <rPh sb="0" eb="2">
       <t>ヘンシュウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>完了</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>削除</t>
     <rPh sb="0" eb="2">
       <t>サクジョ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>外山秀樹</t>
@@ -809,21 +809,66 @@
     <rPh sb="2" eb="4">
       <t>ヒデキ</t>
     </rPh>
-    <phoneticPr fontId="8"/>
+    <phoneticPr fontId="9"/>
   </si>
   <si>
     <t>詳細</t>
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
   </si>
   <si>
     <t>外山</t>
     <rPh sb="0" eb="2">
       <t>トヤマ</t>
     </rPh>
-    <phoneticPr fontId="7"/>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>体重管理</t>
+    <rPh sb="0" eb="4">
+      <t>タイジュウカンリ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>一覧</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>機能追加</t>
+  </si>
+  <si>
+    <t>DB追加(realsテーブル)</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>DB追加(idealsテーブル)</t>
+    <rPh sb="2" eb="4">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>理想体重</t>
+    <rPh sb="0" eb="4">
+      <t>リソウタイジュウ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
+  </si>
+  <si>
+    <t>測定値</t>
+    <rPh sb="0" eb="3">
+      <t>ソクテイチ</t>
+    </rPh>
+    <phoneticPr fontId="8"/>
   </si>
 </sst>
 </file>
@@ -834,11 +879,19 @@
     <numFmt numFmtId="176" formatCode="0.0.0"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="MS PGothic"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1586,319 +1639,319 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="2" applyFill="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="27" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="31" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="3" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="20" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="34" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="33" xfId="3" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="21" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="36" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="40" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="8" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="16" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="16" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="17" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="12" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="10" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="14" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1910,19 +1963,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1931,175 +1984,175 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="25" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="25" xfId="2" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="25" xfId="2" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="44" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="17" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="11" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="41" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="42" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="16" fillId="0" borderId="43" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="3" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2120,26 +2173,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2784,7 +2840,7 @@
       <c r="D34" s="42"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="80" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -2801,7 +2857,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="60" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9:I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="27" customHeight="1"/>
@@ -2855,7 +2911,7 @@
       </c>
       <c r="G2" s="77" t="str">
         <f ca="1">IF(ISERROR(MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"",TEXT(INDEX(B:B,MAX(MATCH(MAX(B:B)+1,B:B,1),MATCH("",B:B,-1))),"YYYY/MM/DD"))</f>
-        <v>2022/01/04</v>
+        <v>2022/01/25</v>
       </c>
       <c r="H2" s="76" t="s">
         <v>2</v>
@@ -2892,14 +2948,14 @@
       <c r="E4" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="133" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="125"/>
-      <c r="H4" s="125" t="s">
+      <c r="G4" s="133"/>
+      <c r="H4" s="133" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="126"/>
+      <c r="I4" s="134"/>
     </row>
     <row r="5" spans="1:9" ht="27" customHeight="1">
       <c r="A5" s="88" t="s">
@@ -2917,58 +2973,76 @@
       <c r="E5" s="91" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="G5" s="127"/>
-      <c r="H5" s="127" t="s">
+      <c r="G5" s="135"/>
+      <c r="H5" s="135" t="s">
         <v>70</v>
       </c>
-      <c r="I5" s="128"/>
+      <c r="I5" s="136"/>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1">
       <c r="A6" s="88"/>
-      <c r="B6" s="89"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="90"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="130"/>
+      <c r="B6" s="89">
+        <v>44586</v>
+      </c>
+      <c r="C6" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="90" t="s">
+        <v>96</v>
+      </c>
+      <c r="E6" s="196" t="s">
+        <v>97</v>
+      </c>
+      <c r="F6" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" s="135"/>
+      <c r="H6" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I6" s="135"/>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1">
-      <c r="A7" s="131"/>
+      <c r="A7" s="130"/>
       <c r="B7" s="94"/>
       <c r="C7" s="92"/>
       <c r="D7" s="90"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="130"/>
+      <c r="E7" s="196" t="s">
+        <v>98</v>
+      </c>
+      <c r="F7" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="G7" s="135"/>
+      <c r="H7" s="135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I7" s="135"/>
     </row>
     <row r="8" spans="1:9" ht="27" customHeight="1">
-      <c r="A8" s="132"/>
+      <c r="A8" s="131"/>
       <c r="B8" s="94"/>
       <c r="C8" s="92"/>
       <c r="D8" s="90"/>
       <c r="E8" s="93"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="130"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="128"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="129"/>
     </row>
     <row r="9" spans="1:9" ht="27" customHeight="1">
-      <c r="A9" s="133"/>
+      <c r="A9" s="132"/>
       <c r="B9" s="94"/>
       <c r="C9" s="92"/>
       <c r="D9" s="90"/>
       <c r="E9" s="93"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="130"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="129"/>
     </row>
     <row r="10" spans="1:9" ht="27" customHeight="1">
       <c r="A10" s="95"/>
@@ -2976,10 +3050,10 @@
       <c r="C10" s="91"/>
       <c r="D10" s="91"/>
       <c r="E10" s="93"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="130"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="129"/>
     </row>
     <row r="11" spans="1:9" ht="27" customHeight="1">
       <c r="A11" s="95"/>
@@ -2987,10 +3061,10 @@
       <c r="C11" s="98"/>
       <c r="D11" s="91"/>
       <c r="E11" s="99"/>
-      <c r="F11" s="134"/>
-      <c r="G11" s="135"/>
-      <c r="H11" s="134"/>
-      <c r="I11" s="136"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="127"/>
     </row>
     <row r="12" spans="1:9" ht="27" customHeight="1">
       <c r="A12" s="95"/>
@@ -2998,10 +3072,10 @@
       <c r="C12" s="98"/>
       <c r="D12" s="91"/>
       <c r="E12" s="99"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="135"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="136"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="127"/>
     </row>
     <row r="13" spans="1:9" ht="27" customHeight="1">
       <c r="A13" s="95"/>
@@ -3009,10 +3083,10 @@
       <c r="C13" s="98"/>
       <c r="D13" s="91"/>
       <c r="E13" s="99"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="135"/>
-      <c r="H13" s="134"/>
-      <c r="I13" s="136"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="127"/>
     </row>
     <row r="14" spans="1:9" ht="27" customHeight="1">
       <c r="A14" s="95"/>
@@ -3020,10 +3094,10 @@
       <c r="C14" s="98"/>
       <c r="D14" s="91"/>
       <c r="E14" s="99"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="135"/>
-      <c r="H14" s="134"/>
-      <c r="I14" s="136"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="127"/>
     </row>
     <row r="15" spans="1:9" ht="27" customHeight="1">
       <c r="A15" s="95"/>
@@ -3031,10 +3105,10 @@
       <c r="C15" s="98"/>
       <c r="D15" s="91"/>
       <c r="E15" s="99"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="135"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="136"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="127"/>
     </row>
     <row r="16" spans="1:9" ht="27" customHeight="1">
       <c r="A16" s="95"/>
@@ -3042,10 +3116,10 @@
       <c r="C16" s="98"/>
       <c r="D16" s="91"/>
       <c r="E16" s="99"/>
-      <c r="F16" s="134"/>
-      <c r="G16" s="135"/>
-      <c r="H16" s="134"/>
-      <c r="I16" s="136"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="127"/>
     </row>
     <row r="17" spans="1:9" ht="27" customHeight="1">
       <c r="A17" s="95"/>
@@ -3104,6 +3178,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="H16:I16"/>
     <mergeCell ref="F13:G13"/>
@@ -3112,27 +3205,8 @@
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="H15:I15"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D21" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"機能追加,誤字脱字,仕様バグ,レビュー指摘"</formula1>
@@ -3166,338 +3240,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="110" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="173" t="str">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="140" t="str">
         <f>表紙!J9</f>
         <v>（ToDoリスト）</v>
       </c>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="171"/>
-      <c r="AM1" s="171"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="171"/>
-      <c r="AR1" s="171"/>
-      <c r="AS1" s="171"/>
-      <c r="AT1" s="171"/>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="171"/>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="171"/>
-      <c r="BB1" s="171"/>
-      <c r="BC1" s="171"/>
-      <c r="BD1" s="171"/>
-      <c r="BE1" s="171"/>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="174" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="171"/>
-      <c r="BI1" s="171"/>
-      <c r="BJ1" s="175">
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="142">
         <v>44568</v>
       </c>
-      <c r="BK1" s="171"/>
-      <c r="BL1" s="171"/>
-      <c r="BM1" s="171"/>
-      <c r="BN1" s="171"/>
-      <c r="BO1" s="171"/>
-      <c r="BP1" s="174" t="s">
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="171"/>
-      <c r="BR1" s="171"/>
-      <c r="BS1" s="170" t="s">
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="137" t="s">
         <v>82</v>
       </c>
-      <c r="BT1" s="171"/>
-      <c r="BU1" s="171"/>
-      <c r="BV1" s="171"/>
-      <c r="BW1" s="171"/>
-      <c r="BX1" s="171"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
     </row>
     <row r="2" spans="1:76" s="117" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="173" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="140" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： テンプレート</v>
       </c>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="171"/>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="171"/>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="171"/>
-      <c r="AR2" s="171"/>
-      <c r="AS2" s="171"/>
-      <c r="AT2" s="171"/>
-      <c r="AU2" s="171"/>
-      <c r="AV2" s="171"/>
-      <c r="AW2" s="171"/>
-      <c r="AX2" s="171"/>
-      <c r="AY2" s="171"/>
-      <c r="AZ2" s="171"/>
-      <c r="BA2" s="171"/>
-      <c r="BB2" s="171"/>
-      <c r="BC2" s="171"/>
-      <c r="BD2" s="171"/>
-      <c r="BE2" s="171"/>
-      <c r="BF2" s="171"/>
-      <c r="BG2" s="174" t="s">
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="171"/>
-      <c r="BI2" s="171"/>
-      <c r="BJ2" s="175"/>
-      <c r="BK2" s="171"/>
-      <c r="BL2" s="171"/>
-      <c r="BM2" s="171"/>
-      <c r="BN2" s="171"/>
-      <c r="BO2" s="171"/>
-      <c r="BP2" s="174" t="s">
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="138"/>
+      <c r="BP2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="171"/>
-      <c r="BR2" s="171"/>
-      <c r="BS2" s="170"/>
-      <c r="BT2" s="171"/>
-      <c r="BU2" s="171"/>
-      <c r="BV2" s="171"/>
-      <c r="BW2" s="171"/>
-      <c r="BX2" s="171"/>
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="137"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="138"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="137"/>
-      <c r="L3" s="137"/>
-      <c r="M3" s="137"/>
-      <c r="N3" s="137"/>
-      <c r="O3" s="137"/>
-      <c r="P3" s="137"/>
-      <c r="Q3" s="137"/>
-      <c r="R3" s="137"/>
-      <c r="S3" s="137"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="137"/>
-      <c r="AB3" s="137"/>
-      <c r="AC3" s="137"/>
-      <c r="AD3" s="137"/>
-      <c r="AE3" s="137"/>
-      <c r="AF3" s="137"/>
-      <c r="AG3" s="137"/>
-      <c r="AH3" s="137"/>
-      <c r="AI3" s="137"/>
-      <c r="AJ3" s="137"/>
-      <c r="AK3" s="137"/>
-      <c r="AL3" s="137"/>
-      <c r="AM3" s="137"/>
-      <c r="AN3" s="137"/>
-      <c r="AO3" s="137"/>
-      <c r="AP3" s="137"/>
-      <c r="AQ3" s="137"/>
-      <c r="AR3" s="137"/>
-      <c r="AS3" s="137"/>
-      <c r="AT3" s="137"/>
-      <c r="AU3" s="137"/>
-      <c r="AV3" s="137"/>
-      <c r="AW3" s="137"/>
-      <c r="AX3" s="137"/>
-      <c r="AY3" s="137"/>
-      <c r="AZ3" s="137"/>
-      <c r="BA3" s="137"/>
-      <c r="BB3" s="137"/>
-      <c r="BC3" s="137"/>
-      <c r="BD3" s="137"/>
-      <c r="BE3" s="137"/>
-      <c r="BF3" s="137"/>
-      <c r="BG3" s="137"/>
-      <c r="BH3" s="137"/>
-      <c r="BI3" s="137"/>
-      <c r="BJ3" s="137"/>
-      <c r="BK3" s="137"/>
-      <c r="BL3" s="137"/>
-      <c r="BM3" s="137"/>
-      <c r="BN3" s="137"/>
-      <c r="BO3" s="137"/>
-      <c r="BP3" s="137"/>
-      <c r="BQ3" s="137"/>
-      <c r="BR3" s="137"/>
-      <c r="BS3" s="137"/>
-      <c r="BT3" s="137"/>
-      <c r="BU3" s="137"/>
-      <c r="BV3" s="137"/>
-      <c r="BW3" s="137"/>
-      <c r="BX3" s="137"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
+      <c r="M3" s="170"/>
+      <c r="N3" s="170"/>
+      <c r="O3" s="170"/>
+      <c r="P3" s="170"/>
+      <c r="Q3" s="170"/>
+      <c r="R3" s="170"/>
+      <c r="S3" s="170"/>
+      <c r="T3" s="170"/>
+      <c r="U3" s="170"/>
+      <c r="V3" s="170"/>
+      <c r="W3" s="170"/>
+      <c r="X3" s="170"/>
+      <c r="Y3" s="170"/>
+      <c r="Z3" s="170"/>
+      <c r="AA3" s="170"/>
+      <c r="AB3" s="170"/>
+      <c r="AC3" s="170"/>
+      <c r="AD3" s="170"/>
+      <c r="AE3" s="170"/>
+      <c r="AF3" s="170"/>
+      <c r="AG3" s="170"/>
+      <c r="AH3" s="170"/>
+      <c r="AI3" s="170"/>
+      <c r="AJ3" s="170"/>
+      <c r="AK3" s="170"/>
+      <c r="AL3" s="170"/>
+      <c r="AM3" s="170"/>
+      <c r="AN3" s="170"/>
+      <c r="AO3" s="170"/>
+      <c r="AP3" s="170"/>
+      <c r="AQ3" s="170"/>
+      <c r="AR3" s="170"/>
+      <c r="AS3" s="170"/>
+      <c r="AT3" s="170"/>
+      <c r="AU3" s="170"/>
+      <c r="AV3" s="170"/>
+      <c r="AW3" s="170"/>
+      <c r="AX3" s="170"/>
+      <c r="AY3" s="170"/>
+      <c r="AZ3" s="170"/>
+      <c r="BA3" s="170"/>
+      <c r="BB3" s="170"/>
+      <c r="BC3" s="170"/>
+      <c r="BD3" s="170"/>
+      <c r="BE3" s="170"/>
+      <c r="BF3" s="170"/>
+      <c r="BG3" s="170"/>
+      <c r="BH3" s="170"/>
+      <c r="BI3" s="170"/>
+      <c r="BJ3" s="170"/>
+      <c r="BK3" s="170"/>
+      <c r="BL3" s="170"/>
+      <c r="BM3" s="170"/>
+      <c r="BN3" s="170"/>
+      <c r="BO3" s="170"/>
+      <c r="BP3" s="170"/>
+      <c r="BQ3" s="170"/>
+      <c r="BR3" s="170"/>
+      <c r="BS3" s="170"/>
+      <c r="BT3" s="170"/>
+      <c r="BU3" s="170"/>
+      <c r="BV3" s="170"/>
+      <c r="BW3" s="170"/>
+      <c r="BX3" s="170"/>
     </row>
     <row r="4" spans="1:76">
-      <c r="A4" s="138"/>
-      <c r="B4" s="139"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
-      <c r="M4" s="139"/>
-      <c r="N4" s="139"/>
-      <c r="O4" s="139"/>
-      <c r="P4" s="139"/>
-      <c r="Q4" s="139"/>
-      <c r="R4" s="139"/>
-      <c r="S4" s="139"/>
-      <c r="T4" s="139"/>
-      <c r="U4" s="139"/>
-      <c r="V4" s="139"/>
-      <c r="W4" s="139"/>
-      <c r="X4" s="139"/>
-      <c r="Y4" s="139"/>
-      <c r="Z4" s="139"/>
-      <c r="AA4" s="139"/>
-      <c r="AB4" s="139"/>
-      <c r="AC4" s="139"/>
-      <c r="AD4" s="139"/>
-      <c r="AE4" s="139"/>
-      <c r="AF4" s="139"/>
-      <c r="AG4" s="139"/>
-      <c r="AH4" s="139"/>
-      <c r="AI4" s="139"/>
-      <c r="AJ4" s="139"/>
-      <c r="AK4" s="139"/>
-      <c r="AL4" s="139"/>
-      <c r="AM4" s="139"/>
-      <c r="AN4" s="139"/>
-      <c r="AO4" s="139"/>
-      <c r="AP4" s="139"/>
-      <c r="AQ4" s="139"/>
-      <c r="AR4" s="139"/>
-      <c r="AS4" s="139"/>
-      <c r="AT4" s="139"/>
-      <c r="AU4" s="139"/>
-      <c r="AV4" s="139"/>
-      <c r="AW4" s="139"/>
-      <c r="AX4" s="139"/>
-      <c r="AY4" s="139"/>
-      <c r="AZ4" s="139"/>
-      <c r="BA4" s="139"/>
-      <c r="BB4" s="139"/>
-      <c r="BC4" s="139"/>
-      <c r="BD4" s="139"/>
-      <c r="BE4" s="139"/>
-      <c r="BF4" s="139"/>
-      <c r="BG4" s="139"/>
-      <c r="BH4" s="139"/>
-      <c r="BI4" s="139"/>
-      <c r="BJ4" s="139"/>
-      <c r="BK4" s="139"/>
-      <c r="BL4" s="139"/>
-      <c r="BM4" s="139"/>
-      <c r="BN4" s="139"/>
-      <c r="BO4" s="139"/>
-      <c r="BP4" s="139"/>
-      <c r="BQ4" s="139"/>
-      <c r="BR4" s="139"/>
-      <c r="BS4" s="139"/>
-      <c r="BT4" s="139"/>
-      <c r="BU4" s="139"/>
-      <c r="BV4" s="139"/>
-      <c r="BW4" s="139"/>
-      <c r="BX4" s="140"/>
+      <c r="A4" s="171"/>
+      <c r="B4" s="172"/>
+      <c r="C4" s="172"/>
+      <c r="D4" s="172"/>
+      <c r="E4" s="172"/>
+      <c r="F4" s="172"/>
+      <c r="G4" s="172"/>
+      <c r="H4" s="172"/>
+      <c r="I4" s="172"/>
+      <c r="J4" s="172"/>
+      <c r="K4" s="172"/>
+      <c r="L4" s="172"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="172"/>
+      <c r="O4" s="172"/>
+      <c r="P4" s="172"/>
+      <c r="Q4" s="172"/>
+      <c r="R4" s="172"/>
+      <c r="S4" s="172"/>
+      <c r="T4" s="172"/>
+      <c r="U4" s="172"/>
+      <c r="V4" s="172"/>
+      <c r="W4" s="172"/>
+      <c r="X4" s="172"/>
+      <c r="Y4" s="172"/>
+      <c r="Z4" s="172"/>
+      <c r="AA4" s="172"/>
+      <c r="AB4" s="172"/>
+      <c r="AC4" s="172"/>
+      <c r="AD4" s="172"/>
+      <c r="AE4" s="172"/>
+      <c r="AF4" s="172"/>
+      <c r="AG4" s="172"/>
+      <c r="AH4" s="172"/>
+      <c r="AI4" s="172"/>
+      <c r="AJ4" s="172"/>
+      <c r="AK4" s="172"/>
+      <c r="AL4" s="172"/>
+      <c r="AM4" s="172"/>
+      <c r="AN4" s="172"/>
+      <c r="AO4" s="172"/>
+      <c r="AP4" s="172"/>
+      <c r="AQ4" s="172"/>
+      <c r="AR4" s="172"/>
+      <c r="AS4" s="172"/>
+      <c r="AT4" s="172"/>
+      <c r="AU4" s="172"/>
+      <c r="AV4" s="172"/>
+      <c r="AW4" s="172"/>
+      <c r="AX4" s="172"/>
+      <c r="AY4" s="172"/>
+      <c r="AZ4" s="172"/>
+      <c r="BA4" s="172"/>
+      <c r="BB4" s="172"/>
+      <c r="BC4" s="172"/>
+      <c r="BD4" s="172"/>
+      <c r="BE4" s="172"/>
+      <c r="BF4" s="172"/>
+      <c r="BG4" s="172"/>
+      <c r="BH4" s="172"/>
+      <c r="BI4" s="172"/>
+      <c r="BJ4" s="172"/>
+      <c r="BK4" s="172"/>
+      <c r="BL4" s="172"/>
+      <c r="BM4" s="172"/>
+      <c r="BN4" s="172"/>
+      <c r="BO4" s="172"/>
+      <c r="BP4" s="172"/>
+      <c r="BQ4" s="172"/>
+      <c r="BR4" s="172"/>
+      <c r="BS4" s="172"/>
+      <c r="BT4" s="172"/>
+      <c r="BU4" s="172"/>
+      <c r="BV4" s="172"/>
+      <c r="BW4" s="172"/>
+      <c r="BX4" s="173"/>
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
@@ -3579,105 +3653,105 @@
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="142"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
-      <c r="K6" s="145" t="s">
+      <c r="C6" s="175"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="168"/>
+      <c r="F6" s="168"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
+      <c r="K6" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="145" t="s">
+      <c r="L6" s="165"/>
+      <c r="M6" s="165"/>
+      <c r="N6" s="165"/>
+      <c r="O6" s="164" t="s">
         <v>83</v>
       </c>
-      <c r="P6" s="146"/>
-      <c r="Q6" s="146"/>
-      <c r="R6" s="146"/>
-      <c r="S6" s="145" t="s">
+      <c r="P6" s="165"/>
+      <c r="Q6" s="165"/>
+      <c r="R6" s="165"/>
+      <c r="S6" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="T6" s="146"/>
-      <c r="U6" s="146"/>
-      <c r="V6" s="146"/>
-      <c r="W6" s="145"/>
-      <c r="X6" s="146"/>
-      <c r="Y6" s="146"/>
-      <c r="Z6" s="146"/>
-      <c r="AA6" s="145"/>
-      <c r="AB6" s="146"/>
-      <c r="AC6" s="146"/>
-      <c r="AD6" s="146"/>
-      <c r="AE6" s="145"/>
-      <c r="AF6" s="146"/>
-      <c r="AG6" s="146"/>
-      <c r="AH6" s="146"/>
-      <c r="AI6" s="145"/>
-      <c r="AJ6" s="146"/>
-      <c r="AK6" s="146"/>
-      <c r="AL6" s="146"/>
-      <c r="AM6" s="145"/>
-      <c r="AN6" s="146"/>
-      <c r="AO6" s="146"/>
-      <c r="AP6" s="146"/>
-      <c r="AQ6" s="145"/>
-      <c r="AR6" s="146"/>
-      <c r="AS6" s="146"/>
-      <c r="AT6" s="146"/>
-      <c r="AU6" s="145"/>
-      <c r="AV6" s="146"/>
-      <c r="AW6" s="146"/>
-      <c r="AX6" s="146"/>
-      <c r="AY6" s="145"/>
-      <c r="AZ6" s="146"/>
-      <c r="BA6" s="146"/>
-      <c r="BB6" s="146"/>
-      <c r="BC6" s="145"/>
-      <c r="BD6" s="146"/>
-      <c r="BE6" s="146"/>
-      <c r="BF6" s="146"/>
-      <c r="BG6" s="145"/>
-      <c r="BH6" s="146"/>
-      <c r="BI6" s="146"/>
-      <c r="BJ6" s="146"/>
-      <c r="BK6" s="145"/>
-      <c r="BL6" s="146"/>
-      <c r="BM6" s="146"/>
-      <c r="BN6" s="146"/>
-      <c r="BO6" s="145"/>
-      <c r="BP6" s="146"/>
-      <c r="BQ6" s="146"/>
-      <c r="BR6" s="146"/>
-      <c r="BS6" s="145"/>
-      <c r="BT6" s="146"/>
-      <c r="BU6" s="146"/>
-      <c r="BV6" s="146"/>
+      <c r="T6" s="165"/>
+      <c r="U6" s="165"/>
+      <c r="V6" s="165"/>
+      <c r="W6" s="164"/>
+      <c r="X6" s="165"/>
+      <c r="Y6" s="165"/>
+      <c r="Z6" s="165"/>
+      <c r="AA6" s="164"/>
+      <c r="AB6" s="165"/>
+      <c r="AC6" s="165"/>
+      <c r="AD6" s="165"/>
+      <c r="AE6" s="164"/>
+      <c r="AF6" s="165"/>
+      <c r="AG6" s="165"/>
+      <c r="AH6" s="165"/>
+      <c r="AI6" s="164"/>
+      <c r="AJ6" s="165"/>
+      <c r="AK6" s="165"/>
+      <c r="AL6" s="165"/>
+      <c r="AM6" s="164"/>
+      <c r="AN6" s="165"/>
+      <c r="AO6" s="165"/>
+      <c r="AP6" s="165"/>
+      <c r="AQ6" s="164"/>
+      <c r="AR6" s="165"/>
+      <c r="AS6" s="165"/>
+      <c r="AT6" s="165"/>
+      <c r="AU6" s="164"/>
+      <c r="AV6" s="165"/>
+      <c r="AW6" s="165"/>
+      <c r="AX6" s="165"/>
+      <c r="AY6" s="164"/>
+      <c r="AZ6" s="165"/>
+      <c r="BA6" s="165"/>
+      <c r="BB6" s="165"/>
+      <c r="BC6" s="164"/>
+      <c r="BD6" s="165"/>
+      <c r="BE6" s="165"/>
+      <c r="BF6" s="165"/>
+      <c r="BG6" s="164"/>
+      <c r="BH6" s="165"/>
+      <c r="BI6" s="165"/>
+      <c r="BJ6" s="165"/>
+      <c r="BK6" s="164"/>
+      <c r="BL6" s="165"/>
+      <c r="BM6" s="165"/>
+      <c r="BN6" s="165"/>
+      <c r="BO6" s="164"/>
+      <c r="BP6" s="165"/>
+      <c r="BQ6" s="165"/>
+      <c r="BR6" s="165"/>
+      <c r="BS6" s="164"/>
+      <c r="BT6" s="165"/>
+      <c r="BU6" s="165"/>
+      <c r="BV6" s="165"/>
       <c r="BW6" s="3"/>
       <c r="BX6" s="4"/>
     </row>
     <row r="7" spans="1:76">
       <c r="A7" s="2"/>
-      <c r="B7" s="147" t="s">
+      <c r="B7" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="148"/>
-      <c r="D7" s="143"/>
-      <c r="E7" s="144"/>
-      <c r="F7" s="147" t="s">
+      <c r="C7" s="167"/>
+      <c r="D7" s="168"/>
+      <c r="E7" s="169"/>
+      <c r="F7" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="143"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="144"/>
+      <c r="G7" s="168"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
       <c r="K7" s="20" t="s">
         <v>37</v>
       </c>
@@ -3875,17 +3949,17 @@
     </row>
     <row r="8" spans="1:76">
       <c r="A8" s="2"/>
-      <c r="B8" s="149"/>
-      <c r="C8" s="150"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="160" t="s">
+      <c r="B8" s="143"/>
+      <c r="C8" s="144"/>
+      <c r="D8" s="144"/>
+      <c r="E8" s="145"/>
+      <c r="F8" s="154" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
       <c r="K8" s="11" t="s">
         <v>81</v>
       </c>
@@ -3957,17 +4031,17 @@
     </row>
     <row r="9" spans="1:76">
       <c r="A9" s="2"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="160" t="s">
+      <c r="B9" s="146"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="154" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
         <v>81</v>
@@ -4039,17 +4113,17 @@
     </row>
     <row r="10" spans="1:76">
       <c r="A10" s="2"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="160" t="s">
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="154" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11" t="s">
@@ -4121,17 +4195,17 @@
     </row>
     <row r="11" spans="1:76">
       <c r="A11" s="2"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="160" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="154" t="s">
         <v>80</v>
       </c>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -4203,15 +4277,15 @@
     </row>
     <row r="12" spans="1:76">
       <c r="A12" s="2"/>
-      <c r="B12" s="152"/>
-      <c r="C12" s="153"/>
-      <c r="D12" s="153"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="160"/>
-      <c r="G12" s="160"/>
-      <c r="H12" s="160"/>
-      <c r="I12" s="160"/>
-      <c r="J12" s="160"/>
+      <c r="B12" s="146"/>
+      <c r="C12" s="147"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="154"/>
+      <c r="J12" s="154"/>
       <c r="K12" s="11"/>
       <c r="L12" s="11"/>
       <c r="M12" s="11"/>
@@ -4281,15 +4355,15 @@
     </row>
     <row r="13" spans="1:76">
       <c r="A13" s="2"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="162"/>
-      <c r="H13" s="162"/>
-      <c r="I13" s="162"/>
-      <c r="J13" s="163"/>
+      <c r="B13" s="149"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="155"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="157"/>
       <c r="K13" s="24"/>
       <c r="L13" s="14"/>
       <c r="M13" s="14"/>
@@ -4359,15 +4433,15 @@
     </row>
     <row r="14" spans="1:76">
       <c r="A14" s="2"/>
-      <c r="B14" s="155"/>
-      <c r="C14" s="156"/>
-      <c r="D14" s="156"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="164"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="166"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="148"/>
+      <c r="F14" s="158"/>
+      <c r="G14" s="159"/>
+      <c r="H14" s="159"/>
+      <c r="I14" s="159"/>
+      <c r="J14" s="160"/>
       <c r="K14" s="25"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -4437,15 +4511,15 @@
     </row>
     <row r="15" spans="1:76">
       <c r="A15" s="2"/>
-      <c r="B15" s="157"/>
-      <c r="C15" s="158"/>
-      <c r="D15" s="158"/>
-      <c r="E15" s="159"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="168"/>
-      <c r="I15" s="168"/>
-      <c r="J15" s="169"/>
+      <c r="B15" s="151"/>
+      <c r="C15" s="152"/>
+      <c r="D15" s="152"/>
+      <c r="E15" s="153"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="162"/>
+      <c r="I15" s="162"/>
+      <c r="J15" s="163"/>
       <c r="K15" s="17"/>
       <c r="L15" s="18"/>
       <c r="M15" s="18"/>
@@ -4515,15 +4589,15 @@
     </row>
     <row r="16" spans="1:76">
       <c r="A16" s="2"/>
-      <c r="B16" s="149"/>
-      <c r="C16" s="150"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="160"/>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
+      <c r="B16" s="143"/>
+      <c r="C16" s="144"/>
+      <c r="D16" s="144"/>
+      <c r="E16" s="145"/>
+      <c r="F16" s="154"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
       <c r="K16" s="12"/>
       <c r="L16" s="11"/>
       <c r="M16" s="11"/>
@@ -4593,15 +4667,15 @@
     </row>
     <row r="17" spans="1:76">
       <c r="A17" s="2"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="160"/>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="154"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12"/>
       <c r="M17" s="11"/>
@@ -4671,15 +4745,15 @@
     </row>
     <row r="18" spans="1:76">
       <c r="A18" s="2"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="160"/>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="154"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
       <c r="K18" s="11"/>
       <c r="L18" s="12"/>
       <c r="M18" s="11"/>
@@ -4749,15 +4823,15 @@
     </row>
     <row r="19" spans="1:76">
       <c r="A19" s="2"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="160"/>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="154"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
@@ -4827,15 +4901,15 @@
     </row>
     <row r="20" spans="1:76">
       <c r="A20" s="2"/>
-      <c r="B20" s="152"/>
-      <c r="C20" s="153"/>
-      <c r="D20" s="153"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="160"/>
-      <c r="G20" s="160"/>
-      <c r="H20" s="160"/>
-      <c r="I20" s="160"/>
-      <c r="J20" s="160"/>
+      <c r="B20" s="146"/>
+      <c r="C20" s="147"/>
+      <c r="D20" s="147"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="154"/>
+      <c r="G20" s="154"/>
+      <c r="H20" s="154"/>
+      <c r="I20" s="154"/>
+      <c r="J20" s="154"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
       <c r="M20" s="12"/>
@@ -4905,15 +4979,15 @@
     </row>
     <row r="21" spans="1:76">
       <c r="A21" s="2"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="162"/>
-      <c r="I21" s="162"/>
-      <c r="J21" s="163"/>
+      <c r="B21" s="149"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="155"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="156"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="157"/>
       <c r="K21" s="24"/>
       <c r="L21" s="14"/>
       <c r="M21" s="14"/>
@@ -4983,15 +5057,15 @@
     </row>
     <row r="22" spans="1:76">
       <c r="A22" s="2"/>
-      <c r="B22" s="155"/>
-      <c r="C22" s="156"/>
-      <c r="D22" s="156"/>
-      <c r="E22" s="154"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="165"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="165"/>
-      <c r="J22" s="166"/>
+      <c r="B22" s="149"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="148"/>
+      <c r="F22" s="158"/>
+      <c r="G22" s="159"/>
+      <c r="H22" s="159"/>
+      <c r="I22" s="159"/>
+      <c r="J22" s="160"/>
       <c r="K22" s="25"/>
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
@@ -5061,15 +5135,15 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="157"/>
-      <c r="C23" s="158"/>
-      <c r="D23" s="158"/>
-      <c r="E23" s="159"/>
-      <c r="F23" s="167"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="169"/>
+      <c r="B23" s="151"/>
+      <c r="C23" s="152"/>
+      <c r="D23" s="152"/>
+      <c r="E23" s="153"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="162"/>
+      <c r="H23" s="162"/>
+      <c r="I23" s="162"/>
+      <c r="J23" s="163"/>
       <c r="K23" s="17"/>
       <c r="L23" s="18"/>
       <c r="M23" s="18"/>
@@ -5139,15 +5213,15 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="149"/>
-      <c r="C24" s="150"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="B24" s="143"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="145"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
       <c r="K24" s="12"/>
       <c r="L24" s="11"/>
       <c r="M24" s="11"/>
@@ -5217,15 +5291,15 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
@@ -5295,15 +5369,15 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
       <c r="K26" s="11"/>
       <c r="L26" s="12"/>
       <c r="M26" s="11"/>
@@ -5373,15 +5447,15 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
@@ -5451,15 +5525,15 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="152"/>
-      <c r="C28" s="153"/>
-      <c r="D28" s="153"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="160"/>
-      <c r="G28" s="160"/>
-      <c r="H28" s="160"/>
-      <c r="I28" s="160"/>
-      <c r="J28" s="160"/>
+      <c r="B28" s="146"/>
+      <c r="C28" s="147"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="154"/>
+      <c r="G28" s="154"/>
+      <c r="H28" s="154"/>
+      <c r="I28" s="154"/>
+      <c r="J28" s="154"/>
       <c r="K28" s="11"/>
       <c r="L28" s="11"/>
       <c r="M28" s="12"/>
@@ -5529,17 +5603,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="161" t="s">
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="162"/>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="163"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="156"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="157"/>
       <c r="K29" s="24"/>
       <c r="L29" s="14"/>
       <c r="M29" s="14"/>
@@ -5609,17 +5683,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="155"/>
-      <c r="C30" s="156"/>
-      <c r="D30" s="156"/>
-      <c r="E30" s="154"/>
-      <c r="F30" s="164" t="s">
+      <c r="B30" s="149"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="148"/>
+      <c r="F30" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="165"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="165"/>
-      <c r="J30" s="166"/>
+      <c r="G30" s="159"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="159"/>
+      <c r="J30" s="160"/>
       <c r="K30" s="25"/>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -5689,17 +5763,17 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="157"/>
-      <c r="C31" s="158"/>
-      <c r="D31" s="158"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="167" t="s">
+      <c r="B31" s="151"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="153"/>
+      <c r="F31" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="169"/>
+      <c r="G31" s="162"/>
+      <c r="H31" s="162"/>
+      <c r="I31" s="162"/>
+      <c r="J31" s="163"/>
       <c r="K31" s="17"/>
       <c r="L31" s="18"/>
       <c r="M31" s="18"/>
@@ -5769,15 +5843,15 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="149"/>
-      <c r="C32" s="150"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="145"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
       <c r="K32" s="12"/>
       <c r="L32" s="11"/>
       <c r="M32" s="11"/>
@@ -5847,15 +5921,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -5925,15 +5999,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
       <c r="K34" s="11"/>
       <c r="L34" s="12"/>
       <c r="M34" s="11"/>
@@ -6003,15 +6077,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -6081,15 +6155,15 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="152"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="153"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="160"/>
-      <c r="G36" s="160"/>
-      <c r="H36" s="160"/>
-      <c r="I36" s="160"/>
-      <c r="J36" s="160"/>
+      <c r="B36" s="146"/>
+      <c r="C36" s="147"/>
+      <c r="D36" s="147"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
+      <c r="J36" s="154"/>
       <c r="K36" s="11"/>
       <c r="L36" s="11"/>
       <c r="M36" s="12"/>
@@ -6159,17 +6233,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="161" t="s">
+      <c r="B37" s="149"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="162"/>
-      <c r="H37" s="162"/>
-      <c r="I37" s="162"/>
-      <c r="J37" s="163"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+      <c r="J37" s="157"/>
       <c r="K37" s="24"/>
       <c r="L37" s="14"/>
       <c r="M37" s="14"/>
@@ -6239,17 +6313,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="155"/>
-      <c r="C38" s="156"/>
-      <c r="D38" s="156"/>
-      <c r="E38" s="154"/>
-      <c r="F38" s="164" t="s">
+      <c r="B38" s="149"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
+      <c r="E38" s="148"/>
+      <c r="F38" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="165"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="165"/>
-      <c r="J38" s="166"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="160"/>
       <c r="K38" s="25"/>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
@@ -6319,17 +6393,17 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="157"/>
-      <c r="C39" s="158"/>
-      <c r="D39" s="158"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="167" t="s">
+      <c r="B39" s="151"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="153"/>
+      <c r="F39" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G39" s="168"/>
-      <c r="H39" s="168"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="169"/>
+      <c r="G39" s="162"/>
+      <c r="H39" s="162"/>
+      <c r="I39" s="162"/>
+      <c r="J39" s="163"/>
       <c r="K39" s="17"/>
       <c r="L39" s="18"/>
       <c r="M39" s="18"/>
@@ -6399,15 +6473,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="149"/>
-      <c r="C40" s="150"/>
-      <c r="D40" s="150"/>
-      <c r="E40" s="151"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="B40" s="143"/>
+      <c r="C40" s="144"/>
+      <c r="D40" s="144"/>
+      <c r="E40" s="145"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
       <c r="K40" s="12"/>
       <c r="L40" s="11"/>
       <c r="M40" s="11"/>
@@ -6477,15 +6551,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -6555,15 +6629,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="11"/>
       <c r="L42" s="12"/>
       <c r="M42" s="11"/>
@@ -6633,15 +6707,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="160"/>
-      <c r="J43" s="160"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -6711,15 +6785,15 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="152"/>
-      <c r="C44" s="153"/>
-      <c r="D44" s="153"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="160"/>
-      <c r="G44" s="160"/>
-      <c r="H44" s="160"/>
-      <c r="I44" s="160"/>
-      <c r="J44" s="160"/>
+      <c r="B44" s="146"/>
+      <c r="C44" s="147"/>
+      <c r="D44" s="147"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="154"/>
+      <c r="G44" s="154"/>
+      <c r="H44" s="154"/>
+      <c r="I44" s="154"/>
+      <c r="J44" s="154"/>
       <c r="K44" s="11"/>
       <c r="L44" s="11"/>
       <c r="M44" s="12"/>
@@ -6789,17 +6863,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="155"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="161" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="162"/>
-      <c r="H45" s="162"/>
-      <c r="I45" s="162"/>
-      <c r="J45" s="163"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="156"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="157"/>
       <c r="K45" s="24"/>
       <c r="L45" s="14"/>
       <c r="M45" s="14"/>
@@ -6869,17 +6943,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="155"/>
-      <c r="C46" s="156"/>
-      <c r="D46" s="156"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="164" t="s">
+      <c r="B46" s="149"/>
+      <c r="C46" s="150"/>
+      <c r="D46" s="150"/>
+      <c r="E46" s="148"/>
+      <c r="F46" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="165"/>
-      <c r="H46" s="165"/>
-      <c r="I46" s="165"/>
-      <c r="J46" s="166"/>
+      <c r="G46" s="159"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="159"/>
+      <c r="J46" s="160"/>
       <c r="K46" s="25"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
@@ -6949,17 +7023,17 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="157"/>
-      <c r="C47" s="158"/>
-      <c r="D47" s="158"/>
-      <c r="E47" s="159"/>
-      <c r="F47" s="167" t="s">
+      <c r="B47" s="151"/>
+      <c r="C47" s="152"/>
+      <c r="D47" s="152"/>
+      <c r="E47" s="153"/>
+      <c r="F47" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G47" s="168"/>
-      <c r="H47" s="168"/>
-      <c r="I47" s="168"/>
-      <c r="J47" s="169"/>
+      <c r="G47" s="162"/>
+      <c r="H47" s="162"/>
+      <c r="I47" s="162"/>
+      <c r="J47" s="163"/>
       <c r="K47" s="17"/>
       <c r="L47" s="18"/>
       <c r="M47" s="18"/>
@@ -7029,15 +7103,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="149"/>
-      <c r="C48" s="150"/>
-      <c r="D48" s="150"/>
-      <c r="E48" s="151"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="160"/>
-      <c r="J48" s="160"/>
+      <c r="B48" s="143"/>
+      <c r="C48" s="144"/>
+      <c r="D48" s="144"/>
+      <c r="E48" s="145"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
       <c r="K48" s="12"/>
       <c r="L48" s="11"/>
       <c r="M48" s="11"/>
@@ -7107,15 +7181,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="154"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="160"/>
-      <c r="J49" s="160"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -7185,15 +7259,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="154"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="160"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
       <c r="K50" s="11"/>
       <c r="L50" s="12"/>
       <c r="M50" s="11"/>
@@ -7263,15 +7337,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="160"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -7341,15 +7415,15 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="152"/>
-      <c r="C52" s="153"/>
-      <c r="D52" s="153"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="160"/>
-      <c r="G52" s="160"/>
-      <c r="H52" s="160"/>
-      <c r="I52" s="160"/>
-      <c r="J52" s="160"/>
+      <c r="B52" s="146"/>
+      <c r="C52" s="147"/>
+      <c r="D52" s="147"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="154"/>
+      <c r="G52" s="154"/>
+      <c r="H52" s="154"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
       <c r="K52" s="11"/>
       <c r="L52" s="11"/>
       <c r="M52" s="12"/>
@@ -7419,17 +7493,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="161" t="s">
+      <c r="B53" s="149"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="162"/>
-      <c r="H53" s="162"/>
-      <c r="I53" s="162"/>
-      <c r="J53" s="163"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="156"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="157"/>
       <c r="K53" s="24"/>
       <c r="L53" s="14"/>
       <c r="M53" s="14"/>
@@ -7499,17 +7573,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="155"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="156"/>
-      <c r="E54" s="154"/>
-      <c r="F54" s="164" t="s">
+      <c r="B54" s="149"/>
+      <c r="C54" s="150"/>
+      <c r="D54" s="150"/>
+      <c r="E54" s="148"/>
+      <c r="F54" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="165"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="165"/>
-      <c r="J54" s="166"/>
+      <c r="G54" s="159"/>
+      <c r="H54" s="159"/>
+      <c r="I54" s="159"/>
+      <c r="J54" s="160"/>
       <c r="K54" s="25"/>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
@@ -7579,17 +7653,17 @@
     </row>
     <row r="55" spans="1:76">
       <c r="A55" s="2"/>
-      <c r="B55" s="157"/>
-      <c r="C55" s="158"/>
-      <c r="D55" s="158"/>
-      <c r="E55" s="159"/>
-      <c r="F55" s="167" t="s">
+      <c r="B55" s="151"/>
+      <c r="C55" s="152"/>
+      <c r="D55" s="152"/>
+      <c r="E55" s="153"/>
+      <c r="F55" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G55" s="168"/>
-      <c r="H55" s="168"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="169"/>
+      <c r="G55" s="162"/>
+      <c r="H55" s="162"/>
+      <c r="I55" s="162"/>
+      <c r="J55" s="163"/>
       <c r="K55" s="17"/>
       <c r="L55" s="18"/>
       <c r="M55" s="18"/>
@@ -7893,77 +7967,6 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="BS1:BX1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:BF2"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BS2:BX2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="K1:BF1"/>
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="B48:E55"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
-    <mergeCell ref="F55:J55"/>
-    <mergeCell ref="B40:E47"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="B32:E39"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="B24:E31"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="B16:E23"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="BG6:BJ6"/>
-    <mergeCell ref="BK6:BN6"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="BC6:BF6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="B8:E15"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="F12:J12"/>
     <mergeCell ref="A3:BX3"/>
     <mergeCell ref="A4:BX4"/>
     <mergeCell ref="B6:J6"/>
@@ -7980,8 +7983,79 @@
     <mergeCell ref="AQ6:AT6"/>
     <mergeCell ref="AU6:AX6"/>
     <mergeCell ref="AY6:BB6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="B8:E15"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="BG6:BJ6"/>
+    <mergeCell ref="BK6:BN6"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="BC6:BF6"/>
+    <mergeCell ref="B16:E23"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="B24:E31"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="B32:E39"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="B40:E47"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="B48:E55"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="F55:J55"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:BF2"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="K1:BF1"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BP1:BR1"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8008,260 +8082,260 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="110" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="173" t="str">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="140" t="str">
         <f>表紙!J9</f>
         <v>（ToDoリスト）</v>
       </c>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="171"/>
-      <c r="AM1" s="171"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="171"/>
-      <c r="AR1" s="171"/>
-      <c r="AS1" s="171"/>
-      <c r="AT1" s="171"/>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="171"/>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="171"/>
-      <c r="BB1" s="171"/>
-      <c r="BC1" s="171"/>
-      <c r="BD1" s="171"/>
-      <c r="BE1" s="171"/>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="174" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="171"/>
-      <c r="BI1" s="171"/>
-      <c r="BJ1" s="175">
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="142">
         <v>43465</v>
       </c>
-      <c r="BK1" s="171"/>
-      <c r="BL1" s="171"/>
-      <c r="BM1" s="171"/>
-      <c r="BN1" s="171"/>
-      <c r="BO1" s="171"/>
-      <c r="BP1" s="174" t="s">
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="171"/>
-      <c r="BR1" s="171"/>
-      <c r="BS1" s="170" t="s">
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="BT1" s="171"/>
-      <c r="BU1" s="171"/>
-      <c r="BV1" s="171"/>
-      <c r="BW1" s="171"/>
-      <c r="BX1" s="171"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
     </row>
     <row r="2" spans="1:76" s="117" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="173" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="140" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： サンプル</v>
       </c>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="171"/>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="171"/>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="171"/>
-      <c r="AR2" s="171"/>
-      <c r="AS2" s="171"/>
-      <c r="AT2" s="171"/>
-      <c r="AU2" s="171"/>
-      <c r="AV2" s="171"/>
-      <c r="AW2" s="171"/>
-      <c r="AX2" s="171"/>
-      <c r="AY2" s="171"/>
-      <c r="AZ2" s="171"/>
-      <c r="BA2" s="171"/>
-      <c r="BB2" s="171"/>
-      <c r="BC2" s="171"/>
-      <c r="BD2" s="171"/>
-      <c r="BE2" s="171"/>
-      <c r="BF2" s="171"/>
-      <c r="BG2" s="174" t="s">
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="171"/>
-      <c r="BI2" s="171"/>
-      <c r="BJ2" s="175"/>
-      <c r="BK2" s="171"/>
-      <c r="BL2" s="171"/>
-      <c r="BM2" s="171"/>
-      <c r="BN2" s="171"/>
-      <c r="BO2" s="171"/>
-      <c r="BP2" s="174" t="s">
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="142"/>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="138"/>
+      <c r="BP2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="171"/>
-      <c r="BR2" s="171"/>
-      <c r="BS2" s="170"/>
-      <c r="BT2" s="171"/>
-      <c r="BU2" s="171"/>
-      <c r="BV2" s="171"/>
-      <c r="BW2" s="171"/>
-      <c r="BX2" s="171"/>
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="137"/>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="138"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="138"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139"/>
-      <c r="AO3" s="139"/>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="139"/>
-      <c r="AT3" s="139"/>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139"/>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="139"/>
-      <c r="BC3" s="139"/>
-      <c r="BD3" s="139"/>
-      <c r="BE3" s="139"/>
-      <c r="BF3" s="139"/>
-      <c r="BG3" s="139"/>
-      <c r="BH3" s="139"/>
-      <c r="BI3" s="139"/>
-      <c r="BJ3" s="139"/>
-      <c r="BK3" s="139"/>
-      <c r="BL3" s="139"/>
-      <c r="BM3" s="139"/>
-      <c r="BN3" s="139"/>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="139"/>
-      <c r="BQ3" s="139"/>
-      <c r="BR3" s="139"/>
-      <c r="BS3" s="139"/>
-      <c r="BT3" s="139"/>
-      <c r="BU3" s="139"/>
-      <c r="BV3" s="139"/>
-      <c r="BW3" s="139"/>
-      <c r="BX3" s="140"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
+      <c r="AK3" s="172"/>
+      <c r="AL3" s="172"/>
+      <c r="AM3" s="172"/>
+      <c r="AN3" s="172"/>
+      <c r="AO3" s="172"/>
+      <c r="AP3" s="172"/>
+      <c r="AQ3" s="172"/>
+      <c r="AR3" s="172"/>
+      <c r="AS3" s="172"/>
+      <c r="AT3" s="172"/>
+      <c r="AU3" s="172"/>
+      <c r="AV3" s="172"/>
+      <c r="AW3" s="172"/>
+      <c r="AX3" s="172"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="172"/>
+      <c r="BA3" s="172"/>
+      <c r="BB3" s="172"/>
+      <c r="BC3" s="172"/>
+      <c r="BD3" s="172"/>
+      <c r="BE3" s="172"/>
+      <c r="BF3" s="172"/>
+      <c r="BG3" s="172"/>
+      <c r="BH3" s="172"/>
+      <c r="BI3" s="172"/>
+      <c r="BJ3" s="172"/>
+      <c r="BK3" s="172"/>
+      <c r="BL3" s="172"/>
+      <c r="BM3" s="172"/>
+      <c r="BN3" s="172"/>
+      <c r="BO3" s="172"/>
+      <c r="BP3" s="172"/>
+      <c r="BQ3" s="172"/>
+      <c r="BR3" s="172"/>
+      <c r="BS3" s="172"/>
+      <c r="BT3" s="172"/>
+      <c r="BU3" s="172"/>
+      <c r="BV3" s="172"/>
+      <c r="BW3" s="172"/>
+      <c r="BX3" s="173"/>
     </row>
     <row r="4" spans="1:76">
       <c r="A4" s="2"/>
@@ -8343,105 +8417,105 @@
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="145" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
       <c r="O5" s="176" t="s">
         <v>35</v>
       </c>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
       <c r="R5" s="177"/>
-      <c r="S5" s="145" t="s">
+      <c r="S5" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="145"/>
-      <c r="AN5" s="146"/>
-      <c r="AO5" s="146"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="145"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="145"/>
-      <c r="AZ5" s="146"/>
-      <c r="BA5" s="146"/>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="145"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="145"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
-      <c r="BJ5" s="146"/>
-      <c r="BK5" s="145"/>
-      <c r="BL5" s="146"/>
-      <c r="BM5" s="146"/>
-      <c r="BN5" s="146"/>
-      <c r="BO5" s="145"/>
-      <c r="BP5" s="146"/>
-      <c r="BQ5" s="146"/>
-      <c r="BR5" s="146"/>
-      <c r="BS5" s="145"/>
-      <c r="BT5" s="146"/>
-      <c r="BU5" s="146"/>
-      <c r="BV5" s="146"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="164"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="164"/>
+      <c r="AR5" s="165"/>
+      <c r="AS5" s="165"/>
+      <c r="AT5" s="165"/>
+      <c r="AU5" s="164"/>
+      <c r="AV5" s="165"/>
+      <c r="AW5" s="165"/>
+      <c r="AX5" s="165"/>
+      <c r="AY5" s="164"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="165"/>
+      <c r="BB5" s="165"/>
+      <c r="BC5" s="164"/>
+      <c r="BD5" s="165"/>
+      <c r="BE5" s="165"/>
+      <c r="BF5" s="165"/>
+      <c r="BG5" s="164"/>
+      <c r="BH5" s="165"/>
+      <c r="BI5" s="165"/>
+      <c r="BJ5" s="165"/>
+      <c r="BK5" s="164"/>
+      <c r="BL5" s="165"/>
+      <c r="BM5" s="165"/>
+      <c r="BN5" s="165"/>
+      <c r="BO5" s="164"/>
+      <c r="BP5" s="165"/>
+      <c r="BQ5" s="165"/>
+      <c r="BR5" s="165"/>
+      <c r="BS5" s="164"/>
+      <c r="BT5" s="165"/>
+      <c r="BU5" s="165"/>
+      <c r="BV5" s="165"/>
       <c r="BW5" s="3"/>
       <c r="BX5" s="4"/>
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="147" t="s">
+      <c r="C6" s="167"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
       <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
@@ -8639,19 +8713,19 @@
     </row>
     <row r="7" spans="1:76">
       <c r="A7" s="2"/>
-      <c r="B7" s="149" t="s">
+      <c r="B7" s="143" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="150"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="160" t="s">
+      <c r="C7" s="144"/>
+      <c r="D7" s="144"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="154" t="s">
         <v>42</v>
       </c>
-      <c r="G7" s="160"/>
-      <c r="H7" s="160"/>
-      <c r="I7" s="160"/>
-      <c r="J7" s="160"/>
+      <c r="G7" s="154"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
       <c r="K7" s="11"/>
       <c r="L7" s="11"/>
       <c r="M7" s="11"/>
@@ -8723,17 +8797,17 @@
     </row>
     <row r="8" spans="1:76">
       <c r="A8" s="2"/>
-      <c r="B8" s="152"/>
-      <c r="C8" s="153"/>
-      <c r="D8" s="153"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="160" t="s">
+      <c r="B8" s="146"/>
+      <c r="C8" s="147"/>
+      <c r="D8" s="147"/>
+      <c r="E8" s="148"/>
+      <c r="F8" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="160"/>
-      <c r="H8" s="160"/>
-      <c r="I8" s="160"/>
-      <c r="J8" s="160"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
       <c r="K8" s="11"/>
       <c r="L8" s="11"/>
       <c r="M8" s="11"/>
@@ -8805,17 +8879,17 @@
     </row>
     <row r="9" spans="1:76">
       <c r="A9" s="2"/>
-      <c r="B9" s="152"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="153"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="160" t="s">
+      <c r="B9" s="146"/>
+      <c r="C9" s="147"/>
+      <c r="D9" s="147"/>
+      <c r="E9" s="148"/>
+      <c r="F9" s="154" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="154"/>
       <c r="K9" s="11"/>
       <c r="L9" s="11"/>
       <c r="M9" s="11"/>
@@ -8887,17 +8961,17 @@
     </row>
     <row r="10" spans="1:76">
       <c r="A10" s="2"/>
-      <c r="B10" s="152"/>
-      <c r="C10" s="153"/>
-      <c r="D10" s="153"/>
-      <c r="E10" s="154"/>
-      <c r="F10" s="160" t="s">
+      <c r="B10" s="146"/>
+      <c r="C10" s="147"/>
+      <c r="D10" s="147"/>
+      <c r="E10" s="148"/>
+      <c r="F10" s="154" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="160"/>
-      <c r="H10" s="160"/>
-      <c r="I10" s="160"/>
-      <c r="J10" s="160"/>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="154"/>
       <c r="K10" s="11"/>
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
@@ -8969,17 +9043,17 @@
     </row>
     <row r="11" spans="1:76">
       <c r="A11" s="2"/>
-      <c r="B11" s="152"/>
-      <c r="C11" s="153"/>
-      <c r="D11" s="153"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="160" t="s">
+      <c r="B11" s="146"/>
+      <c r="C11" s="147"/>
+      <c r="D11" s="147"/>
+      <c r="E11" s="148"/>
+      <c r="F11" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="160"/>
-      <c r="H11" s="160"/>
-      <c r="I11" s="160"/>
-      <c r="J11" s="160"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11"/>
@@ -9051,17 +9125,17 @@
     </row>
     <row r="12" spans="1:76">
       <c r="A12" s="2"/>
-      <c r="B12" s="155"/>
-      <c r="C12" s="156"/>
-      <c r="D12" s="156"/>
-      <c r="E12" s="154"/>
-      <c r="F12" s="161" t="s">
+      <c r="B12" s="149"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="148"/>
+      <c r="F12" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="157"/>
       <c r="K12" s="24"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -9131,17 +9205,17 @@
     </row>
     <row r="13" spans="1:76">
       <c r="A13" s="2"/>
-      <c r="B13" s="155"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="154"/>
-      <c r="F13" s="164" t="s">
+      <c r="B13" s="149"/>
+      <c r="C13" s="150"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="148"/>
+      <c r="F13" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
       <c r="K13" s="25"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -9211,17 +9285,17 @@
     </row>
     <row r="14" spans="1:76">
       <c r="A14" s="2"/>
-      <c r="B14" s="157"/>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="159"/>
-      <c r="F14" s="167" t="s">
+      <c r="B14" s="151"/>
+      <c r="C14" s="152"/>
+      <c r="D14" s="152"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -9291,19 +9365,19 @@
     </row>
     <row r="15" spans="1:76">
       <c r="A15" s="2"/>
-      <c r="B15" s="149" t="s">
+      <c r="B15" s="143" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="150"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="160" t="s">
+      <c r="C15" s="144"/>
+      <c r="D15" s="144"/>
+      <c r="E15" s="145"/>
+      <c r="F15" s="154" t="s">
         <v>49</v>
       </c>
-      <c r="G15" s="160"/>
-      <c r="H15" s="160"/>
-      <c r="I15" s="160"/>
-      <c r="J15" s="160"/>
+      <c r="G15" s="154"/>
+      <c r="H15" s="154"/>
+      <c r="I15" s="154"/>
+      <c r="J15" s="154"/>
       <c r="K15" s="12" t="s">
         <v>43</v>
       </c>
@@ -9379,17 +9453,17 @@
     </row>
     <row r="16" spans="1:76">
       <c r="A16" s="2"/>
-      <c r="B16" s="152"/>
-      <c r="C16" s="153"/>
-      <c r="D16" s="153"/>
-      <c r="E16" s="154"/>
-      <c r="F16" s="160" t="s">
+      <c r="B16" s="146"/>
+      <c r="C16" s="147"/>
+      <c r="D16" s="147"/>
+      <c r="E16" s="148"/>
+      <c r="F16" s="154" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="160"/>
-      <c r="H16" s="160"/>
-      <c r="I16" s="160"/>
-      <c r="J16" s="160"/>
+      <c r="G16" s="154"/>
+      <c r="H16" s="154"/>
+      <c r="I16" s="154"/>
+      <c r="J16" s="154"/>
       <c r="K16" s="11"/>
       <c r="L16" s="12" t="s">
         <v>43</v>
@@ -9465,17 +9539,17 @@
     </row>
     <row r="17" spans="1:76">
       <c r="A17" s="2"/>
-      <c r="B17" s="152"/>
-      <c r="C17" s="153"/>
-      <c r="D17" s="153"/>
-      <c r="E17" s="154"/>
-      <c r="F17" s="160" t="s">
+      <c r="B17" s="146"/>
+      <c r="C17" s="147"/>
+      <c r="D17" s="147"/>
+      <c r="E17" s="148"/>
+      <c r="F17" s="154" t="s">
         <v>51</v>
       </c>
-      <c r="G17" s="160"/>
-      <c r="H17" s="160"/>
-      <c r="I17" s="160"/>
-      <c r="J17" s="160"/>
+      <c r="G17" s="154"/>
+      <c r="H17" s="154"/>
+      <c r="I17" s="154"/>
+      <c r="J17" s="154"/>
       <c r="K17" s="11"/>
       <c r="L17" s="12" t="s">
         <v>43</v>
@@ -9551,17 +9625,17 @@
     </row>
     <row r="18" spans="1:76">
       <c r="A18" s="2"/>
-      <c r="B18" s="152"/>
-      <c r="C18" s="153"/>
-      <c r="D18" s="153"/>
-      <c r="E18" s="154"/>
-      <c r="F18" s="160" t="s">
+      <c r="B18" s="146"/>
+      <c r="C18" s="147"/>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="G18" s="160"/>
-      <c r="H18" s="160"/>
-      <c r="I18" s="160"/>
-      <c r="J18" s="160"/>
+      <c r="G18" s="154"/>
+      <c r="H18" s="154"/>
+      <c r="I18" s="154"/>
+      <c r="J18" s="154"/>
       <c r="K18" s="11"/>
       <c r="L18" s="11"/>
       <c r="M18" s="12" t="s">
@@ -9641,17 +9715,17 @@
     </row>
     <row r="19" spans="1:76">
       <c r="A19" s="2"/>
-      <c r="B19" s="152"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="153"/>
-      <c r="E19" s="154"/>
-      <c r="F19" s="160" t="s">
+      <c r="B19" s="146"/>
+      <c r="C19" s="147"/>
+      <c r="D19" s="147"/>
+      <c r="E19" s="148"/>
+      <c r="F19" s="154" t="s">
         <v>53</v>
       </c>
-      <c r="G19" s="160"/>
-      <c r="H19" s="160"/>
-      <c r="I19" s="160"/>
-      <c r="J19" s="160"/>
+      <c r="G19" s="154"/>
+      <c r="H19" s="154"/>
+      <c r="I19" s="154"/>
+      <c r="J19" s="154"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
       <c r="M19" s="12"/>
@@ -9725,17 +9799,17 @@
     </row>
     <row r="20" spans="1:76">
       <c r="A20" s="2"/>
-      <c r="B20" s="155"/>
-      <c r="C20" s="156"/>
-      <c r="D20" s="156"/>
-      <c r="E20" s="154"/>
-      <c r="F20" s="161" t="s">
+      <c r="B20" s="149"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="148"/>
+      <c r="F20" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="163"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="157"/>
       <c r="K20" s="24"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -9805,17 +9879,17 @@
     </row>
     <row r="21" spans="1:76">
       <c r="A21" s="2"/>
-      <c r="B21" s="155"/>
-      <c r="C21" s="156"/>
-      <c r="D21" s="156"/>
-      <c r="E21" s="154"/>
-      <c r="F21" s="164" t="s">
+      <c r="B21" s="149"/>
+      <c r="C21" s="150"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="148"/>
+      <c r="F21" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="160"/>
       <c r="K21" s="25"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -9885,17 +9959,17 @@
     </row>
     <row r="22" spans="1:76">
       <c r="A22" s="2"/>
-      <c r="B22" s="157"/>
-      <c r="C22" s="158"/>
-      <c r="D22" s="158"/>
-      <c r="E22" s="159"/>
-      <c r="F22" s="167" t="s">
+      <c r="B22" s="151"/>
+      <c r="C22" s="152"/>
+      <c r="D22" s="152"/>
+      <c r="E22" s="153"/>
+      <c r="F22" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="163"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -9965,15 +10039,15 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="B23" s="143"/>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="154"/>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -10043,15 +10117,15 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="154"/>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
       <c r="K24" s="11"/>
       <c r="L24" s="12"/>
       <c r="M24" s="11"/>
@@ -10121,15 +10195,15 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
@@ -10199,15 +10273,15 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
@@ -10277,15 +10351,15 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
@@ -10355,17 +10429,17 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="161" t="s">
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="163"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="157"/>
       <c r="K28" s="24"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -10435,17 +10509,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="164" t="s">
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
       <c r="K29" s="25"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -10515,17 +10589,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="167" t="s">
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -10595,15 +10669,15 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -10673,15 +10747,15 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12"/>
       <c r="M32" s="11"/>
@@ -10751,15 +10825,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -10829,15 +10903,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
@@ -10907,15 +10981,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -10985,17 +11059,17 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="161" t="s">
+      <c r="B36" s="149"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="163"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="157"/>
       <c r="K36" s="24"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
@@ -11065,17 +11139,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="164" t="s">
+      <c r="B37" s="149"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="166"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="160"/>
       <c r="K37" s="25"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -11145,17 +11219,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="167" t="s">
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="169"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="163"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -11225,15 +11299,15 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="149"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -11303,15 +11377,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
       <c r="K40" s="11"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11"/>
@@ -11381,15 +11455,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -11459,15 +11533,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
@@ -11537,15 +11611,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="160"/>
-      <c r="J43" s="160"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -11615,17 +11689,17 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="155"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="161" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="163"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="157"/>
       <c r="K44" s="24"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
@@ -11695,17 +11769,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="155"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="164" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="165"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="166"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="160"/>
       <c r="K45" s="25"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -11775,17 +11849,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="167" t="s">
+      <c r="B46" s="151"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="169"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="163"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -11855,15 +11929,15 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="149"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="160"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="160"/>
-      <c r="J47" s="160"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -11933,15 +12007,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="160"/>
-      <c r="J48" s="160"/>
+      <c r="B48" s="146"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
@@ -12011,15 +12085,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="154"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="160"/>
-      <c r="J49" s="160"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -12089,15 +12163,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="154"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="160"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
@@ -12167,15 +12241,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="160"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -12245,17 +12319,17 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="161" t="s">
+      <c r="B52" s="149"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="162"/>
-      <c r="H52" s="162"/>
-      <c r="I52" s="162"/>
-      <c r="J52" s="163"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="157"/>
       <c r="K52" s="24"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
@@ -12325,17 +12399,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="164" t="s">
+      <c r="B53" s="149"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="165"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="166"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="159"/>
+      <c r="I53" s="159"/>
+      <c r="J53" s="160"/>
       <c r="K53" s="25"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -12405,17 +12479,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="157"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="167" t="s">
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="152"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="168"/>
-      <c r="H54" s="168"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="169"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="162"/>
+      <c r="J54" s="163"/>
       <c r="K54" s="17"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -12719,27 +12793,55 @@
     </row>
   </sheetData>
   <mergeCells count="86">
-    <mergeCell ref="BG1:BI1"/>
-    <mergeCell ref="BG2:BI2"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="K2:BF2"/>
-    <mergeCell ref="K1:BF1"/>
-    <mergeCell ref="BS1:BX1"/>
-    <mergeCell ref="BS2:BX2"/>
-    <mergeCell ref="BP1:BR1"/>
-    <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="BJ1:BO1"/>
-    <mergeCell ref="BJ2:BO2"/>
-    <mergeCell ref="B47:E54"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="A3:BX3"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="AM5:AP5"/>
+    <mergeCell ref="AQ5:AT5"/>
+    <mergeCell ref="B7:E14"/>
+    <mergeCell ref="B15:E22"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="BS5:BV5"/>
+    <mergeCell ref="B23:E30"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="AU5:AX5"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="BC5:BF5"/>
+    <mergeCell ref="B31:E38"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="B39:E46"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
     <mergeCell ref="BO5:BR5"/>
     <mergeCell ref="F38:J38"/>
     <mergeCell ref="F9:J9"/>
@@ -12756,57 +12858,29 @@
     <mergeCell ref="BG5:BJ5"/>
     <mergeCell ref="BK5:BN5"/>
     <mergeCell ref="F18:J18"/>
-    <mergeCell ref="B39:E46"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="B31:E38"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="BS5:BV5"/>
-    <mergeCell ref="B23:E30"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="AU5:AX5"/>
-    <mergeCell ref="AY5:BB5"/>
-    <mergeCell ref="BC5:BF5"/>
-    <mergeCell ref="A3:BX3"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="AM5:AP5"/>
-    <mergeCell ref="AQ5:AT5"/>
-    <mergeCell ref="B7:E14"/>
-    <mergeCell ref="B15:E22"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="B47:E54"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="BS1:BX1"/>
+    <mergeCell ref="BS2:BX2"/>
+    <mergeCell ref="BP1:BR1"/>
+    <mergeCell ref="BP2:BR2"/>
+    <mergeCell ref="BJ1:BO1"/>
+    <mergeCell ref="BJ2:BO2"/>
+    <mergeCell ref="BG1:BI1"/>
+    <mergeCell ref="BG2:BI2"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="K2:BF2"/>
+    <mergeCell ref="K1:BF1"/>
   </mergeCells>
-  <phoneticPr fontId="8"/>
+  <phoneticPr fontId="9"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -12823,8 +12897,8 @@
   </sheetPr>
   <dimension ref="A1:BX57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="AB17" sqref="AB17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="BP13" sqref="BP13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2"/>
@@ -12834,260 +12908,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:76" s="110" customFormat="1" ht="18" customHeight="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="139" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
-      <c r="I1" s="171"/>
-      <c r="J1" s="171"/>
-      <c r="K1" s="173" t="str">
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
+      <c r="E1" s="138"/>
+      <c r="F1" s="138"/>
+      <c r="G1" s="138"/>
+      <c r="H1" s="138"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
+      <c r="K1" s="140" t="str">
         <f>表紙!J9</f>
         <v>（ToDoリスト）</v>
       </c>
-      <c r="L1" s="171"/>
-      <c r="M1" s="171"/>
-      <c r="N1" s="171"/>
-      <c r="O1" s="171"/>
-      <c r="P1" s="171"/>
-      <c r="Q1" s="171"/>
-      <c r="R1" s="171"/>
-      <c r="S1" s="171"/>
-      <c r="T1" s="171"/>
-      <c r="U1" s="171"/>
-      <c r="V1" s="171"/>
-      <c r="W1" s="171"/>
-      <c r="X1" s="171"/>
-      <c r="Y1" s="171"/>
-      <c r="Z1" s="171"/>
-      <c r="AA1" s="171"/>
-      <c r="AB1" s="171"/>
-      <c r="AC1" s="171"/>
-      <c r="AD1" s="171"/>
-      <c r="AE1" s="171"/>
-      <c r="AF1" s="171"/>
-      <c r="AG1" s="171"/>
-      <c r="AH1" s="171"/>
-      <c r="AI1" s="171"/>
-      <c r="AJ1" s="171"/>
-      <c r="AK1" s="171"/>
-      <c r="AL1" s="171"/>
-      <c r="AM1" s="171"/>
-      <c r="AN1" s="171"/>
-      <c r="AO1" s="171"/>
-      <c r="AP1" s="171"/>
-      <c r="AQ1" s="171"/>
-      <c r="AR1" s="171"/>
-      <c r="AS1" s="171"/>
-      <c r="AT1" s="171"/>
-      <c r="AU1" s="171"/>
-      <c r="AV1" s="171"/>
-      <c r="AW1" s="171"/>
-      <c r="AX1" s="171"/>
-      <c r="AY1" s="171"/>
-      <c r="AZ1" s="171"/>
-      <c r="BA1" s="171"/>
-      <c r="BB1" s="171"/>
-      <c r="BC1" s="171"/>
-      <c r="BD1" s="171"/>
-      <c r="BE1" s="171"/>
-      <c r="BF1" s="171"/>
-      <c r="BG1" s="174" t="s">
+      <c r="L1" s="138"/>
+      <c r="M1" s="138"/>
+      <c r="N1" s="138"/>
+      <c r="O1" s="138"/>
+      <c r="P1" s="138"/>
+      <c r="Q1" s="138"/>
+      <c r="R1" s="138"/>
+      <c r="S1" s="138"/>
+      <c r="T1" s="138"/>
+      <c r="U1" s="138"/>
+      <c r="V1" s="138"/>
+      <c r="W1" s="138"/>
+      <c r="X1" s="138"/>
+      <c r="Y1" s="138"/>
+      <c r="Z1" s="138"/>
+      <c r="AA1" s="138"/>
+      <c r="AB1" s="138"/>
+      <c r="AC1" s="138"/>
+      <c r="AD1" s="138"/>
+      <c r="AE1" s="138"/>
+      <c r="AF1" s="138"/>
+      <c r="AG1" s="138"/>
+      <c r="AH1" s="138"/>
+      <c r="AI1" s="138"/>
+      <c r="AJ1" s="138"/>
+      <c r="AK1" s="138"/>
+      <c r="AL1" s="138"/>
+      <c r="AM1" s="138"/>
+      <c r="AN1" s="138"/>
+      <c r="AO1" s="138"/>
+      <c r="AP1" s="138"/>
+      <c r="AQ1" s="138"/>
+      <c r="AR1" s="138"/>
+      <c r="AS1" s="138"/>
+      <c r="AT1" s="138"/>
+      <c r="AU1" s="138"/>
+      <c r="AV1" s="138"/>
+      <c r="AW1" s="138"/>
+      <c r="AX1" s="138"/>
+      <c r="AY1" s="138"/>
+      <c r="AZ1" s="138"/>
+      <c r="BA1" s="138"/>
+      <c r="BB1" s="138"/>
+      <c r="BC1" s="138"/>
+      <c r="BD1" s="138"/>
+      <c r="BE1" s="138"/>
+      <c r="BF1" s="138"/>
+      <c r="BG1" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="BH1" s="171"/>
-      <c r="BI1" s="171"/>
-      <c r="BJ1" s="175">
+      <c r="BH1" s="138"/>
+      <c r="BI1" s="138"/>
+      <c r="BJ1" s="142">
         <v>44568</v>
       </c>
-      <c r="BK1" s="171"/>
-      <c r="BL1" s="171"/>
-      <c r="BM1" s="171"/>
-      <c r="BN1" s="171"/>
-      <c r="BO1" s="171"/>
-      <c r="BP1" s="174" t="s">
+      <c r="BK1" s="138"/>
+      <c r="BL1" s="138"/>
+      <c r="BM1" s="138"/>
+      <c r="BN1" s="138"/>
+      <c r="BO1" s="138"/>
+      <c r="BP1" s="141" t="s">
         <v>0</v>
       </c>
-      <c r="BQ1" s="171"/>
-      <c r="BR1" s="171"/>
-      <c r="BS1" s="170" t="s">
+      <c r="BQ1" s="138"/>
+      <c r="BR1" s="138"/>
+      <c r="BS1" s="137" t="s">
         <v>91</v>
       </c>
-      <c r="BT1" s="171"/>
-      <c r="BU1" s="171"/>
-      <c r="BV1" s="171"/>
-      <c r="BW1" s="171"/>
-      <c r="BX1" s="171"/>
+      <c r="BT1" s="138"/>
+      <c r="BU1" s="138"/>
+      <c r="BV1" s="138"/>
+      <c r="BW1" s="138"/>
+      <c r="BX1" s="138"/>
     </row>
     <row r="2" spans="1:76" s="117" customFormat="1" ht="18" customHeight="1">
-      <c r="A2" s="172" t="s">
+      <c r="A2" s="139" t="s">
         <v>65</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
-      <c r="I2" s="171"/>
-      <c r="J2" s="171"/>
-      <c r="K2" s="173" t="str">
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="138"/>
+      <c r="F2" s="138"/>
+      <c r="G2" s="138"/>
+      <c r="H2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="140" t="str">
         <f ca="1">表紙!J10 &amp; "： " &amp; RIGHT(CELL("filename",K1),LEN(CELL("filename",K1))-FIND("]",CELL("filename",K1)))</f>
         <v>CRUD表： CRUD表</v>
       </c>
-      <c r="L2" s="171"/>
-      <c r="M2" s="171"/>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
-      <c r="R2" s="171"/>
-      <c r="S2" s="171"/>
-      <c r="T2" s="171"/>
-      <c r="U2" s="171"/>
-      <c r="V2" s="171"/>
-      <c r="W2" s="171"/>
-      <c r="X2" s="171"/>
-      <c r="Y2" s="171"/>
-      <c r="Z2" s="171"/>
-      <c r="AA2" s="171"/>
-      <c r="AB2" s="171"/>
-      <c r="AC2" s="171"/>
-      <c r="AD2" s="171"/>
-      <c r="AE2" s="171"/>
-      <c r="AF2" s="171"/>
-      <c r="AG2" s="171"/>
-      <c r="AH2" s="171"/>
-      <c r="AI2" s="171"/>
-      <c r="AJ2" s="171"/>
-      <c r="AK2" s="171"/>
-      <c r="AL2" s="171"/>
-      <c r="AM2" s="171"/>
-      <c r="AN2" s="171"/>
-      <c r="AO2" s="171"/>
-      <c r="AP2" s="171"/>
-      <c r="AQ2" s="171"/>
-      <c r="AR2" s="171"/>
-      <c r="AS2" s="171"/>
-      <c r="AT2" s="171"/>
-      <c r="AU2" s="171"/>
-      <c r="AV2" s="171"/>
-      <c r="AW2" s="171"/>
-      <c r="AX2" s="171"/>
-      <c r="AY2" s="171"/>
-      <c r="AZ2" s="171"/>
-      <c r="BA2" s="171"/>
-      <c r="BB2" s="171"/>
-      <c r="BC2" s="171"/>
-      <c r="BD2" s="171"/>
-      <c r="BE2" s="171"/>
-      <c r="BF2" s="171"/>
-      <c r="BG2" s="174" t="s">
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="138"/>
+      <c r="AE2" s="138"/>
+      <c r="AF2" s="138"/>
+      <c r="AG2" s="138"/>
+      <c r="AH2" s="138"/>
+      <c r="AI2" s="138"/>
+      <c r="AJ2" s="138"/>
+      <c r="AK2" s="138"/>
+      <c r="AL2" s="138"/>
+      <c r="AM2" s="138"/>
+      <c r="AN2" s="138"/>
+      <c r="AO2" s="138"/>
+      <c r="AP2" s="138"/>
+      <c r="AQ2" s="138"/>
+      <c r="AR2" s="138"/>
+      <c r="AS2" s="138"/>
+      <c r="AT2" s="138"/>
+      <c r="AU2" s="138"/>
+      <c r="AV2" s="138"/>
+      <c r="AW2" s="138"/>
+      <c r="AX2" s="138"/>
+      <c r="AY2" s="138"/>
+      <c r="AZ2" s="138"/>
+      <c r="BA2" s="138"/>
+      <c r="BB2" s="138"/>
+      <c r="BC2" s="138"/>
+      <c r="BD2" s="138"/>
+      <c r="BE2" s="138"/>
+      <c r="BF2" s="138"/>
+      <c r="BG2" s="141" t="s">
         <v>3</v>
       </c>
-      <c r="BH2" s="171"/>
-      <c r="BI2" s="171"/>
-      <c r="BJ2" s="175"/>
-      <c r="BK2" s="171"/>
-      <c r="BL2" s="171"/>
-      <c r="BM2" s="171"/>
-      <c r="BN2" s="171"/>
-      <c r="BO2" s="171"/>
-      <c r="BP2" s="174" t="s">
+      <c r="BH2" s="138"/>
+      <c r="BI2" s="138"/>
+      <c r="BJ2" s="142">
+        <v>44586</v>
+      </c>
+      <c r="BK2" s="138"/>
+      <c r="BL2" s="138"/>
+      <c r="BM2" s="138"/>
+      <c r="BN2" s="138"/>
+      <c r="BO2" s="138"/>
+      <c r="BP2" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="BQ2" s="171"/>
-      <c r="BR2" s="171"/>
-      <c r="BS2" s="170"/>
-      <c r="BT2" s="171"/>
-      <c r="BU2" s="171"/>
-      <c r="BV2" s="171"/>
-      <c r="BW2" s="171"/>
-      <c r="BX2" s="171"/>
+      <c r="BQ2" s="138"/>
+      <c r="BR2" s="138"/>
+      <c r="BS2" s="137" t="s">
+        <v>91</v>
+      </c>
+      <c r="BT2" s="138"/>
+      <c r="BU2" s="138"/>
+      <c r="BV2" s="138"/>
+      <c r="BW2" s="138"/>
+      <c r="BX2" s="138"/>
     </row>
     <row r="3" spans="1:76">
-      <c r="A3" s="138"/>
-      <c r="B3" s="139"/>
-      <c r="C3" s="139"/>
-      <c r="D3" s="139"/>
-      <c r="E3" s="139"/>
-      <c r="F3" s="139"/>
-      <c r="G3" s="139"/>
-      <c r="H3" s="139"/>
-      <c r="I3" s="139"/>
-      <c r="J3" s="139"/>
-      <c r="K3" s="139"/>
-      <c r="L3" s="139"/>
-      <c r="M3" s="139"/>
-      <c r="N3" s="139"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="139"/>
-      <c r="S3" s="139"/>
-      <c r="T3" s="139"/>
-      <c r="U3" s="139"/>
-      <c r="V3" s="139"/>
-      <c r="W3" s="139"/>
-      <c r="X3" s="139"/>
-      <c r="Y3" s="139"/>
-      <c r="Z3" s="139"/>
-      <c r="AA3" s="139"/>
-      <c r="AB3" s="139"/>
-      <c r="AC3" s="139"/>
-      <c r="AD3" s="139"/>
-      <c r="AE3" s="139"/>
-      <c r="AF3" s="139"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="139"/>
-      <c r="AJ3" s="139"/>
-      <c r="AK3" s="139"/>
-      <c r="AL3" s="139"/>
-      <c r="AM3" s="139"/>
-      <c r="AN3" s="139"/>
-      <c r="AO3" s="139"/>
-      <c r="AP3" s="139"/>
-      <c r="AQ3" s="139"/>
-      <c r="AR3" s="139"/>
-      <c r="AS3" s="139"/>
-      <c r="AT3" s="139"/>
-      <c r="AU3" s="139"/>
-      <c r="AV3" s="139"/>
-      <c r="AW3" s="139"/>
-      <c r="AX3" s="139"/>
-      <c r="AY3" s="139"/>
-      <c r="AZ3" s="139"/>
-      <c r="BA3" s="139"/>
-      <c r="BB3" s="139"/>
-      <c r="BC3" s="139"/>
-      <c r="BD3" s="139"/>
-      <c r="BE3" s="139"/>
-      <c r="BF3" s="139"/>
-      <c r="BG3" s="139"/>
-      <c r="BH3" s="139"/>
-      <c r="BI3" s="139"/>
-      <c r="BJ3" s="139"/>
-      <c r="BK3" s="139"/>
-      <c r="BL3" s="139"/>
-      <c r="BM3" s="139"/>
-      <c r="BN3" s="139"/>
-      <c r="BO3" s="139"/>
-      <c r="BP3" s="139"/>
-      <c r="BQ3" s="139"/>
-      <c r="BR3" s="139"/>
-      <c r="BS3" s="139"/>
-      <c r="BT3" s="139"/>
-      <c r="BU3" s="139"/>
-      <c r="BV3" s="139"/>
-      <c r="BW3" s="139"/>
-      <c r="BX3" s="140"/>
+      <c r="A3" s="171"/>
+      <c r="B3" s="172"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
+      <c r="E3" s="172"/>
+      <c r="F3" s="172"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="172"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+      <c r="M3" s="172"/>
+      <c r="N3" s="172"/>
+      <c r="O3" s="172"/>
+      <c r="P3" s="172"/>
+      <c r="Q3" s="172"/>
+      <c r="R3" s="172"/>
+      <c r="S3" s="172"/>
+      <c r="T3" s="172"/>
+      <c r="U3" s="172"/>
+      <c r="V3" s="172"/>
+      <c r="W3" s="172"/>
+      <c r="X3" s="172"/>
+      <c r="Y3" s="172"/>
+      <c r="Z3" s="172"/>
+      <c r="AA3" s="172"/>
+      <c r="AB3" s="172"/>
+      <c r="AC3" s="172"/>
+      <c r="AD3" s="172"/>
+      <c r="AE3" s="172"/>
+      <c r="AF3" s="172"/>
+      <c r="AG3" s="172"/>
+      <c r="AH3" s="172"/>
+      <c r="AI3" s="172"/>
+      <c r="AJ3" s="172"/>
+      <c r="AK3" s="172"/>
+      <c r="AL3" s="172"/>
+      <c r="AM3" s="172"/>
+      <c r="AN3" s="172"/>
+      <c r="AO3" s="172"/>
+      <c r="AP3" s="172"/>
+      <c r="AQ3" s="172"/>
+      <c r="AR3" s="172"/>
+      <c r="AS3" s="172"/>
+      <c r="AT3" s="172"/>
+      <c r="AU3" s="172"/>
+      <c r="AV3" s="172"/>
+      <c r="AW3" s="172"/>
+      <c r="AX3" s="172"/>
+      <c r="AY3" s="172"/>
+      <c r="AZ3" s="172"/>
+      <c r="BA3" s="172"/>
+      <c r="BB3" s="172"/>
+      <c r="BC3" s="172"/>
+      <c r="BD3" s="172"/>
+      <c r="BE3" s="172"/>
+      <c r="BF3" s="172"/>
+      <c r="BG3" s="172"/>
+      <c r="BH3" s="172"/>
+      <c r="BI3" s="172"/>
+      <c r="BJ3" s="172"/>
+      <c r="BK3" s="172"/>
+      <c r="BL3" s="172"/>
+      <c r="BM3" s="172"/>
+      <c r="BN3" s="172"/>
+      <c r="BO3" s="172"/>
+      <c r="BP3" s="172"/>
+      <c r="BQ3" s="172"/>
+      <c r="BR3" s="172"/>
+      <c r="BS3" s="172"/>
+      <c r="BT3" s="172"/>
+      <c r="BU3" s="172"/>
+      <c r="BV3" s="172"/>
+      <c r="BW3" s="172"/>
+      <c r="BX3" s="173"/>
     </row>
     <row r="4" spans="1:76">
       <c r="A4" s="2"/>
@@ -13169,105 +13247,109 @@
     </row>
     <row r="5" spans="1:76">
       <c r="A5" s="2"/>
-      <c r="B5" s="141" t="s">
+      <c r="B5" s="174" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="143"/>
-      <c r="E5" s="143"/>
-      <c r="F5" s="143"/>
-      <c r="G5" s="143"/>
-      <c r="H5" s="143"/>
-      <c r="I5" s="143"/>
-      <c r="J5" s="144"/>
-      <c r="K5" s="145" t="s">
+      <c r="C5" s="175"/>
+      <c r="D5" s="168"/>
+      <c r="E5" s="168"/>
+      <c r="F5" s="168"/>
+      <c r="G5" s="168"/>
+      <c r="H5" s="168"/>
+      <c r="I5" s="168"/>
+      <c r="J5" s="169"/>
+      <c r="K5" s="164" t="s">
         <v>76</v>
       </c>
-      <c r="L5" s="146"/>
-      <c r="M5" s="146"/>
-      <c r="N5" s="146"/>
+      <c r="L5" s="165"/>
+      <c r="M5" s="165"/>
+      <c r="N5" s="165"/>
       <c r="O5" s="176" t="s">
         <v>83</v>
       </c>
-      <c r="P5" s="146"/>
-      <c r="Q5" s="146"/>
+      <c r="P5" s="165"/>
+      <c r="Q5" s="165"/>
       <c r="R5" s="177"/>
-      <c r="S5" s="145" t="s">
+      <c r="S5" s="164" t="s">
         <v>84</v>
       </c>
-      <c r="T5" s="146"/>
-      <c r="U5" s="146"/>
-      <c r="V5" s="146"/>
-      <c r="W5" s="145"/>
-      <c r="X5" s="146"/>
-      <c r="Y5" s="146"/>
-      <c r="Z5" s="146"/>
-      <c r="AA5" s="145"/>
-      <c r="AB5" s="146"/>
-      <c r="AC5" s="146"/>
-      <c r="AD5" s="146"/>
-      <c r="AE5" s="145"/>
-      <c r="AF5" s="146"/>
-      <c r="AG5" s="146"/>
-      <c r="AH5" s="146"/>
-      <c r="AI5" s="145"/>
-      <c r="AJ5" s="146"/>
-      <c r="AK5" s="146"/>
-      <c r="AL5" s="146"/>
-      <c r="AM5" s="145"/>
-      <c r="AN5" s="146"/>
-      <c r="AO5" s="146"/>
-      <c r="AP5" s="146"/>
-      <c r="AQ5" s="145"/>
-      <c r="AR5" s="146"/>
-      <c r="AS5" s="146"/>
-      <c r="AT5" s="146"/>
-      <c r="AU5" s="145"/>
-      <c r="AV5" s="146"/>
-      <c r="AW5" s="146"/>
-      <c r="AX5" s="146"/>
-      <c r="AY5" s="145"/>
-      <c r="AZ5" s="146"/>
-      <c r="BA5" s="146"/>
-      <c r="BB5" s="146"/>
-      <c r="BC5" s="145"/>
-      <c r="BD5" s="146"/>
-      <c r="BE5" s="146"/>
-      <c r="BF5" s="146"/>
-      <c r="BG5" s="145"/>
-      <c r="BH5" s="146"/>
-      <c r="BI5" s="146"/>
-      <c r="BJ5" s="146"/>
-      <c r="BK5" s="145"/>
-      <c r="BL5" s="146"/>
-      <c r="BM5" s="146"/>
-      <c r="BN5" s="146"/>
-      <c r="BO5" s="145"/>
-      <c r="BP5" s="146"/>
-      <c r="BQ5" s="146"/>
-      <c r="BR5" s="146"/>
-      <c r="BS5" s="145"/>
-      <c r="BT5" s="146"/>
-      <c r="BU5" s="146"/>
-      <c r="BV5" s="146"/>
+      <c r="T5" s="165"/>
+      <c r="U5" s="165"/>
+      <c r="V5" s="165"/>
+      <c r="W5" s="164" t="s">
+        <v>99</v>
+      </c>
+      <c r="X5" s="165"/>
+      <c r="Y5" s="165"/>
+      <c r="Z5" s="165"/>
+      <c r="AA5" s="164" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB5" s="165"/>
+      <c r="AC5" s="165"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="164"/>
+      <c r="AF5" s="165"/>
+      <c r="AG5" s="165"/>
+      <c r="AH5" s="165"/>
+      <c r="AI5" s="164"/>
+      <c r="AJ5" s="165"/>
+      <c r="AK5" s="165"/>
+      <c r="AL5" s="165"/>
+      <c r="AM5" s="164"/>
+      <c r="AN5" s="165"/>
+      <c r="AO5" s="165"/>
+      <c r="AP5" s="165"/>
+      <c r="AQ5" s="164"/>
+      <c r="AR5" s="165"/>
+      <c r="AS5" s="165"/>
+      <c r="AT5" s="165"/>
+      <c r="AU5" s="164"/>
+      <c r="AV5" s="165"/>
+      <c r="AW5" s="165"/>
+      <c r="AX5" s="165"/>
+      <c r="AY5" s="164"/>
+      <c r="AZ5" s="165"/>
+      <c r="BA5" s="165"/>
+      <c r="BB5" s="165"/>
+      <c r="BC5" s="164"/>
+      <c r="BD5" s="165"/>
+      <c r="BE5" s="165"/>
+      <c r="BF5" s="165"/>
+      <c r="BG5" s="164"/>
+      <c r="BH5" s="165"/>
+      <c r="BI5" s="165"/>
+      <c r="BJ5" s="165"/>
+      <c r="BK5" s="164"/>
+      <c r="BL5" s="165"/>
+      <c r="BM5" s="165"/>
+      <c r="BN5" s="165"/>
+      <c r="BO5" s="164"/>
+      <c r="BP5" s="165"/>
+      <c r="BQ5" s="165"/>
+      <c r="BR5" s="165"/>
+      <c r="BS5" s="164"/>
+      <c r="BT5" s="165"/>
+      <c r="BU5" s="165"/>
+      <c r="BV5" s="165"/>
       <c r="BW5" s="3"/>
       <c r="BX5" s="4"/>
     </row>
     <row r="6" spans="1:76">
       <c r="A6" s="2"/>
-      <c r="B6" s="147" t="s">
+      <c r="B6" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="148"/>
-      <c r="D6" s="143"/>
-      <c r="E6" s="144"/>
-      <c r="F6" s="147" t="s">
+      <c r="C6" s="167"/>
+      <c r="D6" s="168"/>
+      <c r="E6" s="169"/>
+      <c r="F6" s="166" t="s">
         <v>55</v>
       </c>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
-      <c r="J6" s="144"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="168"/>
+      <c r="J6" s="169"/>
       <c r="K6" s="20" t="s">
         <v>37</v>
       </c>
@@ -13881,11 +13963,11 @@
       <c r="C12" s="185"/>
       <c r="D12" s="185"/>
       <c r="E12" s="183"/>
-      <c r="F12" s="161"/>
-      <c r="G12" s="162"/>
-      <c r="H12" s="162"/>
-      <c r="I12" s="162"/>
-      <c r="J12" s="163"/>
+      <c r="F12" s="155"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="156"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="157"/>
       <c r="K12" s="24"/>
       <c r="L12" s="14"/>
       <c r="M12" s="14"/>
@@ -13959,11 +14041,11 @@
       <c r="C13" s="185"/>
       <c r="D13" s="185"/>
       <c r="E13" s="183"/>
-      <c r="F13" s="164"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="166"/>
+      <c r="F13" s="158"/>
+      <c r="G13" s="159"/>
+      <c r="H13" s="159"/>
+      <c r="I13" s="159"/>
+      <c r="J13" s="160"/>
       <c r="K13" s="25"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -14037,11 +14119,11 @@
       <c r="C14" s="187"/>
       <c r="D14" s="187"/>
       <c r="E14" s="188"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="169"/>
+      <c r="F14" s="161"/>
+      <c r="G14" s="162"/>
+      <c r="H14" s="162"/>
+      <c r="I14" s="162"/>
+      <c r="J14" s="163"/>
       <c r="K14" s="17"/>
       <c r="L14" s="18"/>
       <c r="M14" s="18"/>
@@ -14517,11 +14599,11 @@
       <c r="C20" s="185"/>
       <c r="D20" s="185"/>
       <c r="E20" s="183"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="162"/>
-      <c r="I20" s="162"/>
-      <c r="J20" s="163"/>
+      <c r="F20" s="155"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="156"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="157"/>
       <c r="K20" s="24"/>
       <c r="L20" s="14"/>
       <c r="M20" s="14"/>
@@ -14595,11 +14677,11 @@
       <c r="C21" s="185"/>
       <c r="D21" s="185"/>
       <c r="E21" s="183"/>
-      <c r="F21" s="164"/>
-      <c r="G21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="165"/>
-      <c r="J21" s="166"/>
+      <c r="F21" s="158"/>
+      <c r="G21" s="159"/>
+      <c r="H21" s="159"/>
+      <c r="I21" s="159"/>
+      <c r="J21" s="160"/>
       <c r="K21" s="25"/>
       <c r="L21" s="3"/>
       <c r="M21" s="3"/>
@@ -14673,11 +14755,11 @@
       <c r="C22" s="187"/>
       <c r="D22" s="187"/>
       <c r="E22" s="188"/>
-      <c r="F22" s="167"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="169"/>
+      <c r="F22" s="161"/>
+      <c r="G22" s="162"/>
+      <c r="H22" s="162"/>
+      <c r="I22" s="162"/>
+      <c r="J22" s="163"/>
       <c r="K22" s="17"/>
       <c r="L22" s="18"/>
       <c r="M22" s="18"/>
@@ -14747,15 +14829,19 @@
     </row>
     <row r="23" spans="1:76">
       <c r="A23" s="2"/>
-      <c r="B23" s="149"/>
-      <c r="C23" s="150"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="160"/>
-      <c r="G23" s="160"/>
-      <c r="H23" s="160"/>
-      <c r="I23" s="160"/>
-      <c r="J23" s="160"/>
+      <c r="B23" s="143" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="144"/>
+      <c r="D23" s="144"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="154" t="s">
+        <v>95</v>
+      </c>
+      <c r="G23" s="154"/>
+      <c r="H23" s="154"/>
+      <c r="I23" s="154"/>
+      <c r="J23" s="154"/>
       <c r="K23" s="12"/>
       <c r="L23" s="11"/>
       <c r="M23" s="11"/>
@@ -14769,11 +14855,15 @@
       <c r="U23" s="11"/>
       <c r="V23" s="11"/>
       <c r="W23" s="11"/>
-      <c r="X23" s="12"/>
+      <c r="X23" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
       <c r="AA23" s="11"/>
-      <c r="AB23" s="12"/>
+      <c r="AB23" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="AC23" s="11"/>
       <c r="AD23" s="11"/>
       <c r="AE23" s="11"/>
@@ -14825,15 +14915,17 @@
     </row>
     <row r="24" spans="1:76">
       <c r="A24" s="2"/>
-      <c r="B24" s="152"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="153"/>
-      <c r="E24" s="154"/>
-      <c r="F24" s="160"/>
-      <c r="G24" s="160"/>
-      <c r="H24" s="160"/>
-      <c r="I24" s="160"/>
-      <c r="J24" s="160"/>
+      <c r="B24" s="146"/>
+      <c r="C24" s="147"/>
+      <c r="D24" s="147"/>
+      <c r="E24" s="148"/>
+      <c r="F24" s="154" t="s">
+        <v>86</v>
+      </c>
+      <c r="G24" s="154"/>
+      <c r="H24" s="154"/>
+      <c r="I24" s="154"/>
+      <c r="J24" s="154"/>
       <c r="K24" s="11"/>
       <c r="L24" s="12"/>
       <c r="M24" s="11"/>
@@ -14846,11 +14938,15 @@
       <c r="T24" s="12"/>
       <c r="U24" s="11"/>
       <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
+      <c r="W24" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="X24" s="12"/>
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
+      <c r="AA24" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="AB24" s="12"/>
       <c r="AC24" s="11"/>
       <c r="AD24" s="11"/>
@@ -14903,15 +14999,15 @@
     </row>
     <row r="25" spans="1:76">
       <c r="A25" s="2"/>
-      <c r="B25" s="152"/>
-      <c r="C25" s="153"/>
-      <c r="D25" s="153"/>
-      <c r="E25" s="154"/>
-      <c r="F25" s="160"/>
-      <c r="G25" s="160"/>
-      <c r="H25" s="160"/>
-      <c r="I25" s="160"/>
-      <c r="J25" s="160"/>
+      <c r="B25" s="146"/>
+      <c r="C25" s="147"/>
+      <c r="D25" s="147"/>
+      <c r="E25" s="148"/>
+      <c r="F25" s="154"/>
+      <c r="G25" s="154"/>
+      <c r="H25" s="154"/>
+      <c r="I25" s="154"/>
+      <c r="J25" s="154"/>
       <c r="K25" s="11"/>
       <c r="L25" s="12"/>
       <c r="M25" s="11"/>
@@ -14981,15 +15077,15 @@
     </row>
     <row r="26" spans="1:76">
       <c r="A26" s="2"/>
-      <c r="B26" s="152"/>
-      <c r="C26" s="153"/>
-      <c r="D26" s="153"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="160"/>
-      <c r="G26" s="160"/>
-      <c r="H26" s="160"/>
-      <c r="I26" s="160"/>
-      <c r="J26" s="160"/>
+      <c r="B26" s="146"/>
+      <c r="C26" s="147"/>
+      <c r="D26" s="147"/>
+      <c r="E26" s="148"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="12"/>
@@ -15059,15 +15155,15 @@
     </row>
     <row r="27" spans="1:76">
       <c r="A27" s="2"/>
-      <c r="B27" s="152"/>
-      <c r="C27" s="153"/>
-      <c r="D27" s="153"/>
-      <c r="E27" s="154"/>
-      <c r="F27" s="160"/>
-      <c r="G27" s="160"/>
-      <c r="H27" s="160"/>
-      <c r="I27" s="160"/>
-      <c r="J27" s="160"/>
+      <c r="B27" s="146"/>
+      <c r="C27" s="147"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
+      <c r="F27" s="154"/>
+      <c r="G27" s="154"/>
+      <c r="H27" s="154"/>
+      <c r="I27" s="154"/>
+      <c r="J27" s="154"/>
       <c r="K27" s="11"/>
       <c r="L27" s="11"/>
       <c r="M27" s="12"/>
@@ -15137,17 +15233,17 @@
     </row>
     <row r="28" spans="1:76">
       <c r="A28" s="2"/>
-      <c r="B28" s="155"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="154"/>
-      <c r="F28" s="161" t="s">
+      <c r="B28" s="149"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="148"/>
+      <c r="F28" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G28" s="162"/>
-      <c r="H28" s="162"/>
-      <c r="I28" s="162"/>
-      <c r="J28" s="163"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="157"/>
       <c r="K28" s="24"/>
       <c r="L28" s="14"/>
       <c r="M28" s="14"/>
@@ -15217,17 +15313,17 @@
     </row>
     <row r="29" spans="1:76">
       <c r="A29" s="2"/>
-      <c r="B29" s="155"/>
-      <c r="C29" s="156"/>
-      <c r="D29" s="156"/>
-      <c r="E29" s="154"/>
-      <c r="F29" s="164" t="s">
+      <c r="B29" s="149"/>
+      <c r="C29" s="150"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="148"/>
+      <c r="F29" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="165"/>
-      <c r="J29" s="166"/>
+      <c r="G29" s="159"/>
+      <c r="H29" s="159"/>
+      <c r="I29" s="159"/>
+      <c r="J29" s="160"/>
       <c r="K29" s="25"/>
       <c r="L29" s="3"/>
       <c r="M29" s="3"/>
@@ -15297,17 +15393,17 @@
     </row>
     <row r="30" spans="1:76">
       <c r="A30" s="2"/>
-      <c r="B30" s="157"/>
-      <c r="C30" s="158"/>
-      <c r="D30" s="158"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="167" t="s">
+      <c r="B30" s="151"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="169"/>
+      <c r="G30" s="162"/>
+      <c r="H30" s="162"/>
+      <c r="I30" s="162"/>
+      <c r="J30" s="163"/>
       <c r="K30" s="17"/>
       <c r="L30" s="18"/>
       <c r="M30" s="18"/>
@@ -15377,15 +15473,15 @@
     </row>
     <row r="31" spans="1:76">
       <c r="A31" s="2"/>
-      <c r="B31" s="149"/>
-      <c r="C31" s="150"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="160"/>
-      <c r="H31" s="160"/>
-      <c r="I31" s="160"/>
-      <c r="J31" s="160"/>
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="145"/>
+      <c r="F31" s="154"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="154"/>
+      <c r="I31" s="154"/>
+      <c r="J31" s="154"/>
       <c r="K31" s="12"/>
       <c r="L31" s="11"/>
       <c r="M31" s="11"/>
@@ -15455,15 +15551,15 @@
     </row>
     <row r="32" spans="1:76">
       <c r="A32" s="2"/>
-      <c r="B32" s="152"/>
-      <c r="C32" s="153"/>
-      <c r="D32" s="153"/>
-      <c r="E32" s="154"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="160"/>
-      <c r="H32" s="160"/>
-      <c r="I32" s="160"/>
-      <c r="J32" s="160"/>
+      <c r="B32" s="146"/>
+      <c r="C32" s="147"/>
+      <c r="D32" s="147"/>
+      <c r="E32" s="148"/>
+      <c r="F32" s="154"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="154"/>
+      <c r="I32" s="154"/>
+      <c r="J32" s="154"/>
       <c r="K32" s="11"/>
       <c r="L32" s="12"/>
       <c r="M32" s="11"/>
@@ -15533,15 +15629,15 @@
     </row>
     <row r="33" spans="1:76">
       <c r="A33" s="2"/>
-      <c r="B33" s="152"/>
-      <c r="C33" s="153"/>
-      <c r="D33" s="153"/>
-      <c r="E33" s="154"/>
-      <c r="F33" s="160"/>
-      <c r="G33" s="160"/>
-      <c r="H33" s="160"/>
-      <c r="I33" s="160"/>
-      <c r="J33" s="160"/>
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="148"/>
+      <c r="F33" s="154"/>
+      <c r="G33" s="154"/>
+      <c r="H33" s="154"/>
+      <c r="I33" s="154"/>
+      <c r="J33" s="154"/>
       <c r="K33" s="11"/>
       <c r="L33" s="12"/>
       <c r="M33" s="11"/>
@@ -15611,15 +15707,15 @@
     </row>
     <row r="34" spans="1:76">
       <c r="A34" s="2"/>
-      <c r="B34" s="152"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="153"/>
-      <c r="E34" s="154"/>
-      <c r="F34" s="160"/>
-      <c r="G34" s="160"/>
-      <c r="H34" s="160"/>
-      <c r="I34" s="160"/>
-      <c r="J34" s="160"/>
+      <c r="B34" s="146"/>
+      <c r="C34" s="147"/>
+      <c r="D34" s="147"/>
+      <c r="E34" s="148"/>
+      <c r="F34" s="154"/>
+      <c r="G34" s="154"/>
+      <c r="H34" s="154"/>
+      <c r="I34" s="154"/>
+      <c r="J34" s="154"/>
       <c r="K34" s="11"/>
       <c r="L34" s="11"/>
       <c r="M34" s="12"/>
@@ -15689,15 +15785,15 @@
     </row>
     <row r="35" spans="1:76">
       <c r="A35" s="2"/>
-      <c r="B35" s="152"/>
-      <c r="C35" s="153"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="154"/>
-      <c r="F35" s="160"/>
-      <c r="G35" s="160"/>
-      <c r="H35" s="160"/>
-      <c r="I35" s="160"/>
-      <c r="J35" s="160"/>
+      <c r="B35" s="146"/>
+      <c r="C35" s="147"/>
+      <c r="D35" s="147"/>
+      <c r="E35" s="148"/>
+      <c r="F35" s="154"/>
+      <c r="G35" s="154"/>
+      <c r="H35" s="154"/>
+      <c r="I35" s="154"/>
+      <c r="J35" s="154"/>
       <c r="K35" s="11"/>
       <c r="L35" s="11"/>
       <c r="M35" s="12"/>
@@ -15767,17 +15863,17 @@
     </row>
     <row r="36" spans="1:76">
       <c r="A36" s="2"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="156"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="154"/>
-      <c r="F36" s="161" t="s">
+      <c r="B36" s="149"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
+      <c r="E36" s="148"/>
+      <c r="F36" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G36" s="162"/>
-      <c r="H36" s="162"/>
-      <c r="I36" s="162"/>
-      <c r="J36" s="163"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="156"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="157"/>
       <c r="K36" s="24"/>
       <c r="L36" s="14"/>
       <c r="M36" s="14"/>
@@ -15847,17 +15943,17 @@
     </row>
     <row r="37" spans="1:76">
       <c r="A37" s="2"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="164" t="s">
+      <c r="B37" s="149"/>
+      <c r="C37" s="150"/>
+      <c r="D37" s="150"/>
+      <c r="E37" s="148"/>
+      <c r="F37" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G37" s="165"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="165"/>
-      <c r="J37" s="166"/>
+      <c r="G37" s="159"/>
+      <c r="H37" s="159"/>
+      <c r="I37" s="159"/>
+      <c r="J37" s="160"/>
       <c r="K37" s="25"/>
       <c r="L37" s="3"/>
       <c r="M37" s="3"/>
@@ -15927,17 +16023,17 @@
     </row>
     <row r="38" spans="1:76">
       <c r="A38" s="2"/>
-      <c r="B38" s="157"/>
-      <c r="C38" s="158"/>
-      <c r="D38" s="158"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="167" t="s">
+      <c r="B38" s="151"/>
+      <c r="C38" s="152"/>
+      <c r="D38" s="152"/>
+      <c r="E38" s="153"/>
+      <c r="F38" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G38" s="168"/>
-      <c r="H38" s="168"/>
-      <c r="I38" s="168"/>
-      <c r="J38" s="169"/>
+      <c r="G38" s="162"/>
+      <c r="H38" s="162"/>
+      <c r="I38" s="162"/>
+      <c r="J38" s="163"/>
       <c r="K38" s="17"/>
       <c r="L38" s="18"/>
       <c r="M38" s="18"/>
@@ -16007,15 +16103,15 @@
     </row>
     <row r="39" spans="1:76">
       <c r="A39" s="2"/>
-      <c r="B39" s="149"/>
-      <c r="C39" s="150"/>
-      <c r="D39" s="150"/>
-      <c r="E39" s="151"/>
-      <c r="F39" s="160"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="160"/>
-      <c r="I39" s="160"/>
-      <c r="J39" s="160"/>
+      <c r="B39" s="143"/>
+      <c r="C39" s="144"/>
+      <c r="D39" s="144"/>
+      <c r="E39" s="145"/>
+      <c r="F39" s="154"/>
+      <c r="G39" s="154"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="154"/>
+      <c r="J39" s="154"/>
       <c r="K39" s="12"/>
       <c r="L39" s="11"/>
       <c r="M39" s="11"/>
@@ -16085,15 +16181,15 @@
     </row>
     <row r="40" spans="1:76">
       <c r="A40" s="2"/>
-      <c r="B40" s="152"/>
-      <c r="C40" s="153"/>
-      <c r="D40" s="153"/>
-      <c r="E40" s="154"/>
-      <c r="F40" s="160"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="160"/>
-      <c r="I40" s="160"/>
-      <c r="J40" s="160"/>
+      <c r="B40" s="146"/>
+      <c r="C40" s="147"/>
+      <c r="D40" s="147"/>
+      <c r="E40" s="148"/>
+      <c r="F40" s="154"/>
+      <c r="G40" s="154"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="154"/>
+      <c r="J40" s="154"/>
       <c r="K40" s="11"/>
       <c r="L40" s="12"/>
       <c r="M40" s="11"/>
@@ -16163,15 +16259,15 @@
     </row>
     <row r="41" spans="1:76">
       <c r="A41" s="2"/>
-      <c r="B41" s="152"/>
-      <c r="C41" s="153"/>
-      <c r="D41" s="153"/>
-      <c r="E41" s="154"/>
-      <c r="F41" s="160"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="160"/>
-      <c r="I41" s="160"/>
-      <c r="J41" s="160"/>
+      <c r="B41" s="146"/>
+      <c r="C41" s="147"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="148"/>
+      <c r="F41" s="154"/>
+      <c r="G41" s="154"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="154"/>
+      <c r="J41" s="154"/>
       <c r="K41" s="11"/>
       <c r="L41" s="12"/>
       <c r="M41" s="11"/>
@@ -16241,15 +16337,15 @@
     </row>
     <row r="42" spans="1:76">
       <c r="A42" s="2"/>
-      <c r="B42" s="152"/>
-      <c r="C42" s="153"/>
-      <c r="D42" s="153"/>
-      <c r="E42" s="154"/>
-      <c r="F42" s="160"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="160"/>
-      <c r="I42" s="160"/>
-      <c r="J42" s="160"/>
+      <c r="B42" s="146"/>
+      <c r="C42" s="147"/>
+      <c r="D42" s="147"/>
+      <c r="E42" s="148"/>
+      <c r="F42" s="154"/>
+      <c r="G42" s="154"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="154"/>
+      <c r="J42" s="154"/>
       <c r="K42" s="11"/>
       <c r="L42" s="11"/>
       <c r="M42" s="12"/>
@@ -16319,15 +16415,15 @@
     </row>
     <row r="43" spans="1:76">
       <c r="A43" s="2"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="153"/>
-      <c r="D43" s="153"/>
-      <c r="E43" s="154"/>
-      <c r="F43" s="160"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="160"/>
-      <c r="I43" s="160"/>
-      <c r="J43" s="160"/>
+      <c r="B43" s="146"/>
+      <c r="C43" s="147"/>
+      <c r="D43" s="147"/>
+      <c r="E43" s="148"/>
+      <c r="F43" s="154"/>
+      <c r="G43" s="154"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="154"/>
+      <c r="J43" s="154"/>
       <c r="K43" s="11"/>
       <c r="L43" s="11"/>
       <c r="M43" s="12"/>
@@ -16397,17 +16493,17 @@
     </row>
     <row r="44" spans="1:76">
       <c r="A44" s="2"/>
-      <c r="B44" s="155"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="156"/>
-      <c r="E44" s="154"/>
-      <c r="F44" s="161" t="s">
+      <c r="B44" s="149"/>
+      <c r="C44" s="150"/>
+      <c r="D44" s="150"/>
+      <c r="E44" s="148"/>
+      <c r="F44" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G44" s="162"/>
-      <c r="H44" s="162"/>
-      <c r="I44" s="162"/>
-      <c r="J44" s="163"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="156"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="157"/>
       <c r="K44" s="24"/>
       <c r="L44" s="14"/>
       <c r="M44" s="14"/>
@@ -16477,17 +16573,17 @@
     </row>
     <row r="45" spans="1:76">
       <c r="A45" s="2"/>
-      <c r="B45" s="155"/>
-      <c r="C45" s="156"/>
-      <c r="D45" s="156"/>
-      <c r="E45" s="154"/>
-      <c r="F45" s="164" t="s">
+      <c r="B45" s="149"/>
+      <c r="C45" s="150"/>
+      <c r="D45" s="150"/>
+      <c r="E45" s="148"/>
+      <c r="F45" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G45" s="165"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="165"/>
-      <c r="J45" s="166"/>
+      <c r="G45" s="159"/>
+      <c r="H45" s="159"/>
+      <c r="I45" s="159"/>
+      <c r="J45" s="160"/>
       <c r="K45" s="25"/>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
@@ -16557,17 +16653,17 @@
     </row>
     <row r="46" spans="1:76">
       <c r="A46" s="2"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="158"/>
-      <c r="D46" s="158"/>
-      <c r="E46" s="159"/>
-      <c r="F46" s="167" t="s">
+      <c r="B46" s="151"/>
+      <c r="C46" s="152"/>
+      <c r="D46" s="152"/>
+      <c r="E46" s="153"/>
+      <c r="F46" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G46" s="168"/>
-      <c r="H46" s="168"/>
-      <c r="I46" s="168"/>
-      <c r="J46" s="169"/>
+      <c r="G46" s="162"/>
+      <c r="H46" s="162"/>
+      <c r="I46" s="162"/>
+      <c r="J46" s="163"/>
       <c r="K46" s="17"/>
       <c r="L46" s="18"/>
       <c r="M46" s="18"/>
@@ -16637,15 +16733,15 @@
     </row>
     <row r="47" spans="1:76">
       <c r="A47" s="2"/>
-      <c r="B47" s="149"/>
-      <c r="C47" s="150"/>
-      <c r="D47" s="150"/>
-      <c r="E47" s="151"/>
-      <c r="F47" s="160"/>
-      <c r="G47" s="160"/>
-      <c r="H47" s="160"/>
-      <c r="I47" s="160"/>
-      <c r="J47" s="160"/>
+      <c r="B47" s="143"/>
+      <c r="C47" s="144"/>
+      <c r="D47" s="144"/>
+      <c r="E47" s="145"/>
+      <c r="F47" s="154"/>
+      <c r="G47" s="154"/>
+      <c r="H47" s="154"/>
+      <c r="I47" s="154"/>
+      <c r="J47" s="154"/>
       <c r="K47" s="12"/>
       <c r="L47" s="11"/>
       <c r="M47" s="11"/>
@@ -16715,15 +16811,15 @@
     </row>
     <row r="48" spans="1:76">
       <c r="A48" s="2"/>
-      <c r="B48" s="152"/>
-      <c r="C48" s="153"/>
-      <c r="D48" s="153"/>
-      <c r="E48" s="154"/>
-      <c r="F48" s="160"/>
-      <c r="G48" s="160"/>
-      <c r="H48" s="160"/>
-      <c r="I48" s="160"/>
-      <c r="J48" s="160"/>
+      <c r="B48" s="146"/>
+      <c r="C48" s="147"/>
+      <c r="D48" s="147"/>
+      <c r="E48" s="148"/>
+      <c r="F48" s="154"/>
+      <c r="G48" s="154"/>
+      <c r="H48" s="154"/>
+      <c r="I48" s="154"/>
+      <c r="J48" s="154"/>
       <c r="K48" s="11"/>
       <c r="L48" s="12"/>
       <c r="M48" s="11"/>
@@ -16793,15 +16889,15 @@
     </row>
     <row r="49" spans="1:76">
       <c r="A49" s="2"/>
-      <c r="B49" s="152"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="153"/>
-      <c r="E49" s="154"/>
-      <c r="F49" s="160"/>
-      <c r="G49" s="160"/>
-      <c r="H49" s="160"/>
-      <c r="I49" s="160"/>
-      <c r="J49" s="160"/>
+      <c r="B49" s="146"/>
+      <c r="C49" s="147"/>
+      <c r="D49" s="147"/>
+      <c r="E49" s="148"/>
+      <c r="F49" s="154"/>
+      <c r="G49" s="154"/>
+      <c r="H49" s="154"/>
+      <c r="I49" s="154"/>
+      <c r="J49" s="154"/>
       <c r="K49" s="11"/>
       <c r="L49" s="12"/>
       <c r="M49" s="11"/>
@@ -16871,15 +16967,15 @@
     </row>
     <row r="50" spans="1:76">
       <c r="A50" s="2"/>
-      <c r="B50" s="152"/>
-      <c r="C50" s="153"/>
-      <c r="D50" s="153"/>
-      <c r="E50" s="154"/>
-      <c r="F50" s="160"/>
-      <c r="G50" s="160"/>
-      <c r="H50" s="160"/>
-      <c r="I50" s="160"/>
-      <c r="J50" s="160"/>
+      <c r="B50" s="146"/>
+      <c r="C50" s="147"/>
+      <c r="D50" s="147"/>
+      <c r="E50" s="148"/>
+      <c r="F50" s="154"/>
+      <c r="G50" s="154"/>
+      <c r="H50" s="154"/>
+      <c r="I50" s="154"/>
+      <c r="J50" s="154"/>
       <c r="K50" s="11"/>
       <c r="L50" s="11"/>
       <c r="M50" s="12"/>
@@ -16949,15 +17045,15 @@
     </row>
     <row r="51" spans="1:76">
       <c r="A51" s="2"/>
-      <c r="B51" s="152"/>
-      <c r="C51" s="153"/>
-      <c r="D51" s="153"/>
-      <c r="E51" s="154"/>
-      <c r="F51" s="160"/>
-      <c r="G51" s="160"/>
-      <c r="H51" s="160"/>
-      <c r="I51" s="160"/>
-      <c r="J51" s="160"/>
+      <c r="B51" s="146"/>
+      <c r="C51" s="147"/>
+      <c r="D51" s="147"/>
+      <c r="E51" s="148"/>
+      <c r="F51" s="154"/>
+      <c r="G51" s="154"/>
+      <c r="H51" s="154"/>
+      <c r="I51" s="154"/>
+      <c r="J51" s="154"/>
       <c r="K51" s="11"/>
       <c r="L51" s="11"/>
       <c r="M51" s="12"/>
@@ -17027,17 +17123,17 @@
     </row>
     <row r="52" spans="1:76">
       <c r="A52" s="2"/>
-      <c r="B52" s="155"/>
-      <c r="C52" s="156"/>
-      <c r="D52" s="156"/>
-      <c r="E52" s="154"/>
-      <c r="F52" s="161" t="s">
+      <c r="B52" s="149"/>
+      <c r="C52" s="150"/>
+      <c r="D52" s="150"/>
+      <c r="E52" s="148"/>
+      <c r="F52" s="155" t="s">
         <v>54</v>
       </c>
-      <c r="G52" s="162"/>
-      <c r="H52" s="162"/>
-      <c r="I52" s="162"/>
-      <c r="J52" s="163"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="156"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="157"/>
       <c r="K52" s="24"/>
       <c r="L52" s="14"/>
       <c r="M52" s="14"/>
@@ -17107,17 +17203,17 @@
     </row>
     <row r="53" spans="1:76">
       <c r="A53" s="2"/>
-      <c r="B53" s="155"/>
-      <c r="C53" s="156"/>
-      <c r="D53" s="156"/>
-      <c r="E53" s="154"/>
-      <c r="F53" s="164" t="s">
+      <c r="B53" s="149"/>
+      <c r="C53" s="150"/>
+      <c r="D53" s="150"/>
+      <c r="E53" s="148"/>
+      <c r="F53" s="158" t="s">
         <v>54</v>
       </c>
-      <c r="G53" s="165"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="165"/>
-      <c r="J53" s="166"/>
+      <c r="G53" s="159"/>
+      <c r="H53" s="159"/>
+      <c r="I53" s="159"/>
+      <c r="J53" s="160"/>
       <c r="K53" s="25"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -17187,17 +17283,17 @@
     </row>
     <row r="54" spans="1:76">
       <c r="A54" s="2"/>
-      <c r="B54" s="157"/>
-      <c r="C54" s="158"/>
-      <c r="D54" s="158"/>
-      <c r="E54" s="159"/>
-      <c r="F54" s="167" t="s">
+      <c r="B54" s="151"/>
+      <c r="C54" s="152"/>
+      <c r="D54" s="152"/>
+      <c r="E54" s="153"/>
+      <c r="F54" s="161" t="s">
         <v>54</v>
       </c>
-      <c r="G54" s="168"/>
-      <c r="H54" s="168"/>
-      <c r="I54" s="168"/>
-      <c r="J54" s="169"/>
+      <c r="G54" s="162"/>
+      <c r="H54" s="162"/>
+      <c r="I54" s="162"/>
+      <c r="J54" s="163"/>
       <c r="K54" s="17"/>
       <c r="L54" s="18"/>
       <c r="M54" s="18"/>
@@ -17501,6 +17597,80 @@
     </row>
   </sheetData>
   <mergeCells count="86">
+    <mergeCell ref="B47:E54"/>
+    <mergeCell ref="F47:J47"/>
+    <mergeCell ref="F48:J48"/>
+    <mergeCell ref="F49:J49"/>
+    <mergeCell ref="F50:J50"/>
+    <mergeCell ref="F51:J51"/>
+    <mergeCell ref="F52:J52"/>
+    <mergeCell ref="F53:J53"/>
+    <mergeCell ref="F54:J54"/>
+    <mergeCell ref="B39:E46"/>
+    <mergeCell ref="F39:J39"/>
+    <mergeCell ref="F40:J40"/>
+    <mergeCell ref="F41:J41"/>
+    <mergeCell ref="F42:J42"/>
+    <mergeCell ref="F43:J43"/>
+    <mergeCell ref="F44:J44"/>
+    <mergeCell ref="F45:J45"/>
+    <mergeCell ref="F46:J46"/>
+    <mergeCell ref="B31:E38"/>
+    <mergeCell ref="F31:J31"/>
+    <mergeCell ref="F32:J32"/>
+    <mergeCell ref="F33:J33"/>
+    <mergeCell ref="F34:J34"/>
+    <mergeCell ref="F35:J35"/>
+    <mergeCell ref="F36:J36"/>
+    <mergeCell ref="F37:J37"/>
+    <mergeCell ref="F38:J38"/>
+    <mergeCell ref="B23:E30"/>
+    <mergeCell ref="F23:J23"/>
+    <mergeCell ref="F24:J24"/>
+    <mergeCell ref="F25:J25"/>
+    <mergeCell ref="F26:J26"/>
+    <mergeCell ref="F27:J27"/>
+    <mergeCell ref="F28:J28"/>
+    <mergeCell ref="F29:J29"/>
+    <mergeCell ref="F30:J30"/>
+    <mergeCell ref="B15:E22"/>
+    <mergeCell ref="F15:J15"/>
+    <mergeCell ref="F16:J16"/>
+    <mergeCell ref="F17:J17"/>
+    <mergeCell ref="F18:J18"/>
+    <mergeCell ref="F19:J19"/>
+    <mergeCell ref="F20:J20"/>
+    <mergeCell ref="F21:J21"/>
+    <mergeCell ref="F22:J22"/>
+    <mergeCell ref="BG5:BJ5"/>
+    <mergeCell ref="BK5:BN5"/>
+    <mergeCell ref="F12:J12"/>
+    <mergeCell ref="F13:J13"/>
+    <mergeCell ref="F14:J14"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B7:E14"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="F8:J8"/>
+    <mergeCell ref="F9:J9"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F11:J11"/>
+    <mergeCell ref="A3:BX3"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="K5:N5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="W5:Z5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AI5:AL5"/>
+    <mergeCell ref="AM5:AP5"/>
+    <mergeCell ref="BO5:BR5"/>
+    <mergeCell ref="BS5:BV5"/>
+    <mergeCell ref="AQ5:AT5"/>
+    <mergeCell ref="AU5:AX5"/>
+    <mergeCell ref="AY5:BB5"/>
+    <mergeCell ref="BC5:BF5"/>
     <mergeCell ref="BS2:BX2"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="K1:BF1"/>
@@ -17513,82 +17683,8 @@
     <mergeCell ref="BG2:BI2"/>
     <mergeCell ref="BJ2:BO2"/>
     <mergeCell ref="BP2:BR2"/>
-    <mergeCell ref="A3:BX3"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="K5:N5"/>
-    <mergeCell ref="O5:R5"/>
-    <mergeCell ref="S5:V5"/>
-    <mergeCell ref="W5:Z5"/>
-    <mergeCell ref="AA5:AD5"/>
-    <mergeCell ref="AE5:AH5"/>
-    <mergeCell ref="AI5:AL5"/>
-    <mergeCell ref="AM5:AP5"/>
-    <mergeCell ref="BO5:BR5"/>
-    <mergeCell ref="BS5:BV5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B7:E14"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="F8:J8"/>
-    <mergeCell ref="F9:J9"/>
-    <mergeCell ref="F10:J10"/>
-    <mergeCell ref="F11:J11"/>
-    <mergeCell ref="AQ5:AT5"/>
-    <mergeCell ref="AU5:AX5"/>
-    <mergeCell ref="AY5:BB5"/>
-    <mergeCell ref="BC5:BF5"/>
-    <mergeCell ref="BG5:BJ5"/>
-    <mergeCell ref="BK5:BN5"/>
-    <mergeCell ref="F12:J12"/>
-    <mergeCell ref="F13:J13"/>
-    <mergeCell ref="F14:J14"/>
-    <mergeCell ref="B15:E22"/>
-    <mergeCell ref="F15:J15"/>
-    <mergeCell ref="F16:J16"/>
-    <mergeCell ref="F17:J17"/>
-    <mergeCell ref="F18:J18"/>
-    <mergeCell ref="F19:J19"/>
-    <mergeCell ref="F20:J20"/>
-    <mergeCell ref="F21:J21"/>
-    <mergeCell ref="F22:J22"/>
-    <mergeCell ref="B23:E30"/>
-    <mergeCell ref="F23:J23"/>
-    <mergeCell ref="F24:J24"/>
-    <mergeCell ref="F25:J25"/>
-    <mergeCell ref="F26:J26"/>
-    <mergeCell ref="F27:J27"/>
-    <mergeCell ref="F28:J28"/>
-    <mergeCell ref="F29:J29"/>
-    <mergeCell ref="F30:J30"/>
-    <mergeCell ref="B31:E38"/>
-    <mergeCell ref="F31:J31"/>
-    <mergeCell ref="F32:J32"/>
-    <mergeCell ref="F33:J33"/>
-    <mergeCell ref="F34:J34"/>
-    <mergeCell ref="F35:J35"/>
-    <mergeCell ref="F36:J36"/>
-    <mergeCell ref="F37:J37"/>
-    <mergeCell ref="F38:J38"/>
-    <mergeCell ref="B39:E46"/>
-    <mergeCell ref="F39:J39"/>
-    <mergeCell ref="F40:J40"/>
-    <mergeCell ref="F41:J41"/>
-    <mergeCell ref="F42:J42"/>
-    <mergeCell ref="F43:J43"/>
-    <mergeCell ref="F44:J44"/>
-    <mergeCell ref="F45:J45"/>
-    <mergeCell ref="F46:J46"/>
-    <mergeCell ref="B47:E54"/>
-    <mergeCell ref="F47:J47"/>
-    <mergeCell ref="F48:J48"/>
-    <mergeCell ref="F49:J49"/>
-    <mergeCell ref="F50:J50"/>
-    <mergeCell ref="F51:J51"/>
-    <mergeCell ref="F52:J52"/>
-    <mergeCell ref="F53:J53"/>
-    <mergeCell ref="F54:J54"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -17659,15 +17755,15 @@
       <c r="I2" s="116"/>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="137"/>
-      <c r="B3" s="137"/>
-      <c r="C3" s="137"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
+      <c r="A3" s="170"/>
+      <c r="B3" s="170"/>
+      <c r="C3" s="170"/>
+      <c r="D3" s="170"/>
+      <c r="E3" s="170"/>
+      <c r="F3" s="170"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="170"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="118"/>
@@ -17706,17 +17802,17 @@
       <c r="D6" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="193" t="s">
+      <c r="E6" s="190" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="194"/>
+      <c r="F6" s="191"/>
       <c r="G6" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="193" t="s">
+      <c r="H6" s="190" t="s">
         <v>17</v>
       </c>
-      <c r="I6" s="194"/>
+      <c r="I6" s="191"/>
     </row>
     <row r="7" spans="1:9" ht="60" customHeight="1">
       <c r="A7" s="30" t="s">
@@ -17727,11 +17823,11 @@
       <c r="D7" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="191"/>
+      <c r="E7" s="194"/>
+      <c r="F7" s="195"/>
       <c r="G7" s="123"/>
       <c r="H7" s="192"/>
-      <c r="I7" s="195"/>
+      <c r="I7" s="193"/>
     </row>
     <row r="8" spans="1:9" ht="80.099999999999994" customHeight="1">
       <c r="A8" s="36"/>
@@ -17742,13 +17838,13 @@
       <c r="D8" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="190" t="s">
+      <c r="E8" s="194" t="s">
         <v>72</v>
       </c>
-      <c r="F8" s="191"/>
+      <c r="F8" s="195"/>
       <c r="G8" s="123"/>
       <c r="H8" s="192"/>
-      <c r="I8" s="191"/>
+      <c r="I8" s="195"/>
     </row>
     <row r="9" spans="1:9" ht="60" customHeight="1">
       <c r="A9" s="36"/>
@@ -17759,15 +17855,15 @@
       <c r="D9" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="190" t="s">
+      <c r="E9" s="194" t="s">
         <v>31</v>
       </c>
-      <c r="F9" s="191"/>
+      <c r="F9" s="195"/>
       <c r="G9" s="123" t="s">
         <v>30</v>
       </c>
       <c r="H9" s="192"/>
-      <c r="I9" s="191"/>
+      <c r="I9" s="195"/>
     </row>
     <row r="10" spans="1:9" ht="60" customHeight="1">
       <c r="A10" s="36"/>
@@ -17778,15 +17874,15 @@
       <c r="D10" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="190" t="s">
+      <c r="E10" s="194" t="s">
         <v>32</v>
       </c>
-      <c r="F10" s="191"/>
+      <c r="F10" s="195"/>
       <c r="G10" s="123" t="s">
         <v>30</v>
       </c>
       <c r="H10" s="192"/>
-      <c r="I10" s="191"/>
+      <c r="I10" s="195"/>
     </row>
     <row r="11" spans="1:9" ht="60" customHeight="1">
       <c r="A11" s="36"/>
@@ -17797,15 +17893,15 @@
       <c r="D11" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="190" t="s">
+      <c r="E11" s="194" t="s">
         <v>56</v>
       </c>
-      <c r="F11" s="191"/>
+      <c r="F11" s="195"/>
       <c r="G11" s="123" t="s">
         <v>30</v>
       </c>
       <c r="H11" s="192"/>
-      <c r="I11" s="191"/>
+      <c r="I11" s="195"/>
     </row>
     <row r="12" spans="1:9" ht="60" customHeight="1">
       <c r="A12" s="37"/>
@@ -17816,15 +17912,15 @@
       <c r="D12" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="190" t="s">
+      <c r="E12" s="194" t="s">
         <v>57</v>
       </c>
-      <c r="F12" s="191"/>
+      <c r="F12" s="195"/>
       <c r="G12" s="123" t="s">
         <v>30</v>
       </c>
       <c r="H12" s="192"/>
-      <c r="I12" s="191"/>
+      <c r="I12" s="195"/>
     </row>
     <row r="13" spans="1:9" ht="60" customHeight="1">
       <c r="A13" s="30" t="s">
@@ -17835,11 +17931,11 @@
       <c r="D13" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="190"/>
-      <c r="F13" s="191"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="195"/>
       <c r="G13" s="123"/>
       <c r="H13" s="192"/>
-      <c r="I13" s="191"/>
+      <c r="I13" s="195"/>
     </row>
     <row r="14" spans="1:9" ht="60" customHeight="1">
       <c r="A14" s="36"/>
@@ -17850,11 +17946,11 @@
       <c r="D14" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="190"/>
-      <c r="F14" s="191"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="195"/>
       <c r="G14" s="123"/>
       <c r="H14" s="192"/>
-      <c r="I14" s="191"/>
+      <c r="I14" s="195"/>
     </row>
     <row r="15" spans="1:9" ht="60" customHeight="1">
       <c r="A15" s="36"/>
@@ -17865,15 +17961,15 @@
       <c r="D15" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="190" t="s">
+      <c r="E15" s="194" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="191"/>
+      <c r="F15" s="195"/>
       <c r="G15" s="123"/>
       <c r="H15" s="192" t="s">
         <v>33</v>
       </c>
-      <c r="I15" s="191"/>
+      <c r="I15" s="195"/>
     </row>
     <row r="16" spans="1:9" ht="60" customHeight="1">
       <c r="A16" s="36"/>
@@ -17884,13 +17980,13 @@
       <c r="D16" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="190" t="s">
+      <c r="E16" s="194" t="s">
         <v>59</v>
       </c>
-      <c r="F16" s="191"/>
+      <c r="F16" s="195"/>
       <c r="G16" s="123"/>
       <c r="H16" s="192"/>
-      <c r="I16" s="191"/>
+      <c r="I16" s="195"/>
     </row>
     <row r="17" spans="1:9" ht="60" customHeight="1">
       <c r="A17" s="37"/>
@@ -17901,13 +17997,13 @@
       <c r="D17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="E17" s="190" t="s">
+      <c r="E17" s="194" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="191"/>
+      <c r="F17" s="195"/>
       <c r="G17" s="123"/>
       <c r="H17" s="192"/>
-      <c r="I17" s="191"/>
+      <c r="I17" s="195"/>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="8"/>
@@ -17922,6 +18018,22 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E14:F14"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="H6:I6"/>
@@ -17931,24 +18043,8 @@
     <mergeCell ref="H8:I8"/>
     <mergeCell ref="H9:I9"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
-  <phoneticPr fontId="7"/>
+  <phoneticPr fontId="8"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="37" orientation="portrait" r:id="rId1"/>
